--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象VM" sheetId="1" r:id="rId1"/>
@@ -17,38 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>OSAccountID</t>
-  </si>
-  <si>
-    <t>vCenterID</t>
-  </si>
-  <si>
-    <t>VM</t>
-  </si>
-  <si>
-    <t>VerifyID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="174">
   <si>
     <t>testtestdb</t>
   </si>
   <si>
-    <t>192.168.0.1</t>
-  </si>
-  <si>
     <t>Linux</t>
   </si>
   <si>
@@ -59,9 +32,6 @@
   </si>
   <si>
     <t>win2012</t>
-  </si>
-  <si>
-    <t>192.168.0.2</t>
   </si>
   <si>
     <t>Windows</t>
@@ -344,16 +314,10 @@
     <t>mount コマンドで.isoファイルのマウント情報取得</t>
   </si>
   <si>
-    <t>oracle</t>
-  </si>
-  <si>
     <t>Oracleの有無</t>
   </si>
   <si>
     <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
-  </si>
-  <si>
-    <t>oracle_package</t>
   </si>
   <si>
     <t>proxy_global</t>
@@ -436,9 +400,6 @@
     <t>vncserverステータス</t>
   </si>
   <si>
-    <t xml:space="preserve"> chkconfig --listコマンドで、vncserver ファイヤーウォールの自動起動設定を検索</t>
-  </si>
-  <si>
     <t>oracle_module</t>
   </si>
   <si>
@@ -503,23 +464,232 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>項目ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>server_name</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>チェックシートのID。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>os_account_id</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+    <rPh sb="69" eb="71">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+    <rPh sb="4" eb="6">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>verify_id</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+    <rPh sb="4" eb="6">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>win2012</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_iops_limit</t>
+  </si>
+  <si>
+    <t>ストレージIOPS制限</t>
+    <rPh sb="9" eb="11">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vCenter</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ストレージリソースのIOPS制限値を検索</t>
+    <rPh sb="14" eb="17">
+      <t>セイゲンチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_storage</t>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ストレージ構成情報検索</t>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> chkconfig --listコマンドで、vncserver の自動起動設定を検索</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -527,374 +697,70 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -939,392 +805,105 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="28">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="28" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="55">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="標準 6" xfId="22"/>
-    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
-    <cellStyle name="Good" xfId="24" builtinId="26"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
-    <cellStyle name="標準" xfId="28"/>
-    <cellStyle name="Linked Cell" xfId="29" builtinId="24"/>
-    <cellStyle name="Total" xfId="30" builtinId="25"/>
-    <cellStyle name="Bad" xfId="31" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="32" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="33" builtinId="29"/>
-    <cellStyle name="標準 4" xfId="34"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="36" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="37" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="38" builtinId="34"/>
-    <cellStyle name="標準 5" xfId="39"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="41" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="42" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="43"/>
-    <cellStyle name="20% - Accent3" xfId="44" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="45" builtinId="41"/>
-    <cellStyle name="標準 3" xfId="46"/>
-    <cellStyle name="20% - Accent4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="48" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="51" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="54" builtinId="52"/>
+  <cellStyles count="7">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="5"/>
+    <cellStyle name="標準 3" xfId="6"/>
+    <cellStyle name="標準 4" xfId="3"/>
+    <cellStyle name="標準 5" xfId="4"/>
+    <cellStyle name="標準 6" xfId="1"/>
+    <cellStyle name="標準 7" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1614,260 +1193,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B4:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="26" customWidth="1"/>
-    <col min="5" max="8" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="16.5" spans="2:9">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17">
+        <v>4</v>
+      </c>
+      <c r="H4" s="17">
+        <v>5</v>
+      </c>
+      <c r="I4" s="17">
+        <v>6</v>
+      </c>
+      <c r="J4" s="17">
+        <v>7</v>
+      </c>
+      <c r="K4" s="17">
+        <v>8</v>
+      </c>
+      <c r="L4" s="17">
+        <v>9</v>
+      </c>
+      <c r="M4" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="B7" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="B8" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="2:13" ht="36" x14ac:dyDescent="0.15">
+      <c r="B9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:13" ht="36" x14ac:dyDescent="0.15">
+      <c r="B10" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="B11" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="2:9">
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="2:9">
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="2:9">
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" ht="16.5" spans="2:9">
-      <c r="B8" s="11">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" ht="16.5" spans="2:9">
-      <c r="B9" s="11">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" ht="16.5" spans="2:9">
-      <c r="B10" s="11">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:9">
-      <c r="B11" s="11">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" ht="16.5" spans="2:9">
-      <c r="B12" s="11">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" ht="16.5" spans="2:9">
-      <c r="B13" s="11">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" ht="16.5" spans="2:9">
-      <c r="B14" s="11">
-        <v>10</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" ht="16.5" spans="2:9">
-      <c r="B15" s="11">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" ht="16.5" spans="2:9">
-      <c r="B16" s="11">
-        <v>12</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" ht="16.5" spans="2:9">
-      <c r="B17" s="11">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" ht="16.5" spans="2:9">
-      <c r="B18" s="11">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -1877,797 +1521,808 @@
     <col min="7" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="F14" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8"/>
+      <c r="F18" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B19" s="9" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" ht="42.75" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="D25" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
+      <c r="F25" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B26" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D26" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F26" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>79</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" ht="28.5" spans="1:6">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" ht="42.75" spans="1:6">
-      <c r="A30" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" ht="42.75" spans="1:6">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" ht="71.25" spans="1:6">
-      <c r="A32" s="9" t="s">
-        <v>22</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" ht="42.75" spans="1:6">
-      <c r="A33" s="9" t="s">
-        <v>22</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F34" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="9"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="B36" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="D36" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:6">
+      <c r="F36" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" ht="33" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>107</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="D39" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:6">
+      <c r="F39" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" spans="1:6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" ht="33" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" ht="49.5" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" ht="33" spans="1:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" ht="16.5" spans="1:6">
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
       <c r="B48" s="13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" ht="33" spans="1:6">
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="15"/>
+        <v>124</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="D50" s="16" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
+      <c r="F50" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A4:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
@@ -2677,389 +2332,411 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" ht="28.5" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="D18" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D19" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" ht="28.5" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F19" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>146</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>148</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="F26" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3067,7 +2744,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3075,23 +2752,23 @@
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3099,7 +2776,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -3107,23 +2784,38 @@
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
     </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -3132,293 +2824,293 @@
     <col min="6" max="6" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" ht="18.75" spans="1:6">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" ht="18.75" spans="1:6">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" ht="18.75" spans="1:6">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" ht="18.75" spans="1:6">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" ht="18.75" spans="1:6">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="18.75" spans="1:6">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="18.75" spans="1:6">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" ht="18.75" spans="1:6">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" ht="18.75" spans="1:6">
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" ht="18.75" spans="1:6">
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" ht="18.75" spans="1:6">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18.75" spans="1:6">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" ht="18.75" spans="1:6">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" ht="18.75" spans="1:6">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" ht="18.75" spans="1:6">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" ht="18.75" spans="1:6">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" ht="18.75" spans="1:6">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14820" activeTab="1"/>
+    <workbookView windowWidth="23280" windowHeight="12795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象VM" sheetId="1" r:id="rId1"/>
@@ -17,29 +17,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+  <si>
+    <t>項目ID</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名</t>
+  </si>
+  <si>
+    <t>win2012</t>
+  </si>
   <si>
     <t>testtestdb</t>
   </si>
   <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>チェックシートのID。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
     <t>Linux</t>
   </si>
   <si>
+    <t>os_account_id</t>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>verify_id</t>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t>RuleAP</t>
+  </si>
+  <si>
     <t>RuleDB</t>
   </si>
   <si>
-    <t>win2012</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>RuleAP</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -76,30 +127,45 @@
     <t>CPU割り当て数</t>
   </si>
   <si>
+    <t>仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
     <t>PowerState</t>
   </si>
   <si>
     <t>電源状態</t>
   </si>
   <si>
+    <t>電源On/Off</t>
+  </si>
+  <si>
     <t>MemoryGB</t>
   </si>
   <si>
     <t>メモリ割り当て</t>
   </si>
   <si>
+    <t>メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
     <t>VMHost</t>
   </si>
   <si>
     <t>ESXiホスト</t>
   </si>
   <si>
+    <t>ESXiホスト名</t>
+  </si>
+  <si>
     <t>Cluster</t>
   </si>
   <si>
     <t>クラスター</t>
   </si>
   <si>
+    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
+  </si>
+  <si>
     <t>vmwaretool</t>
   </si>
   <si>
@@ -118,6 +184,24 @@
     <t>VMWare 時刻同期の有無</t>
   </si>
   <si>
+    <t>vm_iops_limit</t>
+  </si>
+  <si>
+    <t>ストレージIOPS制限</t>
+  </si>
+  <si>
+    <t>ストレージリソースのIOPS制限値を検索</t>
+  </si>
+  <si>
+    <t>vm_storage</t>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
+  </si>
+  <si>
+    <t>ストレージ構成情報検索</t>
+  </si>
+  <si>
     <t>hostname</t>
   </si>
   <si>
@@ -166,12 +250,18 @@
     <t>プロセッサーモデル</t>
   </si>
   <si>
+    <t>CPUプロセッサーモデル</t>
+  </si>
+  <si>
     <t>mhz</t>
   </si>
   <si>
     <t>CPUクロック</t>
   </si>
   <si>
+    <t>CPUクロック数[MHz]</t>
+  </si>
+  <si>
     <t>cpu_total</t>
   </si>
   <si>
@@ -182,6 +272,9 @@
   </si>
   <si>
     <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUコア数。VMの場合は未記入</t>
   </si>
   <si>
     <t>cpu_real</t>
@@ -213,7 +306,13 @@
     <t>mem_total</t>
   </si>
   <si>
+    <t>物理搭載メモリ量[MB]</t>
+  </si>
+  <si>
     <t>mem_free</t>
+  </si>
+  <si>
+    <t>メモリ空き容量[MB]</t>
   </si>
   <si>
     <t>network</t>
@@ -305,6 +404,9 @@
     <t>requiement_for_oracle</t>
   </si>
   <si>
+    <t>Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
+  </si>
+  <si>
     <t>mount_iso</t>
   </si>
   <si>
@@ -314,7 +416,10 @@
     <t>mount コマンドで.isoファイルのマウント情報取得</t>
   </si>
   <si>
-    <t>Oracleの有無</t>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleモジュールの有無</t>
   </si>
   <si>
     <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
@@ -382,6 +487,9 @@
     <t>DNSサーバ名</t>
   </si>
   <si>
+    <t>DNSサーバの検索</t>
+  </si>
+  <si>
     <t>sestatus</t>
   </si>
   <si>
@@ -394,15 +502,27 @@
     <t>se_mode</t>
   </si>
   <si>
+    <t>SELinuxモードの検索。SELinuxが無効の場合は未記入</t>
+  </si>
+  <si>
     <t>vncserver</t>
   </si>
   <si>
     <t>vncserverステータス</t>
   </si>
   <si>
+    <t xml:space="preserve"> chkconfig --listコマンドで、vncserver ファイヤーウォールの自動起動設定を検索</t>
+  </si>
+  <si>
     <t>oracle_module</t>
   </si>
   <si>
+    <t>Oracleインストーラの有無</t>
+  </si>
+  <si>
+    <t>/root/packageの下にOracleインストールファイルがあるか</t>
+  </si>
+  <si>
     <t>CPU情報</t>
   </si>
   <si>
@@ -463,233 +583,27 @@
     <t>ストレージタイムアウト値</t>
   </si>
   <si>
+    <t>ストレージタイムアウト[秒]</t>
+  </si>
+  <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>項目ID</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>定義</t>
-    <rPh sb="0" eb="2">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>server_name</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>検査対象サーバ名</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
-    <rPh sb="3" eb="5">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-  </si>
-  <si>
-    <t>platform</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>チェックシートのID。設定ファイル内evidence.sheet_name_specのIDを指定</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>os_account_id</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-    <rPh sb="44" eb="46">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-    <rPh sb="69" eb="71">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>ミキニュウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-    <rPh sb="4" eb="6">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>ミキニュウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>verify_id</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-    <rPh sb="4" eb="6">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ミキニュウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>win2012</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>remote_account_id</t>
-  </si>
-  <si>
-    <t>remote_alias</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>vm_iops_limit</t>
-  </si>
-  <si>
-    <t>ストレージIOPS制限</t>
-    <rPh sb="9" eb="11">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>vCenter</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ストレージリソースのIOPS制限値を検索</t>
-    <rPh sb="14" eb="17">
-      <t>セイゲンチ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>vm_storage</t>
-  </si>
-  <si>
-    <t>ストレージ構成</t>
-    <rPh sb="5" eb="7">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ストレージ構成情報検索</t>
-    <rPh sb="5" eb="7">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> chkconfig --listコマンドで、vncserver の自動起動設定を検索</t>
-    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -697,70 +611,381 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -805,105 +1030,396 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="23" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="11" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5"/>
-    <cellStyle name="標準 3" xfId="6"/>
-    <cellStyle name="標準 4" xfId="3"/>
-    <cellStyle name="標準 5" xfId="4"/>
-    <cellStyle name="標準 6" xfId="1"/>
-    <cellStyle name="標準 7" xfId="2"/>
+  <cellStyles count="56">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="標準 7" xfId="11"/>
+    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="Title" xfId="17" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="Input" xfId="22" builtinId="20"/>
+    <cellStyle name="標準 6" xfId="23"/>
+    <cellStyle name="60% - Accent3" xfId="24" builtinId="40"/>
+    <cellStyle name="Good" xfId="25" builtinId="26"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="27" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="28" builtinId="22"/>
+    <cellStyle name="標準" xfId="29"/>
+    <cellStyle name="Linked Cell" xfId="30" builtinId="24"/>
+    <cellStyle name="Total" xfId="31" builtinId="25"/>
+    <cellStyle name="Bad" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="33" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="34" builtinId="29"/>
+    <cellStyle name="標準 4" xfId="35"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="37" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="38" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="39" builtinId="34"/>
+    <cellStyle name="標準 5" xfId="40"/>
+    <cellStyle name="20% - Accent6" xfId="41" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="42" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="43" builtinId="37"/>
+    <cellStyle name="標準 2" xfId="44"/>
+    <cellStyle name="20% - Accent3" xfId="45" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="46" builtinId="41"/>
+    <cellStyle name="標準 3" xfId="47"/>
+    <cellStyle name="20% - Accent4" xfId="48" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="49" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="50" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="51" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="52" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="53" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="54" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="55" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1193,325 +1709,329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B4:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="36.875" customWidth="1"/>
     <col min="4" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="17">
+    <row r="4" spans="2:13">
+      <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
         <v>2</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <v>3</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="18">
         <v>4</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="18">
         <v>5</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="18">
         <v>6</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="18">
         <v>7</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="18">
         <v>8</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="18">
         <v>9</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="17" t="s">
+    <row r="5" spans="2:13">
+      <c r="B5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="2:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="B6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="2:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="B7" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="2:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:13" ht="36" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="2:13" ht="36" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" ht="24.75" spans="2:13">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="C6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" ht="25.5" spans="2:13">
+      <c r="B7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" ht="63" spans="2:13">
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" ht="49.5" spans="2:13">
+      <c r="B9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" ht="36.75" spans="2:13">
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" ht="24.75" spans="2:13">
+      <c r="B11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A4:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -1521,808 +2041,859 @@
     <col min="7" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F8" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:6">
       <c r="A19" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F20" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F21" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F22" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F23" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="F24" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" ht="42.75" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" ht="28.5" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F27" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F28" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="F30" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" ht="28.5" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" ht="42.75" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" ht="42.75" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" ht="71.25" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" ht="42.75" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" ht="28.5" spans="1:6">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F38" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" ht="33" spans="1:6">
       <c r="A40" s="13" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="13"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:6">
+      <c r="A41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="14"/>
       <c r="F41" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="13"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:6">
+      <c r="A42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="14"/>
       <c r="F42" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.15">
-      <c r="A43" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:6">
+      <c r="A43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="14"/>
       <c r="F43" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" ht="33" spans="1:6">
+      <c r="A44" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="14"/>
       <c r="F44" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
-      <c r="A45" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" ht="49.5" spans="1:6">
+      <c r="A45" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="14"/>
       <c r="F45" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" ht="33" spans="1:6">
+      <c r="A46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="1:6">
+      <c r="A47" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="1:6">
+      <c r="A48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" ht="33" spans="1:6">
       <c r="A50" s="14" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="14"/>
       <c r="F50" s="12" t="s">
-        <v>97</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:6">
+      <c r="A51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
@@ -2332,411 +2903,433 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F8" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F16" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F17" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="F18" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:6">
       <c r="A19" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F20" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="F21" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F27" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2744,7 +3337,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2752,7 +3345,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2760,7 +3353,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2768,7 +3361,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2776,7 +3369,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2784,7 +3377,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2792,7 +3385,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2801,21 +3394,22 @@
       <c r="F35" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -2824,293 +3418,293 @@
     <col min="6" max="6" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" ht="18.75" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" ht="18.75" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="10" ht="18.75" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" ht="18.75" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="12" ht="18.75" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="13" ht="18.75" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="14" ht="18.75" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="15" ht="18.75" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="16" ht="18.75" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="17" ht="18.75" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="18" ht="18.75" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="19" ht="18.75" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="20" ht="18.75" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="21" ht="18.75" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="22" ht="18.75" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" ht="18.75" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="12795" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象VM" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
   <si>
     <t>項目ID</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>RuleDB</t>
+  </si>
+  <si>
+    <t>以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
   </si>
   <si>
     <t>ID</t>
@@ -306,13 +309,13 @@
     <t>mem_total</t>
   </si>
   <si>
-    <t>物理搭載メモリ量[MB]</t>
+    <t>物理搭載メモリ量[KB]</t>
   </si>
   <si>
     <t>mem_free</t>
   </si>
   <si>
-    <t>メモリ空き容量[MB]</t>
+    <t>メモリ空き容量[KB]</t>
   </si>
   <si>
     <t>network</t>
@@ -594,12 +597,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,34 +625,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,7 +652,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,7 +660,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -687,7 +698,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,14 +721,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,31 +729,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,6 +772,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -800,7 +789,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +861,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,37 +933,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,121 +963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,6 +1020,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1042,15 +1040,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,6 +1059,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1081,26 +1081,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,236 +1108,230 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="29">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="23" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="11" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="23" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1713,307 +1687,309 @@
   <sheetPr/>
   <dimension ref="B4:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
-    <col min="4" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="36.8761904761905" customWidth="1"/>
+    <col min="4" max="8" width="14.5047619047619" customWidth="1"/>
+    <col min="9" max="9" width="12.247619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="13">
         <v>3</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="13">
         <v>4</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="13">
         <v>5</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="13">
         <v>6</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="13">
         <v>7</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="13">
         <v>8</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="13">
         <v>9</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" ht="24.75" spans="2:13">
-      <c r="B6" s="18" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" ht="28.5" spans="2:13">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" ht="25.5" spans="2:13">
-      <c r="B7" s="18" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" ht="28.5" spans="2:13">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" ht="63" spans="2:13">
-      <c r="B8" s="18" t="s">
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" ht="71.25" spans="2:13">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" ht="49.5" spans="2:13">
-      <c r="B9" s="18" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" ht="57" spans="2:13">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" ht="36.75" spans="2:13">
-      <c r="B10" s="18" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" ht="42.75" spans="2:13">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" ht="24.75" spans="2:13">
-      <c r="B11" s="18" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" ht="28.5" spans="2:13">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" ht="42.75" spans="2:13">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2028,853 +2004,853 @@
   <dimension ref="A4:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F28"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="20.6285714285714" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="54.875" customWidth="1"/>
-    <col min="7" max="10" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="9.75238095238095" customWidth="1"/>
+    <col min="5" max="5" width="6.5047619047619" customWidth="1"/>
+    <col min="6" max="6" width="54.8761904761905" customWidth="1"/>
+    <col min="7" max="10" width="14.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
-        <v>68</v>
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" ht="28.5" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
-        <v>82</v>
+      <c r="C22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10" t="s">
+      <c r="C23" s="6" t="s">
         <v>85</v>
       </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10" t="s">
-        <v>87</v>
+      <c r="C24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" ht="42.75" spans="1:6">
-      <c r="A25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10" t="s">
+      <c r="C25" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" ht="28.5" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="9" t="s">
+    </row>
+    <row r="29" ht="28.5" spans="1:6">
+      <c r="A29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="C29" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="D29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10" t="s">
-        <v>102</v>
+      <c r="C30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="31" ht="28.5" spans="1:6">
-      <c r="A31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10" t="s">
+      <c r="C31" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="32" ht="42.75" spans="1:6">
-      <c r="A32" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10" t="s">
+      <c r="C32" s="6" t="s">
         <v>109</v>
       </c>
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="33" ht="42.75" spans="1:6">
-      <c r="A33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10" t="s">
+      <c r="C33" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="D33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="34" ht="71.25" spans="1:6">
-      <c r="A34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="C34" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="D34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" ht="42.75" spans="1:6">
-      <c r="A35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10" t="s">
+      <c r="C35" s="6" t="s">
         <v>118</v>
       </c>
+      <c r="D35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10" t="s">
+      <c r="C36" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="D36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="C37" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" ht="28.5" spans="1:6">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9" t="s">
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10" t="s">
+    </row>
+    <row r="38" ht="42.75" spans="1:6">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="39" ht="16.5" spans="1:6">
-      <c r="A39" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="11" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="12" t="s">
+      <c r="C39" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" ht="33" spans="1:6">
-      <c r="A40" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="13" t="s">
+      <c r="D39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="11" t="s">
+    </row>
+    <row r="40" ht="28.5" spans="1:6">
+      <c r="A40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="12" t="s">
+      <c r="C40" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="41" ht="16.5" spans="1:6">
-      <c r="A41" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="14" t="s">
+      <c r="D40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="15" t="s">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="12" t="s">
+      <c r="C41" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" ht="16.5" spans="1:6">
-      <c r="A42" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="14" t="s">
+      <c r="D41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="15" t="s">
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="12" t="s">
+      <c r="C42" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" ht="16.5" spans="1:6">
-      <c r="A43" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="14" t="s">
+      <c r="D42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="15" t="s">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="12" t="s">
+      <c r="C43" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" ht="33" spans="1:6">
-      <c r="A44" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="14" t="s">
+      <c r="D43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="15" t="s">
+    </row>
+    <row r="44" ht="28.5" spans="1:6">
+      <c r="A44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="12" t="s">
+      <c r="C44" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" ht="49.5" spans="1:6">
-      <c r="A45" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="14" t="s">
+      <c r="D44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="15" t="s">
+    </row>
+    <row r="45" ht="42.75" spans="1:6">
+      <c r="A45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="12" t="s">
+      <c r="C45" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="46" ht="33" spans="1:6">
-      <c r="A46" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="14" t="s">
+      <c r="D45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="15" t="s">
+    </row>
+    <row r="46" ht="28.5" spans="1:6">
+      <c r="A46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="12" t="s">
+      <c r="C46" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="47" ht="16.5" spans="1:6">
-      <c r="A47" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="14" t="s">
+      <c r="D46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="15" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13" t="s">
+      <c r="C47" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="48" ht="16.5" spans="1:6">
-      <c r="A48" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="14" t="s">
+      <c r="D47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="15" t="s">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="12" t="s">
+      <c r="C48" s="7" t="s">
         <v>156</v>
       </c>
+      <c r="D48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="8" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="13" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="50" ht="33" spans="1:6">
-      <c r="A50" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="14" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="15" t="s">
+    </row>
+    <row r="50" ht="28.5" spans="1:6">
+      <c r="A50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="12" t="s">
+      <c r="C50" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="51" ht="16.5" spans="1:6">
-      <c r="A51" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="14" t="s">
+      <c r="D50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="15" t="s">
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17" t="s">
+      <c r="C51" s="7" t="s">
         <v>164</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2889,509 +2865,509 @@
   <sheetPr/>
   <dimension ref="A4:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="A4:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="56.625" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="17.6285714285714" customWidth="1"/>
+    <col min="3" max="3" width="27.247619047619" customWidth="1"/>
+    <col min="4" max="4" width="15.752380952381" customWidth="1"/>
+    <col min="5" max="5" width="6.5047619047619" customWidth="1"/>
+    <col min="6" max="6" width="56.6285714285714" customWidth="1"/>
+    <col min="7" max="7" width="15.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
-        <v>166</v>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
-        <v>77</v>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
-        <v>80</v>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
-        <v>82</v>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="A19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
-        <v>169</v>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
-        <v>95</v>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10" t="s">
-        <v>97</v>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
-        <v>174</v>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>176</v>
+      <c r="E23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="9" t="s">
+    </row>
+    <row r="25" ht="28.5" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>180</v>
+      <c r="E25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="s">
-        <v>182</v>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10" t="s">
-        <v>185</v>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3406,28 +3382,28 @@
   <dimension ref="A4:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="9.71428571428571" customWidth="1"/>
+    <col min="5" max="5" width="16.1238095238095" customWidth="1"/>
+    <col min="6" max="6" width="16.247619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -3439,13 +3415,13 @@
     <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -3453,13 +3429,13 @@
     <row r="6" ht="18.75" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -3467,13 +3443,13 @@
     <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3481,13 +3457,13 @@
     <row r="8" ht="18.75" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -3495,13 +3471,13 @@
     <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -3509,13 +3485,13 @@
     <row r="10" ht="18.75" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -3523,13 +3499,13 @@
     <row r="11" ht="18.75" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -3537,10 +3513,10 @@
     <row r="12" ht="18.75" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
@@ -3551,10 +3527,10 @@
     <row r="13" ht="18.75" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>12</v>
@@ -3565,10 +3541,10 @@
     <row r="14" ht="18.75" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>12</v>
@@ -3579,10 +3555,10 @@
     <row r="15" ht="18.75" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
@@ -3593,10 +3569,10 @@
     <row r="16" ht="18.75" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
@@ -3607,10 +3583,10 @@
     <row r="17" ht="18.75" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>11</v>
@@ -3621,10 +3597,10 @@
     <row r="18" ht="18.75" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>11</v>
@@ -3635,10 +3611,10 @@
     <row r="19" ht="18.75" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
@@ -3649,10 +3625,10 @@
     <row r="20" ht="18.75" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>11</v>
@@ -3663,10 +3639,10 @@
     <row r="21" ht="18.75" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
@@ -3677,10 +3653,10 @@
     <row r="22" ht="18.75" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>11</v>
@@ -3691,10 +3667,10 @@
     <row r="23" ht="18.75" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>11</v>

--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象VM" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="193">
   <si>
     <t>項目ID</t>
   </si>
@@ -590,23 +590,36 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>net_route</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>デフォルトゲートウェイ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ip route コマンドでデフォルトゲートウェイのアドレスを検索</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -614,367 +627,55 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1019,381 +720,97 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="23" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="標準 7" xfId="11"/>
-    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="Title" xfId="17" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
-    <cellStyle name="Input" xfId="22" builtinId="20"/>
-    <cellStyle name="標準 6" xfId="23"/>
-    <cellStyle name="60% - Accent3" xfId="24" builtinId="40"/>
-    <cellStyle name="Good" xfId="25" builtinId="26"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="27" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="28" builtinId="22"/>
-    <cellStyle name="標準" xfId="29"/>
-    <cellStyle name="Linked Cell" xfId="30" builtinId="24"/>
-    <cellStyle name="Total" xfId="31" builtinId="25"/>
-    <cellStyle name="Bad" xfId="32" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="33" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="34" builtinId="29"/>
-    <cellStyle name="標準 4" xfId="35"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="37" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="38" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="39" builtinId="34"/>
-    <cellStyle name="標準 5" xfId="40"/>
-    <cellStyle name="20% - Accent6" xfId="41" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="42" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="43" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="44"/>
-    <cellStyle name="20% - Accent3" xfId="45" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="46" builtinId="41"/>
-    <cellStyle name="標準 3" xfId="47"/>
-    <cellStyle name="20% - Accent4" xfId="48" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="49" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="50" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="51" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="52" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="53" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="54" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="55" builtinId="52"/>
+  <cellStyles count="8">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="6"/>
+    <cellStyle name="標準 3" xfId="7"/>
+    <cellStyle name="標準 4" xfId="4"/>
+    <cellStyle name="標準 5" xfId="5"/>
+    <cellStyle name="標準 6" xfId="2"/>
+    <cellStyle name="標準 7" xfId="1"/>
+    <cellStyle name="標準 8" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1683,23 +1100,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.8761904761905" customWidth="1"/>
-    <col min="4" max="8" width="14.5047619047619" customWidth="1"/>
-    <col min="9" max="9" width="12.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1759,7 +1173,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" ht="28.5" spans="2:13">
+    <row r="6" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +1195,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" ht="28.5" spans="2:13">
+    <row r="7" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
@@ -1803,7 +1217,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" ht="71.25" spans="2:13">
+    <row r="8" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1239,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" ht="57" spans="2:13">
+    <row r="9" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1847,7 +1261,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" ht="42.75" spans="2:13">
+    <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
@@ -1869,7 +1283,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" ht="28.5" spans="2:13">
+    <row r="11" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1891,7 +1305,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" ht="42.75" spans="2:13">
+    <row r="12" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
         <v>24</v>
@@ -1907,7 +1321,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1921,7 +1335,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1935,7 +1349,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1949,7 +1363,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1963,7 +1377,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1977,7 +1391,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1992,32 +1406,31 @@
       <c r="M18" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A4:F51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.6285714285714" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="9.75238095238095" customWidth="1"/>
-    <col min="5" max="5" width="6.5047619047619" customWidth="1"/>
-    <col min="6" max="6" width="54.8761904761905" customWidth="1"/>
-    <col min="7" max="10" width="14.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="54.875" customWidth="1"/>
+    <col min="7" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2037,7 +1450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -2055,7 +1468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
         <v>35</v>
@@ -2071,7 +1484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
         <v>38</v>
@@ -2087,7 +1500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
         <v>41</v>
@@ -2103,7 +1516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
         <v>44</v>
@@ -2119,7 +1532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="6" t="s">
         <v>47</v>
@@ -2135,7 +1548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -2153,7 +1566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +1584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -2189,7 +1602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -2209,7 +1622,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -2227,7 +1640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -2245,7 +1658,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -2263,7 +1676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -2281,7 +1694,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" ht="28.5" spans="1:6">
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -2299,7 +1712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
         <v>76</v>
@@ -2315,7 +1728,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
         <v>79</v>
@@ -2331,7 +1744,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
         <v>82</v>
@@ -2347,7 +1760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="6" t="s">
         <v>84</v>
@@ -2363,7 +1776,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="6" t="s">
         <v>87</v>
@@ -2379,7 +1792,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" ht="42.75" spans="1:6">
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
@@ -2397,7 +1810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" ht="28.5" spans="1:6">
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -2415,7 +1828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="6" t="s">
         <v>95</v>
@@ -2429,7 +1842,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
         <v>97</v>
@@ -2443,7 +1856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" ht="28.5" spans="1:6">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
@@ -2463,7 +1876,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="6" t="s">
         <v>102</v>
@@ -2479,7 +1892,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" ht="28.5" spans="1:6">
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
@@ -2497,389 +1910,406 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" ht="42.75" spans="1:6">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" ht="42.75" spans="1:6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" ht="71.25" spans="1:6">
-      <c r="A34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="D35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" ht="42.75" spans="1:6">
-      <c r="A35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="D38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" ht="42.75" spans="1:6">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" ht="28.5" spans="1:6">
-      <c r="A40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="9" t="s">
+    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="8" t="s">
+      <c r="D41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="10" t="s">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" ht="28.5" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" ht="42.75" spans="1:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" ht="28.5" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="10" t="s">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="9" t="s">
+      <c r="D48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="10" t="s">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="8" t="s">
+      <c r="D49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="s">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="9" t="s">
+      <c r="C50" s="10"/>
+      <c r="D50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" ht="28.5" spans="1:6">
-      <c r="A50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="10" t="s">
+    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="8" t="s">
+      <c r="D51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="10" t="s">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12" t="s">
+      <c r="D52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="A4:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.6285714285714" customWidth="1"/>
-    <col min="3" max="3" width="27.247619047619" customWidth="1"/>
-    <col min="4" max="4" width="15.752380952381" customWidth="1"/>
-    <col min="5" max="5" width="6.5047619047619" customWidth="1"/>
-    <col min="6" max="6" width="56.6285714285714" customWidth="1"/>
-    <col min="7" max="7" width="15.1238095238095" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="56.625" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2899,7 +2329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -2917,7 +2347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -2935,7 +2365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -2953,7 +2383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2971,7 +2401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -2989,7 +2419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
@@ -3007,7 +2437,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -3025,7 +2455,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -3043,7 +2473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -3061,7 +2491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -3081,7 +2511,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -3099,7 +2529,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
         <v>76</v>
@@ -3115,7 +2545,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
         <v>79</v>
@@ -3131,7 +2561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
         <v>82</v>
@@ -3147,7 +2577,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" ht="28.5" spans="1:6">
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3165,7 +2595,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
         <v>171</v>
@@ -3179,7 +2609,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
         <v>172</v>
@@ -3193,7 +2623,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" ht="28.5" spans="1:6">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
@@ -3211,7 +2641,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -3231,7 +2661,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -3249,7 +2679,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" ht="28.5" spans="1:6">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
@@ -3269,7 +2699,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -3287,7 +2717,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
@@ -3305,7 +2735,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3313,7 +2743,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3321,7 +2751,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3329,7 +2759,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3337,7 +2767,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3345,7 +2775,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3353,7 +2783,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -3361,7 +2791,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3370,31 +2800,30 @@
       <c r="F35" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="9.71428571428571" customWidth="1"/>
-    <col min="5" max="5" width="16.1238095238095" customWidth="1"/>
-    <col min="6" max="6" width="16.247619047619" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -3412,7 +2841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>31</v>
@@ -3426,7 +2855,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>35</v>
@@ -3440,7 +2869,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" ht="18.75" spans="1:6">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>41</v>
@@ -3454,7 +2883,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" ht="18.75" spans="1:6">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>44</v>
@@ -3468,7 +2897,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" ht="18.75" spans="1:6">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>47</v>
@@ -3482,7 +2911,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" ht="18.75" spans="1:6">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>50</v>
@@ -3496,7 +2925,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" ht="18.75" spans="1:6">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>53</v>
@@ -3510,7 +2939,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="18.75" spans="1:6">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>62</v>
@@ -3524,7 +2953,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="18.75" spans="1:6">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>68</v>
@@ -3538,7 +2967,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" ht="18.75" spans="1:6">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>70</v>
@@ -3552,7 +2981,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" ht="18.75" spans="1:6">
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>82</v>
@@ -3566,7 +2995,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" ht="18.75" spans="1:6">
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>187</v>
@@ -3580,7 +3009,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" ht="18.75" spans="1:6">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>73</v>
@@ -3594,7 +3023,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18.75" spans="1:6">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>169</v>
@@ -3608,7 +3037,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" ht="18.75" spans="1:6">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>173</v>
@@ -3622,7 +3051,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" ht="18.75" spans="1:6">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>114</v>
@@ -3636,7 +3065,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" ht="18.75" spans="1:6">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>117</v>
@@ -3650,7 +3079,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" ht="18.75" spans="1:6">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>99</v>
@@ -3664,7 +3093,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" ht="18.75" spans="1:6">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>182</v>
@@ -3679,8 +3108,8 @@
       <c r="F23" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="チェック対象" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="検査ルール" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
+    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" r:id="rId2"/>
+    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" r:id="rId3"/>
+    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" r:id="rId4"/>
+    <sheet name="検査ルール" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="357">
-  <si>
-    <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="362">
+  <si>
+    <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
   <si>
     <t xml:space="preserve">* 項目IDが1番以降のセルを編集します。 
@@ -37,1109 +36,1116 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">項目ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">server_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esxi001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012.ostrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.10.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
+    <t>項目ID</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
+  </si>
+  <si>
+    <t>win2012</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>esxi001</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
+    <t>192.168.0.14</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>VMHost</t>
+  </si>
+  <si>
+    <t>os_account_id</t>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>win2012.ostrich</t>
+  </si>
+  <si>
+    <t>192.168.10.100</t>
+  </si>
+  <si>
+    <t>verify_id</t>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t>以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デバイス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採取情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumCpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源On/Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vmwaretool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_timesync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期の有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_iops_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージIOPS制限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname_fqdn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSカーネル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSバージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux OSディストリビューション情報 を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/proc/cpuinfo を検索してプロセッサ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUプロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック数[MHz]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数。VMの場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machineid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サーバの識別子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下のファイルを検索してマシンの識別子を検索
+    <t>ID</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>採取情報</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>vm</t>
+  </si>
+  <si>
+    <t>VMWare リソース</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t>NumCpu</t>
+  </si>
+  <si>
+    <t>├─CPU割り当て数</t>
+  </si>
+  <si>
+    <t>仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
+    <t>PowerState</t>
+  </si>
+  <si>
+    <t>├─電源状態</t>
+  </si>
+  <si>
+    <t>電源On/Off</t>
+  </si>
+  <si>
+    <t>MemoryGB</t>
+  </si>
+  <si>
+    <t>├─メモリ割り当て</t>
+  </si>
+  <si>
+    <t>メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
+    <t>├─ESXiホスト</t>
+  </si>
+  <si>
+    <t>ESXiホスト名</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>└─クラスター</t>
+  </si>
+  <si>
+    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
+  </si>
+  <si>
+    <t>vmwaretool</t>
+  </si>
+  <si>
+    <t>VMWare ツール</t>
+  </si>
+  <si>
+    <t>VMWare ツールの有無、アップグレードの検索</t>
+  </si>
+  <si>
+    <t>vm_timesync</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期の有無</t>
+  </si>
+  <si>
+    <t>vm_iops_limit</t>
+  </si>
+  <si>
+    <t>ストレージIOPS制限</t>
+  </si>
+  <si>
+    <t>ストレージリソースのIOPS制限値を検索</t>
+  </si>
+  <si>
+    <t>vm_storage</t>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
+  </si>
+  <si>
+    <t>ストレージ構成情報検索</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>ホスト名</t>
+  </si>
+  <si>
+    <t>ホスト名の検索</t>
+  </si>
+  <si>
+    <t>hostname_fqdn</t>
+  </si>
+  <si>
+    <t>FQDN名</t>
+  </si>
+  <si>
+    <t>FQDN名の検索</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>OSカーネル</t>
+  </si>
+  <si>
+    <t>lsb</t>
+  </si>
+  <si>
+    <t>OSバージョン</t>
+  </si>
+  <si>
+    <t>Linux OSディストリビューション情報 を検索</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>CPU情報</t>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索してプロセッサ構成を検索</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>├─プロセッサーモデル</t>
+  </si>
+  <si>
+    <t>CPUプロセッサーモデル</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>├─CPUクロック</t>
+  </si>
+  <si>
+    <t>CPUクロック数[MHz]</t>
+  </si>
+  <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
+    <t>├─CPUスレッド数</t>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+  </si>
+  <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>├─CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUコア数。VMの場合は未記入</t>
+  </si>
+  <si>
+    <t>cpu_real</t>
+  </si>
+  <si>
+    <t>└─CPUソケット数</t>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+  </si>
+  <si>
+    <t>machineid</t>
+  </si>
+  <si>
+    <t>サーバの識別子</t>
+  </si>
+  <si>
+    <t>以下のファイルを検索してマシンの識別子を検索
     /etc/machine-id
     /var/lib/dbus/machine-id</t>
   </si>
   <si>
-    <t xml:space="preserve">meminfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─搭載メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理搭載メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─メモリ空容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ空き容量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hw_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_onboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークブート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デフォルトゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block_device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージデバイス</t>
+    <t>meminfo</t>
+  </si>
+  <si>
+    <t>メモリ情報</t>
+  </si>
+  <si>
+    <t>"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
+  </si>
+  <si>
+    <t>mem_total</t>
+  </si>
+  <si>
+    <t>├─搭載メモリ量</t>
+  </si>
+  <si>
+    <t>物理搭載メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>mem_free</t>
+  </si>
+  <si>
+    <t>└─メモリ空容量</t>
+  </si>
+  <si>
+    <t>メモリ空き容量[KB]</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>ネットワーク情報</t>
+  </si>
+  <si>
+    <t>/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>hw_address</t>
+  </si>
+  <si>
+    <t>└─MACアドレス</t>
+  </si>
+  <si>
+    <t>MACアドレス</t>
+  </si>
+  <si>
+    <t>net_onboot</t>
+  </si>
+  <si>
+    <t>ネットワークブート</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
+  </si>
+  <si>
+    <t>net_route</t>
+  </si>
+  <si>
+    <t>デフォルトゲートウェイ</t>
+  </si>
+  <si>
+    <t>/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>block_device</t>
+  </si>
+  <si>
+    <t>ストレージデバイス</t>
   </si>
   <si>
     <t xml:space="preserve">/sys/block/下を検索し、各デバイスのベンダー情報、タイムアウト値、キューサイズを検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">mdadb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクRAID</t>
+    <t>mdadb</t>
+  </si>
+  <si>
+    <t>ディスクRAID</t>
   </si>
   <si>
     <t xml:space="preserve">"/proc/mdstat" ファイルを探して、md([0-9]+)デバイスを取得。"mdadm --detail /dev/#{device}" を実行して、結果を取得。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">filesystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルシステム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ルート(/)マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.[SWAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─/boot マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/boot マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.zabbix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─zabbix ユーザ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zabbix ユーザの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データの暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下ファイルを読んで、データ暗号化の有無を確認
+    <t>filesystem</t>
+  </si>
+  <si>
+    <t>ファイルシステム</t>
+  </si>
+  <si>
+    <t>"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem./</t>
+  </si>
+  <si>
+    <t>├─ルート(/)マウントポイント</t>
+  </si>
+  <si>
+    <t>ルート(/)マウントポイント容量</t>
+  </si>
+  <si>
+    <t>filesystem.[SWAP]</t>
+  </si>
+  <si>
+    <t>├─スワップ</t>
+  </si>
+  <si>
+    <t>スワップ容量</t>
+  </si>
+  <si>
+    <t>filesystem./boot</t>
+  </si>
+  <si>
+    <t>└─/boot マウントポイント</t>
+  </si>
+  <si>
+    <t>/boot マウントポイント容量</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+  </si>
+  <si>
+    <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>user.zabbix</t>
+  </si>
+  <si>
+    <t>└─zabbix ユーザ</t>
+  </si>
+  <si>
+    <t>zabbix ユーザの有無</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>データの暗号化</t>
+  </si>
+  <si>
+    <t>以下ファイルを読んで、データ暗号化の有無を確認
 /proc/sys/crypto/fips_enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">virturization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想化プラットフォーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービス構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.kdump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Kdumpクラッシュリカバリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdump クラッシュリカバリーサービスの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.iptables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.ip6tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─IPv6ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip6tables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.restorecond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─SELinux運用サポート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinux の運用サポートデーモンの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.NetworkManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ネットワークマネージャー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク管理の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.vncserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─VNCサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNCサーバの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpm -qa でパッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.gcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─gcc コンパイラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gcc パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.httpd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Apache HTTPサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">httpd パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─MySQLデータベース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysql パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requiement_for_oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Oracle必須パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOマウントの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proxy_global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yumコマンドプロキシ設定有無</t>
+    <t>virturization</t>
+  </si>
+  <si>
+    <t>仮想化プラットフォーム</t>
+  </si>
+  <si>
+    <t>XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>サービス構成</t>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>service.kdump</t>
+  </si>
+  <si>
+    <t>├─Kdumpクラッシュリカバリ</t>
+  </si>
+  <si>
+    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.iptables</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>iptables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.ip6tables</t>
+  </si>
+  <si>
+    <t>├─IPv6ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>ip6tables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.restorecond</t>
+  </si>
+  <si>
+    <t>├─SELinux運用サポート</t>
+  </si>
+  <si>
+    <t>SELinux の運用サポートデーモンの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.NetworkManager</t>
+  </si>
+  <si>
+    <t>├─ネットワークマネージャー</t>
+  </si>
+  <si>
+    <t>ネットワーク管理の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.vncserver</t>
+  </si>
+  <si>
+    <t>└─VNCサービス</t>
+  </si>
+  <si>
+    <t>VNCサーバの自動起動設定</t>
+  </si>
+  <si>
+    <t>packages</t>
+  </si>
+  <si>
+    <t>パッケージ構成</t>
+  </si>
+  <si>
+    <t>rpm -qa でパッケージ情報取得</t>
+  </si>
+  <si>
+    <t>packages.gcc</t>
+  </si>
+  <si>
+    <t>├─gcc コンパイラ</t>
+  </si>
+  <si>
+    <t>gcc パッケージ</t>
+  </si>
+  <si>
+    <t>packages.httpd</t>
+  </si>
+  <si>
+    <t>├─Apache HTTPサービス</t>
+  </si>
+  <si>
+    <t>httpd パッケージ</t>
+  </si>
+  <si>
+    <t>packages.mysql</t>
+  </si>
+  <si>
+    <t>├─MySQLデータベース</t>
+  </si>
+  <si>
+    <t>mysql パッケージ</t>
+  </si>
+  <si>
+    <t>requiement_for_oracle</t>
+  </si>
+  <si>
+    <t>└─Oracle必須パッケージ</t>
+  </si>
+  <si>
+    <t>Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
+  </si>
+  <si>
+    <t>mount_iso</t>
+  </si>
+  <si>
+    <t>ISOマウントの有無</t>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント情報取得</t>
+  </si>
+  <si>
+    <t>proxy_global</t>
+  </si>
+  <si>
+    <t>yumコマンドプロキシ設定有無</t>
   </si>
   <si>
     <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
   </si>
   <si>
-    <t xml:space="preserve">crash_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラッシュダンプサイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sys/kernel/kexec_crash_size を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runlevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランレベル</t>
+    <t>crash_size</t>
+  </si>
+  <si>
+    <t>クラッシュダンプサイズ</t>
+  </si>
+  <si>
+    <t>/sys/kernel/kexec_crash_size を検索</t>
+  </si>
+  <si>
+    <t>runlevel</t>
+  </si>
+  <si>
+    <t>ランレベル</t>
   </si>
   <si>
     <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">resolve_conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS設定</t>
+    <t>resolve_conf</t>
+  </si>
+  <si>
+    <t>DNS設定</t>
   </si>
   <si>
     <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">nameservers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─SELinux モード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxモードの検索。SELinuxが無効の場合は空白</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle_module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleインストーラの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleモジュールの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+    <t>nameservers</t>
+  </si>
+  <si>
+    <t>DNSサーバの検索</t>
+  </si>
+  <si>
+    <t>sestatus</t>
+  </si>
+  <si>
+    <t>SELinuxステータス</t>
+  </si>
+  <si>
+    <t>sestatus コマンドからステータス検索</t>
+  </si>
+  <si>
+    <t>se_mode</t>
+  </si>
+  <si>
+    <t>SELinuxモードの検索。SELinuxが無効の場合は空白</t>
+  </si>
+  <si>
+    <t>oracle_module</t>
+  </si>
+  <si>
+    <t>Oracleインストーラの有無</t>
+  </si>
+  <si>
+    <t>/root/packageの下にOracleインストールファイルがあるか</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleモジュールの有無</t>
+  </si>
+  <si>
+    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
-    <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─スレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、メモリ情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─物理メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_virtual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─仮想メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free_physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─空きメモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから、システム情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、OS情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─OS名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_csd_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─サービスパック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービスパック名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─アーキテクチャ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーキテクチャ(32bit/64bit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─製品タイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドライバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.C:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Cドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.D:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Dドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_UserAccount から、アカウント情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get-Service から、サービスのステータスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMware Tools サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化ポリシー。Enabled の値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virturalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから仮想化プラットフォームを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_timeout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト[秒]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter情報のホスト情報を検索します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CpuTotalMhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryTotalGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LicenseKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcessorType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirewallDefaultPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HyperthreadingActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMSwapfilePolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StorageInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkAdapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiskPartition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datastore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレッド数</t>
+    <t>Win32_Processor オブジェクトからCPU情報を検索</t>
+  </si>
+  <si>
+    <t>└─スレッド数</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、メモリ情報を検索</t>
+  </si>
+  <si>
+    <t>total_visible</t>
+  </si>
+  <si>
+    <t>├─物理メモリ量</t>
+  </si>
+  <si>
+    <t>total_virtual</t>
+  </si>
+  <si>
+    <t>├─仮想メモリ量</t>
+  </si>
+  <si>
+    <t>仮想メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>free_physical</t>
+  </si>
+  <si>
+    <t>└─空きメモリ量</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>システム情報</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから、システム情報を検索</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>├─ドメイン名</t>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>├─メーカー</t>
+  </si>
+  <si>
+    <t>メーカー</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>├─モデル</t>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>└─コンピューター名</t>
+  </si>
+  <si>
+    <t>コンピューター名</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>OS情報</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、OS情報を検索</t>
+  </si>
+  <si>
+    <t>os_caption</t>
+  </si>
+  <si>
+    <t>├─OS名</t>
+  </si>
+  <si>
+    <t>OS名称</t>
+  </si>
+  <si>
+    <t>os_csd_version</t>
+  </si>
+  <si>
+    <t>├─サービスパック</t>
+  </si>
+  <si>
+    <t>サービスパック名</t>
+  </si>
+  <si>
+    <t>os_architecture</t>
+  </si>
+  <si>
+    <t>├─アーキテクチャ</t>
+  </si>
+  <si>
+    <t>アーキテクチャ(32bit/64bit)</t>
+  </si>
+  <si>
+    <t>os_product_type</t>
+  </si>
+  <si>
+    <t>└─製品タイプ</t>
+  </si>
+  <si>
+    <t>1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>ドライバー</t>
+  </si>
+  <si>
+    <t>Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>ディスク容量</t>
+  </si>
+  <si>
+    <t>Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem.C:</t>
+  </si>
+  <si>
+    <t>├─Cドライブ</t>
+  </si>
+  <si>
+    <t>Cドライブ容量</t>
+  </si>
+  <si>
+    <t>filesystem.D:</t>
+  </si>
+  <si>
+    <t>└─Dドライブ</t>
+  </si>
+  <si>
+    <t>Dドライブ容量</t>
+  </si>
+  <si>
+    <t>Win32_UserAccount から、アカウント情報を検索</t>
+  </si>
+  <si>
+    <t>Get-Service から、サービスのステータスを検索</t>
+  </si>
+  <si>
+    <t>service.VMTools</t>
+  </si>
+  <si>
+    <t>├─VMTools</t>
+  </si>
+  <si>
+    <t>VMware Tools サービス</t>
+  </si>
+  <si>
+    <t>service.wuauserv</t>
+  </si>
+  <si>
+    <t>└─wuauserv</t>
+  </si>
+  <si>
+    <t>Windows Update サービス</t>
+  </si>
+  <si>
+    <t>システム暗号化</t>
+  </si>
+  <si>
+    <t>システム暗号化ポリシー。Enabled の値を検索</t>
+  </si>
+  <si>
+    <t>ネットワーク構成</t>
+  </si>
+  <si>
+    <t>Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>DNSサーバ</t>
+  </si>
+  <si>
+    <t>virturalization</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから仮想化プラットフォームを検索</t>
+  </si>
+  <si>
+    <t>storage_timeout</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト値</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト[秒]</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>NTPサーバ情報</t>
+  </si>
+  <si>
+    <t>NTPサーバ名</t>
+  </si>
+  <si>
+    <t>ホスト情報</t>
+  </si>
+  <si>
+    <t>vCenter情報のホスト情報を検索します</t>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CpuTotalMhz</t>
+  </si>
+  <si>
+    <t>CPUクロック</t>
+  </si>
+  <si>
+    <t>MemoryTotalGB</t>
+  </si>
+  <si>
+    <t>├─メモリ容量</t>
+  </si>
+  <si>
+    <t>メモリ容量</t>
+  </si>
+  <si>
+    <t>LicenseKey</t>
+  </si>
+  <si>
+    <t>├─ライセンス</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ProcessorType</t>
+  </si>
+  <si>
+    <t>├─プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>├─バージョン</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>├─ビルド</t>
+  </si>
+  <si>
+    <t>ビルド</t>
+  </si>
+  <si>
+    <t>FirewallDefaultPolicy</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>HyperthreadingActive</t>
+  </si>
+  <si>
+    <t>├─ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>├─タイムゾーン</t>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+  </si>
+  <si>
+    <t>電源状態</t>
+  </si>
+  <si>
+    <t>VMSwapfilePolicy</t>
+  </si>
+  <si>
+    <t>├─スワップポリシー</t>
+  </si>
+  <si>
+    <t>スワップポリシー</t>
+  </si>
+  <si>
+    <t>StorageInfo</t>
+  </si>
+  <si>
+    <t>├─ストレージ</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>NetworkInfo</t>
+  </si>
+  <si>
+    <t>└─ネットワーク</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>アカウント情報</t>
+  </si>
+  <si>
+    <t>アカウント数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>NetworkAdapter</t>
+  </si>
+  <si>
+    <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>ディスク構成</t>
+  </si>
+  <si>
+    <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>DiskPartition</t>
+  </si>
+  <si>
+    <t>ディスクパーティション</t>
+  </si>
+  <si>
+    <t>ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Datastore</t>
+  </si>
+  <si>
+    <t>データストア</t>
+  </si>
+  <si>
+    <t>データストア数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>RuleAP</t>
+  </si>
+  <si>
+    <t>RuleDB</t>
+  </si>
+  <si>
+    <t>VMWare リソース割り当て</t>
+  </si>
+  <si>
+    <t>CPU割り当て数</t>
+  </si>
+  <si>
+    <t>メモリ割り当て</t>
+  </si>
+  <si>
+    <t>ESXiホスト</t>
+  </si>
+  <si>
+    <t>クラスター</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>スレッド数</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ntp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NTPサーバ名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NTPサーバの検索</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>└─SELinux モード</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>└─DNSサーバ名</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1177,6 +1183,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1193,252 +1205,514 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.04639175257732"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.319587628866"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.04639175257732"/>
+    <col min="1" max="1" width="8"/>
+    <col min="2" max="2" width="17.375"/>
+    <col min="3" max="3" width="36.875"/>
+    <col min="4" max="8" width="13.5"/>
+    <col min="9" max="9" width="12.25"/>
+    <col min="10" max="1025" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="77.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1462,7 +1736,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1758,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1782,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1530,7 +1804,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1828,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1578,7 +1852,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1596,7 +1870,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
         <v>29</v>
@@ -1612,7 +1886,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1626,7 +1900,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1640,7 +1914,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1654,7 +1928,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1668,7 +1942,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1682,7 +1956,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1700,40 +1974,33 @@
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.04639175257732"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5051546391753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.54639175257732"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.04639175257732"/>
+    <col min="1" max="1" width="8"/>
+    <col min="2" max="2" width="19.5"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.5"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="54.875"/>
+    <col min="7" max="10" width="13.375"/>
+    <col min="11" max="1025" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1741,7 +2008,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1751,7 +2018,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1759,7 +2026,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +2046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -1797,7 +2064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -1813,7 +2080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>44</v>
@@ -1829,7 +2096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -1845,7 +2112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -1861,7 +2128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -1877,7 +2144,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1895,7 +2162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1913,7 +2180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1931,7 +2198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1951,7 +2218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +2236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1987,7 +2254,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2005,7 +2272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -2023,7 +2290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -2041,7 +2308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>81</v>
@@ -2057,7 +2324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>84</v>
@@ -2073,7 +2340,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>87</v>
@@ -2089,7 +2356,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
         <v>90</v>
@@ -2105,7 +2372,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
         <v>93</v>
@@ -2121,7 +2388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -2139,7 +2406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -2157,7 +2424,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
         <v>102</v>
@@ -2173,7 +2440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
         <v>105</v>
@@ -2189,7 +2456,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -2209,7 +2476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
         <v>111</v>
@@ -2225,7 +2492,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -2243,7 +2510,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -2261,7 +2528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>120</v>
       </c>
@@ -2279,7 +2546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -2297,7 +2564,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -2317,7 +2584,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>130</v>
@@ -2333,7 +2600,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>133</v>
@@ -2349,7 +2616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>136</v>
@@ -2365,7 +2632,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -2385,7 +2652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>142</v>
@@ -2401,7 +2668,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
@@ -2419,7 +2686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -2437,7 +2704,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
@@ -2457,7 +2724,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>154</v>
@@ -2473,7 +2740,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>157</v>
@@ -2489,7 +2756,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>160</v>
@@ -2505,7 +2772,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>163</v>
@@ -2521,7 +2788,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>166</v>
@@ -2537,7 +2804,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>169</v>
@@ -2553,7 +2820,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
@@ -2573,7 +2840,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>175</v>
@@ -2589,7 +2856,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>178</v>
@@ -2605,7 +2872,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>181</v>
@@ -2621,7 +2888,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>184</v>
@@ -2637,7 +2904,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>36</v>
       </c>
@@ -2655,7 +2922,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -2673,7 +2940,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -2691,7 +2958,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
@@ -2709,7 +2976,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
@@ -2727,130 +2994,136 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
-        <v>36</v>
-      </c>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
         <v>202</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="4" t="s">
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5" t="s">
+      <c r="C63" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="5" t="s">
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="3" t="s">
+      <c r="C64" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="D64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C63" s="5" t="s">
+    </row>
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8" t="s">
+      <c r="C65" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="D65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.04639175257732"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1855670103093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5463917525773"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.6443298969072"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0463917525773"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.04639175257732"/>
+    <col min="1" max="1" width="8"/>
+    <col min="2" max="2" width="16.5"/>
+    <col min="3" max="3" width="26.125"/>
+    <col min="4" max="4" width="15.5"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="55.625"/>
+    <col min="7" max="7" width="14"/>
+    <col min="8" max="1025" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2858,9 +3131,9 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2868,7 +3141,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2876,7 +3149,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +3169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -2914,7 +3187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -2930,7 +3203,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>44</v>
@@ -2946,7 +3219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -2962,7 +3235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -2978,7 +3251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -2994,7 +3267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -3012,7 +3285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -3030,7 +3303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3048,7 +3321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -3068,7 +3341,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -3083,10 +3356,10 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>81</v>
@@ -3102,7 +3375,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>84</v>
@@ -3118,13 +3391,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
@@ -3134,12 +3407,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>100</v>
@@ -3149,16 +3422,16 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>15</v>
@@ -3168,29 +3441,29 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>15</v>
@@ -3200,179 +3473,179 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>15</v>
@@ -3381,10 +3654,10 @@
         <v>36</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -3392,7 +3665,7 @@
         <v>127</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>15</v>
@@ -3401,42 +3674,42 @@
         <v>36</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -3453,10 +3726,10 @@
         <v>36</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -3473,42 +3746,42 @@
         <v>36</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
@@ -3516,17 +3789,17 @@
         <v>145</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -3534,7 +3807,7 @@
         <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>15</v>
@@ -3543,18 +3816,18 @@
         <v>36</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>15</v>
@@ -3563,33 +3836,33 @@
         <v>36</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>149</v>
@@ -3599,46 +3872,46 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -3646,7 +3919,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -3654,7 +3927,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -3662,7 +3935,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -3670,7 +3943,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -3678,7 +3951,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -3686,7 +3959,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -3695,39 +3968,30 @@
       <c r="F54" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.18041237113402"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5927835051546"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.31958762886598"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1907216494845"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.31958762886598"/>
+    <col min="1" max="1" width="5.125"/>
+    <col min="2" max="2" width="21.25"/>
+    <col min="3" max="3" width="23.625"/>
+    <col min="4" max="4" width="8.375"/>
+    <col min="5" max="5" width="7.375"/>
+    <col min="6" max="6" width="50.25"/>
+    <col min="7" max="1025" width="8.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3735,7 +3999,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3743,7 +4007,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3751,7 +4015,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -3771,7 +4035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -3779,17 +4043,17 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -3802,13 +4066,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>85</v>
@@ -3818,138 +4082,138 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>44</v>
@@ -3962,82 +4226,82 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
@@ -4046,18 +4310,18 @@
         <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
@@ -4066,18 +4330,18 @@
         <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>17</v>
@@ -4086,18 +4350,18 @@
         <v>36</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
@@ -4106,18 +4370,18 @@
         <v>36</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
@@ -4126,10 +4390,10 @@
         <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4137,7 +4401,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4145,7 +4409,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4153,7 +4417,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4161,7 +4425,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4169,7 +4433,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4177,7 +4441,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4185,7 +4449,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4193,7 +4457,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4201,7 +4465,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4209,7 +4473,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4217,7 +4481,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4225,7 +4489,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4233,7 +4497,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4241,7 +4505,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4249,7 +4513,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4257,7 +4521,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4265,7 +4529,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4273,7 +4537,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4281,7 +4545,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4289,7 +4553,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4297,7 +4561,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4305,7 +4569,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4313,7 +4577,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4321,7 +4585,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4329,7 +4593,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4338,10 +4602,10 @@
       <c r="F51" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -4349,28 +4613,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.04639175257732"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.54639175257732"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.04639175257732"/>
+    <col min="1" max="1" width="8"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.5"/>
+    <col min="5" max="5" width="16.125"/>
+    <col min="6" max="6" width="16.25"/>
+    <col min="7" max="1025" width="8"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>31</v>
@@ -4382,19 +4643,19 @@
         <v>33</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>39</v>
@@ -4402,13 +4663,13 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>39</v>
@@ -4416,13 +4677,13 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>39</v>
@@ -4430,13 +4691,13 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>39</v>
@@ -4444,13 +4705,13 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>39</v>
@@ -4458,7 +4719,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16" t="s">
         <v>55</v>
@@ -4472,7 +4733,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
         <v>58</v>
@@ -4486,7 +4747,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
         <v>67</v>
@@ -4500,7 +4761,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>73</v>
@@ -4514,7 +4775,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
         <v>75</v>
@@ -4528,7 +4789,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
         <v>87</v>
@@ -4542,13 +4803,13 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>15</v>
@@ -4556,7 +4817,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>78</v>
@@ -4570,10 +4831,10 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>100</v>
@@ -4584,13 +4845,13 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>15</v>
@@ -4598,13 +4859,13 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>15</v>
@@ -4612,13 +4873,13 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
         <v>145</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>15</v>
@@ -4626,13 +4887,13 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>15</v>
@@ -4640,10 +4901,10 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>149</v>
@@ -4655,12 +4916,8 @@
       <c r="F23" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
-    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" r:id="rId2"/>
-    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" r:id="rId3"/>
-    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" r:id="rId4"/>
-    <sheet name="検査ルール" sheetId="5" r:id="rId5"/>
+    <sheet name="チェック対象" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="検査ルール" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="362">
-  <si>
-    <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="364">
+  <si>
+    <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
   <si>
     <t xml:space="preserve">* 項目IDが1番以降のセルを編集します。 
@@ -36,1116 +37,1130 @@
 </t>
   </si>
   <si>
-    <t>項目ID</t>
-  </si>
-  <si>
-    <t>定義</t>
-  </si>
-  <si>
-    <t>server_name</t>
-  </si>
-  <si>
-    <t>検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
-  </si>
-  <si>
-    <t>win2012</t>
-  </si>
-  <si>
-    <t>ostrich</t>
-  </si>
-  <si>
-    <t>esxi001</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
-  </si>
-  <si>
-    <t>192.168.0.14</t>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>VMHost</t>
-  </si>
-  <si>
-    <t>os_account_id</t>
-  </si>
-  <si>
-    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>remote_account_id</t>
-  </si>
-  <si>
-    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t>remote_alias</t>
-  </si>
-  <si>
-    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t>win2012.ostrich</t>
-  </si>
-  <si>
-    <t>192.168.10.100</t>
-  </si>
-  <si>
-    <t>verify_id</t>
-  </si>
-  <si>
-    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-  </si>
-  <si>
-    <t>以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
+    <t xml:space="preserve">項目ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定義</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">win2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ostrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esxi001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMHost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os_account_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote_account_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote_alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">win2012.ostrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.10.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>項目</t>
-  </si>
-  <si>
-    <t>分類</t>
-  </si>
-  <si>
-    <t>デバイス</t>
-  </si>
-  <si>
-    <t>採取情報</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>vm</t>
-  </si>
-  <si>
-    <t>VMWare リソース</t>
-  </si>
-  <si>
-    <t>vCenter</t>
-  </si>
-  <si>
-    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t>NumCpu</t>
-  </si>
-  <si>
-    <t>├─CPU割り当て数</t>
-  </si>
-  <si>
-    <t>仮想マシンのCPU仮想ソケット数</t>
-  </si>
-  <si>
-    <t>PowerState</t>
-  </si>
-  <si>
-    <t>├─電源状態</t>
-  </si>
-  <si>
-    <t>電源On/Off</t>
-  </si>
-  <si>
-    <t>MemoryGB</t>
-  </si>
-  <si>
-    <t>├─メモリ割り当て</t>
-  </si>
-  <si>
-    <t>メモリ割り当てサイズ[GB]</t>
-  </si>
-  <si>
-    <t>├─ESXiホスト</t>
-  </si>
-  <si>
-    <t>ESXiホスト名</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>└─クラスター</t>
-  </si>
-  <si>
-    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
-    <t>vmwaretool</t>
-  </si>
-  <si>
-    <t>VMWare ツール</t>
-  </si>
-  <si>
-    <t>VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
-    <t>vm_timesync</t>
-  </si>
-  <si>
-    <t>VMWare 時刻同期</t>
-  </si>
-  <si>
-    <t>VMWare 時刻同期の有無</t>
-  </si>
-  <si>
-    <t>vm_iops_limit</t>
-  </si>
-  <si>
-    <t>ストレージIOPS制限</t>
-  </si>
-  <si>
-    <t>ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
-    <t>vm_storage</t>
-  </si>
-  <si>
-    <t>ストレージ構成</t>
-  </si>
-  <si>
-    <t>ストレージ構成情報検索</t>
-  </si>
-  <si>
-    <t>hostname</t>
-  </si>
-  <si>
-    <t>ホスト名</t>
-  </si>
-  <si>
-    <t>ホスト名の検索</t>
-  </si>
-  <si>
-    <t>hostname_fqdn</t>
-  </si>
-  <si>
-    <t>FQDN名</t>
-  </si>
-  <si>
-    <t>FQDN名の検索</t>
-  </si>
-  <si>
-    <t>uname</t>
-  </si>
-  <si>
-    <t>OSカーネル</t>
-  </si>
-  <si>
-    <t>lsb</t>
-  </si>
-  <si>
-    <t>OSバージョン</t>
-  </si>
-  <si>
-    <t>Linux OSディストリビューション情報 を検索</t>
-  </si>
-  <si>
-    <t>cpu</t>
-  </si>
-  <si>
-    <t>CPU情報</t>
-  </si>
-  <si>
-    <t>/proc/cpuinfo を検索してプロセッサ構成を検索</t>
-  </si>
-  <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>├─プロセッサーモデル</t>
-  </si>
-  <si>
-    <t>CPUプロセッサーモデル</t>
-  </si>
-  <si>
-    <t>mhz</t>
-  </si>
-  <si>
-    <t>├─CPUクロック</t>
-  </si>
-  <si>
-    <t>CPUクロック数[MHz]</t>
-  </si>
-  <si>
-    <t>cpu_total</t>
-  </si>
-  <si>
-    <t>├─CPUスレッド数</t>
-  </si>
-  <si>
-    <t>CPUスレッド数</t>
-  </si>
-  <si>
-    <t>cpu_core</t>
-  </si>
-  <si>
-    <t>├─CPUコア数</t>
-  </si>
-  <si>
-    <t>CPUコア数。VMの場合は未記入</t>
-  </si>
-  <si>
-    <t>cpu_real</t>
-  </si>
-  <si>
-    <t>└─CPUソケット数</t>
-  </si>
-  <si>
-    <t>CPUソケット数</t>
-  </si>
-  <si>
-    <t>machineid</t>
-  </si>
-  <si>
-    <t>サーバの識別子</t>
-  </si>
-  <si>
-    <t>以下のファイルを検索してマシンの識別子を検索
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">項目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デバイス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">採取情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare リソース</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumCpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─CPU割り当て数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─電源状態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電源On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemoryGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─メモリ割り当て</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ESXiホスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESXiホスト名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─クラスター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vCenterクラスタ名、vCenter構成でない場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vmwaretool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare ツール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare ツールの有無、アップグレードの検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_timesync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare 時刻同期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare 時刻同期の有無</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_iops_limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージIOPS制限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージリソースのIOPS制限値を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージ構成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージ構成情報検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hostname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ホスト名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ホスト名の検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hostname_fqdn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FQDN名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FQDN名の検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSカーネル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lsb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSバージョン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux OSディストリビューション情報 を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/proc/cpuinfo を検索してプロセッサ構成を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─プロセッサーモデル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPUプロセッサーモデル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mhz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─CPUクロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPUクロック数[MHz]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpu_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─CPUスレッド数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPUスレッド数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpu_core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─CPUコア数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPUコア数。VMの場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpu_real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─CPUソケット数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPUソケット数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machineid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サーバの識別子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以下のファイルを検索してマシンの識別子を検索
     /etc/machine-id
     /var/lib/dbus/machine-id</t>
   </si>
   <si>
-    <t>meminfo</t>
-  </si>
-  <si>
-    <t>メモリ情報</t>
-  </si>
-  <si>
-    <t>"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
-  </si>
-  <si>
-    <t>mem_total</t>
-  </si>
-  <si>
-    <t>├─搭載メモリ量</t>
-  </si>
-  <si>
-    <t>物理搭載メモリ量[KB]</t>
-  </si>
-  <si>
-    <t>mem_free</t>
-  </si>
-  <si>
-    <t>└─メモリ空容量</t>
-  </si>
-  <si>
-    <t>メモリ空き容量[KB]</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>ネットワーク情報</t>
-  </si>
-  <si>
-    <t>/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t>hw_address</t>
-  </si>
-  <si>
-    <t>└─MACアドレス</t>
-  </si>
-  <si>
-    <t>MACアドレス</t>
-  </si>
-  <si>
-    <t>net_onboot</t>
-  </si>
-  <si>
-    <t>ネットワークブート</t>
-  </si>
-  <si>
-    <t>/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
-  </si>
-  <si>
-    <t>net_route</t>
-  </si>
-  <si>
-    <t>デフォルトゲートウェイ</t>
-  </si>
-  <si>
-    <t>/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>block_device</t>
-  </si>
-  <si>
-    <t>ストレージデバイス</t>
+    <t xml:space="preserve">meminfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メモリ情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mem_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─搭載メモリ量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物理搭載メモリ量[KB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mem_free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─メモリ空容量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メモリ空き容量[KB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワーク情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hw_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─MACアドレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACアドレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net_onboot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークブート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net_route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デフォルトゲートウェイ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block_device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージデバイス</t>
   </si>
   <si>
     <t xml:space="preserve">/sys/block/下を検索し、各デバイスのベンダー情報、タイムアウト値、キューサイズを検索
 </t>
   </si>
   <si>
-    <t>mdadb</t>
-  </si>
-  <si>
-    <t>ディスクRAID</t>
+    <t xml:space="preserve">mdadb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ディスクRAID</t>
   </si>
   <si>
     <t xml:space="preserve">"/proc/mdstat" ファイルを探して、md([0-9]+)デバイスを取得。"mdadm --detail /dev/#{device}" を実行して、結果を取得。
 </t>
   </si>
   <si>
-    <t>filesystem</t>
-  </si>
-  <si>
-    <t>ファイルシステム</t>
-  </si>
-  <si>
-    <t>"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t>filesystem./</t>
-  </si>
-  <si>
-    <t>├─ルート(/)マウントポイント</t>
-  </si>
-  <si>
-    <t>ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
-    <t>filesystem.[SWAP]</t>
-  </si>
-  <si>
-    <t>├─スワップ</t>
-  </si>
-  <si>
-    <t>スワップ容量</t>
-  </si>
-  <si>
-    <t>filesystem./boot</t>
-  </si>
-  <si>
-    <t>└─/boot マウントポイント</t>
-  </si>
-  <si>
-    <t>/boot マウントポイント容量</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>ユーザ情報</t>
-  </si>
-  <si>
-    <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t>user.zabbix</t>
-  </si>
-  <si>
-    <t>└─zabbix ユーザ</t>
-  </si>
-  <si>
-    <t>zabbix ユーザの有無</t>
-  </si>
-  <si>
-    <t>fips</t>
-  </si>
-  <si>
-    <t>データの暗号化</t>
-  </si>
-  <si>
-    <t>以下ファイルを読んで、データ暗号化の有無を確認
+    <t xml:space="preserve">filesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイルシステム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filesystem./</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ルート(/)マウントポイント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルート(/)マウントポイント容量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filesystem.[SWAP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─スワップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スワップ容量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filesystem./boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─/boot マウントポイント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/boot マウントポイント容量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザ情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user.zabbix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─zabbix ユーザ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zabbix ユーザの有無</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データの暗号化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以下ファイルを読んで、データ暗号化の有無を確認
 /proc/sys/crypto/fips_enabled</t>
   </si>
   <si>
-    <t>virturization</t>
-  </si>
-  <si>
-    <t>仮想化プラットフォーム</t>
-  </si>
-  <si>
-    <t>XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>サービス構成</t>
-  </si>
-  <si>
-    <t>chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t>service.kdump</t>
-  </si>
-  <si>
-    <t>├─Kdumpクラッシュリカバリ</t>
-  </si>
-  <si>
-    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
-  </si>
-  <si>
-    <t>service.iptables</t>
-  </si>
-  <si>
-    <t>├─ファイヤーウォール</t>
-  </si>
-  <si>
-    <t>iptables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t>service.ip6tables</t>
-  </si>
-  <si>
-    <t>├─IPv6ファイヤーウォール</t>
-  </si>
-  <si>
-    <t>ip6tables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t>service.restorecond</t>
-  </si>
-  <si>
-    <t>├─SELinux運用サポート</t>
-  </si>
-  <si>
-    <t>SELinux の運用サポートデーモンの自動起動設定</t>
-  </si>
-  <si>
-    <t>service.NetworkManager</t>
-  </si>
-  <si>
-    <t>├─ネットワークマネージャー</t>
-  </si>
-  <si>
-    <t>ネットワーク管理の自動起動設定</t>
-  </si>
-  <si>
-    <t>service.vncserver</t>
-  </si>
-  <si>
-    <t>└─VNCサービス</t>
-  </si>
-  <si>
-    <t>VNCサーバの自動起動設定</t>
-  </si>
-  <si>
-    <t>packages</t>
-  </si>
-  <si>
-    <t>パッケージ構成</t>
-  </si>
-  <si>
-    <t>rpm -qa でパッケージ情報取得</t>
-  </si>
-  <si>
-    <t>packages.gcc</t>
-  </si>
-  <si>
-    <t>├─gcc コンパイラ</t>
-  </si>
-  <si>
-    <t>gcc パッケージ</t>
-  </si>
-  <si>
-    <t>packages.httpd</t>
-  </si>
-  <si>
-    <t>├─Apache HTTPサービス</t>
-  </si>
-  <si>
-    <t>httpd パッケージ</t>
-  </si>
-  <si>
-    <t>packages.mysql</t>
-  </si>
-  <si>
-    <t>├─MySQLデータベース</t>
-  </si>
-  <si>
-    <t>mysql パッケージ</t>
-  </si>
-  <si>
-    <t>requiement_for_oracle</t>
-  </si>
-  <si>
-    <t>└─Oracle必須パッケージ</t>
-  </si>
-  <si>
-    <t>Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
-  </si>
-  <si>
-    <t>mount_iso</t>
-  </si>
-  <si>
-    <t>ISOマウントの有無</t>
-  </si>
-  <si>
-    <t>mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
-    <t>proxy_global</t>
-  </si>
-  <si>
-    <t>yumコマンドプロキシ設定有無</t>
+    <t xml:space="preserve">virturization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仮想化プラットフォーム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サービス構成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service.kdump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─Kdumpクラッシュリカバリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kdump クラッシュリカバリーサービスの自動起動設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service.iptables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ファイヤーウォール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service.ip6tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─IPv6ファイヤーウォール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip6tables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service.restorecond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─SELinux運用サポート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELinux の運用サポートデーモンの自動起動設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service.NetworkManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ネットワークマネージャー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワーク管理の自動起動設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service.vncserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─VNCサービス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNCサーバの自動起動設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パッケージ構成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpm -qa でパッケージ情報取得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packages.gcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─gcc コンパイラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcc パッケージ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packages.httpd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─Apache HTTPサービス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">httpd パッケージ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packages.mysql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─MySQLデータベース</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysql パッケージ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requiement_for_oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─Oracle必須パッケージ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mount_iso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOマウントの有無</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mount コマンドで.isoファイルのマウント情報取得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proxy_global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yumコマンドプロキシ設定有無</t>
   </si>
   <si>
     <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
   </si>
   <si>
-    <t>crash_size</t>
-  </si>
-  <si>
-    <t>クラッシュダンプサイズ</t>
-  </si>
-  <si>
-    <t>/sys/kernel/kexec_crash_size を検索</t>
-  </si>
-  <si>
-    <t>runlevel</t>
-  </si>
-  <si>
-    <t>ランレベル</t>
+    <t xml:space="preserve">crash_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クラッシュダンプサイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sys/kernel/kexec_crash_size を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runlevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランレベル</t>
   </si>
   <si>
     <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
 </t>
   </si>
   <si>
-    <t>resolve_conf</t>
-  </si>
-  <si>
-    <t>DNS設定</t>
+    <t xml:space="preserve">resolve_conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS設定</t>
   </si>
   <si>
     <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
 </t>
   </si>
   <si>
-    <t>nameservers</t>
-  </si>
-  <si>
-    <t>DNSサーバの検索</t>
-  </si>
-  <si>
-    <t>sestatus</t>
-  </si>
-  <si>
-    <t>SELinuxステータス</t>
-  </si>
-  <si>
-    <t>sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
-    <t>se_mode</t>
-  </si>
-  <si>
-    <t>SELinuxモードの検索。SELinuxが無効の場合は空白</t>
-  </si>
-  <si>
-    <t>oracle_module</t>
-  </si>
-  <si>
-    <t>Oracleインストーラの有無</t>
-  </si>
-  <si>
-    <t>/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
-    <t>oracle</t>
-  </si>
-  <si>
-    <t>Oracleモジュールの有無</t>
-  </si>
-  <si>
-    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+    <t xml:space="preserve">nameservers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─DNSサーバ名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNSサーバの検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTPサーバ名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTPサーバの検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sestatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELinuxステータス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sestatus コマンドからステータス検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─SELinux モード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELinuxモードの検索。SELinuxが無効の場合は空白</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracle_module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracleインストーラの有無</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/root/packageの下にOracleインストールファイルがあるか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracleモジュールの有無</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
-    <t>Win32_Processor オブジェクトからCPU情報を検索</t>
-  </si>
-  <si>
-    <t>└─スレッド数</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>Win32_OperatingSystemから、メモリ情報を検索</t>
-  </si>
-  <si>
-    <t>total_visible</t>
-  </si>
-  <si>
-    <t>├─物理メモリ量</t>
-  </si>
-  <si>
-    <t>total_virtual</t>
-  </si>
-  <si>
-    <t>├─仮想メモリ量</t>
-  </si>
-  <si>
-    <t>仮想メモリ量[KB]</t>
-  </si>
-  <si>
-    <t>free_physical</t>
-  </si>
-  <si>
-    <t>└─空きメモリ量</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>システム情報</t>
-  </si>
-  <si>
-    <t>Win32_ComputerSystemから、システム情報を検索</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>├─ドメイン名</t>
-  </si>
-  <si>
-    <t>ドメイン名</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>├─メーカー</t>
-  </si>
-  <si>
-    <t>メーカー</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>├─モデル</t>
-  </si>
-  <si>
-    <t>モデル</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>└─コンピューター名</t>
-  </si>
-  <si>
-    <t>コンピューター名</t>
-  </si>
-  <si>
-    <t>os</t>
-  </si>
-  <si>
-    <t>OS情報</t>
-  </si>
-  <si>
-    <t>Win32_OperatingSystemから、OS情報を検索</t>
-  </si>
-  <si>
-    <t>os_caption</t>
-  </si>
-  <si>
-    <t>├─OS名</t>
-  </si>
-  <si>
-    <t>OS名称</t>
-  </si>
-  <si>
-    <t>os_csd_version</t>
-  </si>
-  <si>
-    <t>├─サービスパック</t>
-  </si>
-  <si>
-    <t>サービスパック名</t>
-  </si>
-  <si>
-    <t>os_architecture</t>
-  </si>
-  <si>
-    <t>├─アーキテクチャ</t>
-  </si>
-  <si>
-    <t>アーキテクチャ(32bit/64bit)</t>
-  </si>
-  <si>
-    <t>os_product_type</t>
-  </si>
-  <si>
-    <t>└─製品タイプ</t>
-  </si>
-  <si>
-    <t>1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
-  </si>
-  <si>
-    <t>driver</t>
-  </si>
-  <si>
-    <t>ドライバー</t>
-  </si>
-  <si>
-    <t>Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t>ディスク容量</t>
-  </si>
-  <si>
-    <t>Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t>filesystem.C:</t>
-  </si>
-  <si>
-    <t>├─Cドライブ</t>
-  </si>
-  <si>
-    <t>Cドライブ容量</t>
-  </si>
-  <si>
-    <t>filesystem.D:</t>
-  </si>
-  <si>
-    <t>└─Dドライブ</t>
-  </si>
-  <si>
-    <t>Dドライブ容量</t>
-  </si>
-  <si>
-    <t>Win32_UserAccount から、アカウント情報を検索</t>
-  </si>
-  <si>
-    <t>Get-Service から、サービスのステータスを検索</t>
-  </si>
-  <si>
-    <t>service.VMTools</t>
-  </si>
-  <si>
-    <t>├─VMTools</t>
-  </si>
-  <si>
-    <t>VMware Tools サービス</t>
-  </si>
-  <si>
-    <t>service.wuauserv</t>
-  </si>
-  <si>
-    <t>└─wuauserv</t>
-  </si>
-  <si>
-    <t>Windows Update サービス</t>
-  </si>
-  <si>
-    <t>システム暗号化</t>
-  </si>
-  <si>
-    <t>システム暗号化ポリシー。Enabled の値を検索</t>
-  </si>
-  <si>
-    <t>ネットワーク構成</t>
-  </si>
-  <si>
-    <t>Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t>firewall</t>
-  </si>
-  <si>
-    <t>ファイヤーウォール</t>
-  </si>
-  <si>
-    <t>Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t>dns</t>
-  </si>
-  <si>
-    <t>DNSサーバ</t>
-  </si>
-  <si>
-    <t>virturalization</t>
-  </si>
-  <si>
-    <t>Win32_ComputerSystemから仮想化プラットフォームを検索</t>
-  </si>
-  <si>
-    <t>storage_timeout</t>
-  </si>
-  <si>
-    <t>ストレージタイムアウト値</t>
-  </si>
-  <si>
-    <t>ストレージタイムアウト[秒]</t>
-  </si>
-  <si>
-    <t>ntp</t>
-  </si>
-  <si>
-    <t>NTPサーバ情報</t>
-  </si>
-  <si>
-    <t>NTPサーバ名</t>
-  </si>
-  <si>
-    <t>ホスト情報</t>
-  </si>
-  <si>
-    <t>vCenter情報のホスト情報を検索します</t>
-  </si>
-  <si>
-    <t>CPUコア数</t>
-  </si>
-  <si>
-    <t>CpuTotalMhz</t>
-  </si>
-  <si>
-    <t>CPUクロック</t>
-  </si>
-  <si>
-    <t>MemoryTotalGB</t>
-  </si>
-  <si>
-    <t>├─メモリ容量</t>
-  </si>
-  <si>
-    <t>メモリ容量</t>
-  </si>
-  <si>
-    <t>LicenseKey</t>
-  </si>
-  <si>
-    <t>├─ライセンス</t>
-  </si>
-  <si>
-    <t>ライセンス</t>
-  </si>
-  <si>
-    <t>ProcessorType</t>
-  </si>
-  <si>
-    <t>├─プロセッサタイプ</t>
-  </si>
-  <si>
-    <t>プロセッサタイプ</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>├─バージョン</t>
-  </si>
-  <si>
-    <t>バージョン</t>
-  </si>
-  <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <t>├─ビルド</t>
-  </si>
-  <si>
-    <t>ビルド</t>
-  </si>
-  <si>
-    <t>FirewallDefaultPolicy</t>
-  </si>
-  <si>
-    <t>├─ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t>ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t>HyperthreadingActive</t>
-  </si>
-  <si>
-    <t>├─ハイパースレッディング</t>
-  </si>
-  <si>
-    <t>ハイパースレッディング</t>
-  </si>
-  <si>
-    <t>TimeZone</t>
-  </si>
-  <si>
-    <t>├─タイムゾーン</t>
-  </si>
-  <si>
-    <t>タイムゾーン</t>
-  </si>
-  <si>
-    <t>電源状態</t>
-  </si>
-  <si>
-    <t>VMSwapfilePolicy</t>
-  </si>
-  <si>
-    <t>├─スワップポリシー</t>
-  </si>
-  <si>
-    <t>スワップポリシー</t>
-  </si>
-  <si>
-    <t>StorageInfo</t>
-  </si>
-  <si>
-    <t>├─ストレージ</t>
-  </si>
-  <si>
-    <t>ストレージ</t>
-  </si>
-  <si>
-    <t>NetworkInfo</t>
-  </si>
-  <si>
-    <t>└─ネットワーク</t>
-  </si>
-  <si>
-    <t>ネットワーク</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>アカウント情報</t>
-  </si>
-  <si>
-    <t>アカウント数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>NetworkAdapter</t>
-  </si>
-  <si>
-    <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>Disk</t>
-  </si>
-  <si>
-    <t>ディスク構成</t>
-  </si>
-  <si>
-    <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>DiskPartition</t>
-  </si>
-  <si>
-    <t>ディスクパーティション</t>
-  </si>
-  <si>
-    <t>ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>Datastore</t>
-  </si>
-  <si>
-    <t>データストア</t>
-  </si>
-  <si>
-    <t>データストア数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>RuleAP</t>
-  </si>
-  <si>
-    <t>RuleDB</t>
-  </si>
-  <si>
-    <t>VMWare リソース割り当て</t>
-  </si>
-  <si>
-    <t>CPU割り当て数</t>
-  </si>
-  <si>
-    <t>メモリ割り当て</t>
-  </si>
-  <si>
-    <t>ESXiホスト</t>
-  </si>
-  <si>
-    <t>クラスター</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>スレッド数</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ntp</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>NTPサーバ名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Linux</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>NTPサーバの検索</t>
-    <rPh sb="7" eb="9">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>└─SELinux モード</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>└─DNSサーバ名</t>
-    <phoneticPr fontId="6"/>
+    <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─スレッド数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win32_OperatingSystemから、メモリ情報を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─物理メモリ量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_virtual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─仮想メモリ量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仮想メモリ量[KB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free_physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─空きメモリ量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">システム情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win32_ComputerSystemから、システム情報を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ドメイン名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドメイン名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─メーカー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メーカー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─モデル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モデル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─コンピューター名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンピューター名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win32_OperatingSystemから、OS情報を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os_caption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─OS名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os_csd_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─サービスパック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サービスパック名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os_architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─アーキテクチャ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アーキテクチャ(32bit/64bit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os_product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─製品タイプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドライバー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ディスク容量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filesystem.C:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─Cドライブ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cドライブ容量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filesystem.D:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─Dドライブ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dドライブ容量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win32_UserAccount から、アカウント情報を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get-Service から、サービスのステータスを検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service.VMTools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─VMTools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMware Tools サービス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service.wuauserv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─wuauserv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Update サービス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">システム暗号化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">システム暗号化ポリシー。Enabled の値を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワーク構成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firewall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイヤーウォール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNSサーバ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virturalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win32_ComputerSystemから仮想化プラットフォームを検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_timeout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージタイムアウト値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージタイムアウト[秒]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTPサーバ情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ホスト情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vCenter情報のホスト情報を検索します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPUコア数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CpuTotalMhz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPUクロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemoryTotalGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─メモリ容量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メモリ容量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LicenseKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ライセンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライセンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessorType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─プロセッサタイプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プロセッサタイプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─バージョン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バージョン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ビルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirewallDefaultPolicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HyperthreadingActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ハイパースレッディング</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハイパースレッディング</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimeZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─タイムゾーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイムゾーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電源状態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMSwapfilePolicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─スワップポリシー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スワップポリシー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StorageInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ストレージ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetworkInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─ネットワーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカウント情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカウント数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetworkAdapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ディスク構成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ディスク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiskPartition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ディスクパーティション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datastore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データストア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データストア数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare_server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果を比較する対象サーバ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果を比較するソース。actual:実行結果から、local:nodeディレクトリから、db:データベースから </t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare リソース割り当て</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU割り当て数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メモリ割り当て</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESXiホスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クラスター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレッド数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1183,12 +1198,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1204,515 +1213,268 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
+  <borders count="5">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal style="hair"/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="19">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8"/>
-    <col min="2" max="2" width="17.375"/>
-    <col min="3" max="3" width="36.875"/>
-    <col min="4" max="8" width="13.5"/>
-    <col min="9" max="9" width="12.25"/>
-    <col min="10" max="1025" width="8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.91237113402062"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.319587628866"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.91237113402062"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1498,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1520,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:13" ht="57" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1782,7 +1544,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:13" ht="57" x14ac:dyDescent="0.15">
+    <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1804,7 +1566,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="9" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1828,7 +1590,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +1614,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1870,7 +1632,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
         <v>29</v>
@@ -1886,7 +1648,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1900,7 +1662,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1914,7 +1676,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1928,7 +1690,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1942,7 +1704,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1956,7 +1718,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1974,33 +1736,40 @@
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F61" activeCellId="0" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8"/>
-    <col min="2" max="2" width="19.5"/>
-    <col min="3" max="3" width="28"/>
-    <col min="4" max="4" width="9.5"/>
-    <col min="5" max="5" width="6.375"/>
-    <col min="6" max="6" width="54.875"/>
-    <col min="7" max="10" width="13.375"/>
-    <col min="11" max="1025" width="8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.91237113402062"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.91237113402062"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2008,7 +1777,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -2018,7 +1787,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2026,7 +1795,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2046,7 +1815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +1833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -2080,7 +1849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>44</v>
@@ -2096,7 +1865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -2112,7 +1881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -2128,7 +1897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -2144,7 +1913,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -2162,7 +1931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2180,7 +1949,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2198,7 +1967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -2218,7 +1987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -2236,7 +2005,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -2254,7 +2023,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2272,7 +2041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -2290,7 +2059,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -2308,7 +2077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>81</v>
@@ -2324,7 +2093,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>84</v>
@@ -2340,7 +2109,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>87</v>
@@ -2356,7 +2125,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
         <v>90</v>
@@ -2372,7 +2141,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
         <v>93</v>
@@ -2388,7 +2157,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -2406,7 +2175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -2424,7 +2193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
         <v>102</v>
@@ -2440,7 +2209,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
         <v>105</v>
@@ -2456,7 +2225,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -2476,7 +2245,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
         <v>111</v>
@@ -2492,7 +2261,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -2510,7 +2279,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -2528,7 +2297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="33" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>120</v>
       </c>
@@ -2546,7 +2315,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="34" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -2564,7 +2333,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -2584,7 +2353,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>130</v>
@@ -2600,7 +2369,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>133</v>
@@ -2616,7 +2385,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>136</v>
@@ -2632,7 +2401,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -2652,7 +2421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>142</v>
@@ -2668,7 +2437,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="41" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
@@ -2686,7 +2455,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -2704,7 +2473,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
@@ -2724,7 +2493,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>154</v>
@@ -2740,7 +2509,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>157</v>
@@ -2756,7 +2525,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>160</v>
@@ -2772,7 +2541,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>163</v>
@@ -2788,7 +2557,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>166</v>
@@ -2804,7 +2573,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>169</v>
@@ -2820,7 +2589,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
@@ -2840,7 +2609,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>175</v>
@@ -2856,7 +2625,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>178</v>
@@ -2872,7 +2641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>181</v>
@@ -2888,7 +2657,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="54" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>184</v>
@@ -2904,7 +2673,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>36</v>
       </c>
@@ -2922,7 +2691,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -2940,7 +2709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -2958,7 +2727,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="58" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
@@ -2976,7 +2745,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="59" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
@@ -2994,136 +2763,145 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
         <v>202</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>355</v>
+        <v>36</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>356</v>
+        <v>205</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>357</v>
+        <v>206</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>358</v>
+        <v>16</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8"/>
-    <col min="2" max="2" width="16.5"/>
-    <col min="3" max="3" width="26.125"/>
-    <col min="4" max="4" width="15.5"/>
-    <col min="5" max="5" width="6.375"/>
-    <col min="6" max="6" width="55.625"/>
-    <col min="7" max="7" width="14"/>
-    <col min="8" max="1025" width="8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.91237113402062"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0515463917526"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4123711340206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5103092783505"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9123711340206"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.91237113402062"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3131,9 +2909,9 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3141,7 +2919,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3149,7 +2927,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -3169,7 +2947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -3187,7 +2965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -3203,7 +2981,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>44</v>
@@ -3219,7 +2997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -3235,7 +3013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -3251,7 +3029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -3267,7 +3045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -3285,7 +3063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -3303,7 +3081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3321,7 +3099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -3341,7 +3119,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -3356,10 +3134,10 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>81</v>
@@ -3375,7 +3153,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>84</v>
@@ -3391,13 +3169,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
@@ -3407,12 +3185,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>100</v>
@@ -3422,16 +3200,16 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>15</v>
@@ -3441,29 +3219,29 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>15</v>
@@ -3473,179 +3251,179 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>15</v>
@@ -3654,10 +3432,10 @@
         <v>36</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -3665,7 +3443,7 @@
         <v>127</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>15</v>
@@ -3674,42 +3452,42 @@
         <v>36</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -3726,10 +3504,10 @@
         <v>36</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -3746,42 +3524,42 @@
         <v>36</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
@@ -3789,17 +3567,17 @@
         <v>145</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -3807,7 +3585,7 @@
         <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>15</v>
@@ -3816,18 +3594,18 @@
         <v>36</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>15</v>
@@ -3836,33 +3614,33 @@
         <v>36</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>149</v>
@@ -3872,46 +3650,46 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -3919,7 +3697,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -3927,7 +3705,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -3935,7 +3713,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -3943,7 +3721,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -3951,7 +3729,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -3959,7 +3737,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -3968,30 +3746,39 @@
       <c r="F54" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125"/>
-    <col min="2" max="2" width="21.25"/>
-    <col min="3" max="3" width="23.625"/>
-    <col min="4" max="4" width="8.375"/>
-    <col min="5" max="5" width="7.375"/>
-    <col min="6" max="6" width="50.25"/>
-    <col min="7" max="1025" width="8.375"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.04639175257732"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4587628865979"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.31958762886598"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1907216494845"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.31958762886598"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3999,7 +3786,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4007,7 +3794,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4015,7 +3802,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -4035,7 +3822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -4043,17 +3830,17 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -4066,13 +3853,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>85</v>
@@ -4082,138 +3869,138 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>44</v>
@@ -4226,82 +4013,82 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
@@ -4310,18 +4097,18 @@
         <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
@@ -4330,18 +4117,18 @@
         <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>17</v>
@@ -4350,18 +4137,18 @@
         <v>36</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
@@ -4370,18 +4157,18 @@
         <v>36</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
@@ -4390,10 +4177,10 @@
         <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4401,7 +4188,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4409,7 +4196,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4417,7 +4204,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4425,7 +4212,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4433,7 +4220,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4441,7 +4228,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4449,7 +4236,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4457,7 +4244,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4465,7 +4252,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4473,7 +4260,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4481,7 +4268,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4489,7 +4276,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4497,7 +4284,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4505,7 +4292,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4513,7 +4300,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4521,7 +4308,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4529,7 +4316,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4537,7 +4324,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4545,7 +4332,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4553,7 +4340,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4561,7 +4348,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4569,7 +4356,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4577,7 +4364,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4585,7 +4372,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4593,7 +4380,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4602,10 +4389,10 @@
       <c r="F51" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -4613,25 +4400,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:F65536"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8"/>
-    <col min="2" max="2" width="16.375"/>
-    <col min="3" max="3" width="28"/>
-    <col min="4" max="4" width="9.5"/>
-    <col min="5" max="5" width="16.125"/>
-    <col min="6" max="6" width="16.25"/>
-    <col min="7" max="1025" width="8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.91237113402062"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.91237113402062"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>31</v>
@@ -4643,47 +4433,51 @@
         <v>33</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>39</v>
@@ -4691,13 +4485,13 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>39</v>
@@ -4705,13 +4499,13 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>39</v>
@@ -4719,13 +4513,13 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
       <c r="B10" s="16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>39</v>
@@ -4733,13 +4527,13 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>59</v>
+        <v>361</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>39</v>
@@ -4747,41 +4541,41 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>16</v>
@@ -4789,13 +4583,13 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>16</v>
@@ -4803,41 +4597,41 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="16" t="s">
-        <v>218</v>
+        <v>362</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>15</v>
@@ -4845,13 +4639,13 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>15</v>
@@ -4859,13 +4653,13 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>15</v>
@@ -4873,13 +4667,13 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>15</v>
@@ -4887,13 +4681,13 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15"/>
       <c r="B22" s="16" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>15</v>
@@ -4901,13 +4695,13 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>285</v>
+        <v>145</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>15</v>
@@ -4915,9 +4709,42 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="チェック対象" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="検査ルール" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
+    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" r:id="rId2"/>
+    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" r:id="rId3"/>
+    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" r:id="rId4"/>
+    <sheet name="検査ルール" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="364">
-  <si>
-    <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="373">
+  <si>
+    <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
   <si>
     <t xml:space="preserve">* 項目IDが1番以降のセルを編集します。 
@@ -37,1130 +36,1139 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">項目ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">server_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esxi001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012.ostrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.10.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
+    <t>項目ID</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
+  </si>
+  <si>
+    <t>win2012</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>esxi001</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
+    <t>192.168.0.14</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>VMHost</t>
+  </si>
+  <si>
+    <t>os_account_id</t>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>win2012.ostrich</t>
+  </si>
+  <si>
+    <t>192.168.10.100</t>
+  </si>
+  <si>
+    <t>verify_id</t>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t>以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デバイス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採取情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumCpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源On/Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vmwaretool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_timesync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期の有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_iops_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージIOPS制限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname_fqdn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSカーネル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSバージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux OSディストリビューション情報 を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/proc/cpuinfo を検索してプロセッサ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUプロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック数[MHz]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数。VMの場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machineid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サーバの識別子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下のファイルを検索してマシンの識別子を検索
+    <t>ID</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>採取情報</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>vm</t>
+  </si>
+  <si>
+    <t>VMWare リソース</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t>NumCpu</t>
+  </si>
+  <si>
+    <t>├─CPU割り当て数</t>
+  </si>
+  <si>
+    <t>仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
+    <t>PowerState</t>
+  </si>
+  <si>
+    <t>├─電源状態</t>
+  </si>
+  <si>
+    <t>電源On/Off</t>
+  </si>
+  <si>
+    <t>MemoryGB</t>
+  </si>
+  <si>
+    <t>├─メモリ割り当て</t>
+  </si>
+  <si>
+    <t>メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
+    <t>├─ESXiホスト</t>
+  </si>
+  <si>
+    <t>ESXiホスト名</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>└─クラスター</t>
+  </si>
+  <si>
+    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
+  </si>
+  <si>
+    <t>vmwaretool</t>
+  </si>
+  <si>
+    <t>VMWare ツール</t>
+  </si>
+  <si>
+    <t>VMWare ツールの有無、アップグレードの検索</t>
+  </si>
+  <si>
+    <t>vm_timesync</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期の有無</t>
+  </si>
+  <si>
+    <t>vm_iops_limit</t>
+  </si>
+  <si>
+    <t>ストレージIOPS制限</t>
+  </si>
+  <si>
+    <t>ストレージリソースのIOPS制限値を検索</t>
+  </si>
+  <si>
+    <t>vm_storage</t>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
+  </si>
+  <si>
+    <t>ストレージ構成情報検索</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>ホスト名</t>
+  </si>
+  <si>
+    <t>ホスト名の検索</t>
+  </si>
+  <si>
+    <t>hostname_fqdn</t>
+  </si>
+  <si>
+    <t>FQDN名</t>
+  </si>
+  <si>
+    <t>FQDN名の検索</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>OSカーネル</t>
+  </si>
+  <si>
+    <t>lsb</t>
+  </si>
+  <si>
+    <t>OSバージョン</t>
+  </si>
+  <si>
+    <t>Linux OSディストリビューション情報 を検索</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>CPU情報</t>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索してプロセッサ構成を検索</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>├─プロセッサーモデル</t>
+  </si>
+  <si>
+    <t>CPUプロセッサーモデル</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>├─CPUクロック</t>
+  </si>
+  <si>
+    <t>CPUクロック数[MHz]</t>
+  </si>
+  <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
+    <t>├─CPUスレッド数</t>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+  </si>
+  <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>├─CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUコア数。VMの場合は未記入</t>
+  </si>
+  <si>
+    <t>cpu_real</t>
+  </si>
+  <si>
+    <t>└─CPUソケット数</t>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+  </si>
+  <si>
+    <t>machineid</t>
+  </si>
+  <si>
+    <t>サーバの識別子</t>
+  </si>
+  <si>
+    <t>以下のファイルを検索してマシンの識別子を検索
     /etc/machine-id
     /var/lib/dbus/machine-id</t>
   </si>
   <si>
-    <t xml:space="preserve">meminfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─搭載メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理搭載メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─メモリ空容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ空き容量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hw_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_onboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークブート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デフォルトゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block_device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージデバイス</t>
+    <t>meminfo</t>
+  </si>
+  <si>
+    <t>メモリ情報</t>
+  </si>
+  <si>
+    <t>"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
+  </si>
+  <si>
+    <t>mem_total</t>
+  </si>
+  <si>
+    <t>├─搭載メモリ量</t>
+  </si>
+  <si>
+    <t>物理搭載メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>mem_free</t>
+  </si>
+  <si>
+    <t>└─メモリ空容量</t>
+  </si>
+  <si>
+    <t>メモリ空き容量[KB]</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>ネットワーク情報</t>
+  </si>
+  <si>
+    <t>/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>hw_address</t>
+  </si>
+  <si>
+    <t>└─MACアドレス</t>
+  </si>
+  <si>
+    <t>MACアドレス</t>
+  </si>
+  <si>
+    <t>net_onboot</t>
+  </si>
+  <si>
+    <t>ネットワークブート</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
+  </si>
+  <si>
+    <t>net_route</t>
+  </si>
+  <si>
+    <t>デフォルトゲートウェイ</t>
+  </si>
+  <si>
+    <t>/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>block_device</t>
+  </si>
+  <si>
+    <t>ストレージデバイス</t>
   </si>
   <si>
     <t xml:space="preserve">/sys/block/下を検索し、各デバイスのベンダー情報、タイムアウト値、キューサイズを検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">mdadb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクRAID</t>
+    <t>mdadb</t>
+  </si>
+  <si>
+    <t>ディスクRAID</t>
   </si>
   <si>
     <t xml:space="preserve">"/proc/mdstat" ファイルを探して、md([0-9]+)デバイスを取得。"mdadm --detail /dev/#{device}" を実行して、結果を取得。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">filesystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルシステム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ルート(/)マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.[SWAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─/boot マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/boot マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.zabbix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─zabbix ユーザ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zabbix ユーザの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データの暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下ファイルを読んで、データ暗号化の有無を確認
+    <t>filesystem</t>
+  </si>
+  <si>
+    <t>ファイルシステム</t>
+  </si>
+  <si>
+    <t>"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem./</t>
+  </si>
+  <si>
+    <t>├─ルート(/)マウントポイント</t>
+  </si>
+  <si>
+    <t>ルート(/)マウントポイント容量</t>
+  </si>
+  <si>
+    <t>filesystem.[SWAP]</t>
+  </si>
+  <si>
+    <t>├─スワップ</t>
+  </si>
+  <si>
+    <t>スワップ容量</t>
+  </si>
+  <si>
+    <t>filesystem./boot</t>
+  </si>
+  <si>
+    <t>└─/boot マウントポイント</t>
+  </si>
+  <si>
+    <t>/boot マウントポイント容量</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+  </si>
+  <si>
+    <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>user.zabbix</t>
+  </si>
+  <si>
+    <t>└─zabbix ユーザ</t>
+  </si>
+  <si>
+    <t>zabbix ユーザの有無</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>データの暗号化</t>
+  </si>
+  <si>
+    <t>以下ファイルを読んで、データ暗号化の有無を確認
 /proc/sys/crypto/fips_enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">virturization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想化プラットフォーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービス構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.kdump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Kdumpクラッシュリカバリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdump クラッシュリカバリーサービスの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.iptables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.ip6tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─IPv6ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip6tables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.restorecond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─SELinux運用サポート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinux の運用サポートデーモンの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.NetworkManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ネットワークマネージャー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク管理の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.vncserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─VNCサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNCサーバの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpm -qa でパッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.gcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─gcc コンパイラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gcc パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.httpd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Apache HTTPサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">httpd パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─MySQLデータベース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysql パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requiement_for_oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Oracle必須パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOマウントの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proxy_global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yumコマンドプロキシ設定有無</t>
+    <t>virturization</t>
+  </si>
+  <si>
+    <t>仮想化プラットフォーム</t>
+  </si>
+  <si>
+    <t>XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>サービス構成</t>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>service.kdump</t>
+  </si>
+  <si>
+    <t>├─Kdumpクラッシュリカバリ</t>
+  </si>
+  <si>
+    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.iptables</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>iptables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.ip6tables</t>
+  </si>
+  <si>
+    <t>├─IPv6ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>ip6tables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.restorecond</t>
+  </si>
+  <si>
+    <t>├─SELinux運用サポート</t>
+  </si>
+  <si>
+    <t>SELinux の運用サポートデーモンの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.NetworkManager</t>
+  </si>
+  <si>
+    <t>├─ネットワークマネージャー</t>
+  </si>
+  <si>
+    <t>ネットワーク管理の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.vncserver</t>
+  </si>
+  <si>
+    <t>└─VNCサービス</t>
+  </si>
+  <si>
+    <t>VNCサーバの自動起動設定</t>
+  </si>
+  <si>
+    <t>packages</t>
+  </si>
+  <si>
+    <t>パッケージ構成</t>
+  </si>
+  <si>
+    <t>rpm -qa でパッケージ情報取得</t>
+  </si>
+  <si>
+    <t>packages.gcc</t>
+  </si>
+  <si>
+    <t>├─gcc コンパイラ</t>
+  </si>
+  <si>
+    <t>gcc パッケージ</t>
+  </si>
+  <si>
+    <t>packages.httpd</t>
+  </si>
+  <si>
+    <t>├─Apache HTTPサービス</t>
+  </si>
+  <si>
+    <t>httpd パッケージ</t>
+  </si>
+  <si>
+    <t>packages.mysql</t>
+  </si>
+  <si>
+    <t>├─MySQLデータベース</t>
+  </si>
+  <si>
+    <t>mysql パッケージ</t>
+  </si>
+  <si>
+    <t>requiement_for_oracle</t>
+  </si>
+  <si>
+    <t>└─Oracle必須パッケージ</t>
+  </si>
+  <si>
+    <t>Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
+  </si>
+  <si>
+    <t>mount_iso</t>
+  </si>
+  <si>
+    <t>ISOマウントの有無</t>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント情報取得</t>
+  </si>
+  <si>
+    <t>proxy_global</t>
+  </si>
+  <si>
+    <t>yumコマンドプロキシ設定有無</t>
   </si>
   <si>
     <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
   </si>
   <si>
-    <t xml:space="preserve">crash_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラッシュダンプサイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sys/kernel/kexec_crash_size を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runlevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランレベル</t>
+    <t>crash_size</t>
+  </si>
+  <si>
+    <t>クラッシュダンプサイズ</t>
+  </si>
+  <si>
+    <t>/sys/kernel/kexec_crash_size を検索</t>
+  </si>
+  <si>
+    <t>runlevel</t>
+  </si>
+  <si>
+    <t>ランレベル</t>
   </si>
   <si>
     <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">resolve_conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS設定</t>
+    <t>resolve_conf</t>
+  </si>
+  <si>
+    <t>DNS設定</t>
   </si>
   <si>
     <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">nameservers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─DNSサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─SELinux モード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxモードの検索。SELinuxが無効の場合は空白</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle_module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleインストーラの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleモジュールの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+    <t>nameservers</t>
+  </si>
+  <si>
+    <t>└─DNSサーバ名</t>
+  </si>
+  <si>
+    <t>DNSサーバの検索</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>NTPサーバ名</t>
+  </si>
+  <si>
+    <t>NTPサーバの検索</t>
+  </si>
+  <si>
+    <t>sestatus</t>
+  </si>
+  <si>
+    <t>SELinuxステータス</t>
+  </si>
+  <si>
+    <t>sestatus コマンドからステータス検索</t>
+  </si>
+  <si>
+    <t>se_mode</t>
+  </si>
+  <si>
+    <t>└─SELinux モード</t>
+  </si>
+  <si>
+    <t>SELinuxモードの検索。SELinuxが無効の場合は空白</t>
+  </si>
+  <si>
+    <t>oracle_module</t>
+  </si>
+  <si>
+    <t>Oracleインストーラの有無</t>
+  </si>
+  <si>
+    <t>/root/packageの下にOracleインストールファイルがあるか</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleモジュールの有無</t>
+  </si>
+  <si>
+    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
-    <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─スレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、メモリ情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─物理メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_virtual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─仮想メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free_physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─空きメモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから、システム情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、OS情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─OS名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_csd_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─サービスパック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービスパック名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─アーキテクチャ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーキテクチャ(32bit/64bit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─製品タイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドライバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.C:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Cドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.D:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Dドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_UserAccount から、アカウント情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get-Service から、サービスのステータスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMware Tools サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化ポリシー。Enabled の値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virturalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから仮想化プラットフォームを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_timeout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト[秒]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter情報のホスト情報を検索します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CpuTotalMhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryTotalGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LicenseKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcessorType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirewallDefaultPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HyperthreadingActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMSwapfilePolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StorageInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkAdapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiskPartition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datastore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">結果を比較する対象サーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_source</t>
+    <t>Win32_Processor オブジェクトからCPU情報を検索</t>
+  </si>
+  <si>
+    <t>└─スレッド数</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、メモリ情報を検索</t>
+  </si>
+  <si>
+    <t>total_visible</t>
+  </si>
+  <si>
+    <t>├─物理メモリ量</t>
+  </si>
+  <si>
+    <t>total_virtual</t>
+  </si>
+  <si>
+    <t>├─仮想メモリ量</t>
+  </si>
+  <si>
+    <t>仮想メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>free_physical</t>
+  </si>
+  <si>
+    <t>└─空きメモリ量</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>システム情報</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから、システム情報を検索</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>├─ドメイン名</t>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>├─メーカー</t>
+  </si>
+  <si>
+    <t>メーカー</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>├─モデル</t>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>└─コンピューター名</t>
+  </si>
+  <si>
+    <t>コンピューター名</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>OS情報</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、OS情報を検索</t>
+  </si>
+  <si>
+    <t>os_caption</t>
+  </si>
+  <si>
+    <t>├─OS名</t>
+  </si>
+  <si>
+    <t>OS名称</t>
+  </si>
+  <si>
+    <t>os_csd_version</t>
+  </si>
+  <si>
+    <t>├─サービスパック</t>
+  </si>
+  <si>
+    <t>サービスパック名</t>
+  </si>
+  <si>
+    <t>os_architecture</t>
+  </si>
+  <si>
+    <t>├─アーキテクチャ</t>
+  </si>
+  <si>
+    <t>アーキテクチャ(32bit/64bit)</t>
+  </si>
+  <si>
+    <t>os_product_type</t>
+  </si>
+  <si>
+    <t>└─製品タイプ</t>
+  </si>
+  <si>
+    <t>1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>ドライバー</t>
+  </si>
+  <si>
+    <t>Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>ディスク容量</t>
+  </si>
+  <si>
+    <t>Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem.C:</t>
+  </si>
+  <si>
+    <t>├─Cドライブ</t>
+  </si>
+  <si>
+    <t>Cドライブ容量</t>
+  </si>
+  <si>
+    <t>filesystem.D:</t>
+  </si>
+  <si>
+    <t>└─Dドライブ</t>
+  </si>
+  <si>
+    <t>Dドライブ容量</t>
+  </si>
+  <si>
+    <t>Win32_UserAccount から、アカウント情報を検索</t>
+  </si>
+  <si>
+    <t>Get-Service から、サービスのステータスを検索</t>
+  </si>
+  <si>
+    <t>service.VMTools</t>
+  </si>
+  <si>
+    <t>├─VMTools</t>
+  </si>
+  <si>
+    <t>VMware Tools サービス</t>
+  </si>
+  <si>
+    <t>service.wuauserv</t>
+  </si>
+  <si>
+    <t>└─wuauserv</t>
+  </si>
+  <si>
+    <t>Windows Update サービス</t>
+  </si>
+  <si>
+    <t>システム暗号化</t>
+  </si>
+  <si>
+    <t>システム暗号化ポリシー。Enabled の値を検索</t>
+  </si>
+  <si>
+    <t>ネットワーク構成</t>
+  </si>
+  <si>
+    <t>Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>DNSサーバ</t>
+  </si>
+  <si>
+    <t>virturalization</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから仮想化プラットフォームを検索</t>
+  </si>
+  <si>
+    <t>storage_timeout</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト値</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト[秒]</t>
+  </si>
+  <si>
+    <t>NTPサーバ情報</t>
+  </si>
+  <si>
+    <t>ホスト情報</t>
+  </si>
+  <si>
+    <t>vCenter情報のホスト情報を検索します</t>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CpuTotalMhz</t>
+  </si>
+  <si>
+    <t>CPUクロック</t>
+  </si>
+  <si>
+    <t>MemoryTotalGB</t>
+  </si>
+  <si>
+    <t>├─メモリ容量</t>
+  </si>
+  <si>
+    <t>メモリ容量</t>
+  </si>
+  <si>
+    <t>LicenseKey</t>
+  </si>
+  <si>
+    <t>├─ライセンス</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ProcessorType</t>
+  </si>
+  <si>
+    <t>├─プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>├─バージョン</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>├─ビルド</t>
+  </si>
+  <si>
+    <t>ビルド</t>
+  </si>
+  <si>
+    <t>FirewallDefaultPolicy</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>HyperthreadingActive</t>
+  </si>
+  <si>
+    <t>├─ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>├─タイムゾーン</t>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+  </si>
+  <si>
+    <t>電源状態</t>
+  </si>
+  <si>
+    <t>VMSwapfilePolicy</t>
+  </si>
+  <si>
+    <t>├─スワップポリシー</t>
+  </si>
+  <si>
+    <t>スワップポリシー</t>
+  </si>
+  <si>
+    <t>StorageInfo</t>
+  </si>
+  <si>
+    <t>├─ストレージ</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>NetworkInfo</t>
+  </si>
+  <si>
+    <t>└─ネットワーク</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>アカウント情報</t>
+  </si>
+  <si>
+    <t>アカウント数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>NetworkAdapter</t>
+  </si>
+  <si>
+    <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>ディスク構成</t>
+  </si>
+  <si>
+    <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>DiskPartition</t>
+  </si>
+  <si>
+    <t>ディスクパーティション</t>
+  </si>
+  <si>
+    <t>ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Datastore</t>
+  </si>
+  <si>
+    <t>データストア</t>
+  </si>
+  <si>
+    <t>データストア数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>RuleAP</t>
+  </si>
+  <si>
+    <t>RuleDB</t>
+  </si>
+  <si>
+    <t>compare_server</t>
+  </si>
+  <si>
+    <t>結果を比較する対象サーバ</t>
+  </si>
+  <si>
+    <t>compare_source</t>
   </si>
   <si>
     <t xml:space="preserve">結果を比較するソース。actual:実行結果から、local:nodeディレクトリから、db:データベースから </t>
   </si>
   <si>
-    <t xml:space="preserve">actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレッド数</t>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>VMWare リソース割り当て</t>
+  </si>
+  <si>
+    <t>CPU割り当て数</t>
+  </si>
+  <si>
+    <t>メモリ割り当て</t>
+  </si>
+  <si>
+    <t>ESXiホスト</t>
+  </si>
+  <si>
+    <t>クラスター</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>スレッド数</t>
+  </si>
+  <si>
+    <t>x == NumberUtils.toDouble(server_info['NumCpu'])</t>
+  </si>
+  <si>
+    <t>x == NumberUtils.toDouble(server_info['MemoryGB'])</t>
+  </si>
+  <si>
+    <t>x.indexOf(server_info['ESXiHost']) != -1</t>
+  </si>
+  <si>
+    <t>x.minus(" ") == server_info['HDDType'].minus(" ")</t>
+  </si>
+  <si>
+    <t>vm_storage</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>vCenter</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ESXiHost</t>
+  </si>
+  <si>
+    <t>HDDType</t>
+  </si>
+  <si>
+    <t>192.168.10.100</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1198,6 +1206,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1214,267 +1228,534 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal style="hair"/>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="hair">
+        <color auto="1"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.91237113402062"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.319587628866"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.91237113402062"/>
+    <col min="1" max="1" width="7.875"/>
+    <col min="2" max="2" width="17.375"/>
+    <col min="3" max="3" width="36.875"/>
+    <col min="4" max="8" width="13.375"/>
+    <col min="9" max="9" width="12.25"/>
+    <col min="10" max="1025" width="7.875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1498,7 +1779,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1801,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1544,7 +1825,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1566,7 +1847,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1590,7 +1871,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1614,7 +1895,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1632,7 +1913,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
         <v>29</v>
@@ -1648,11 +1929,19 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+    <row r="13" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1662,11 +1951,19 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+    <row r="14" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1676,11 +1973,19 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+    <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1690,9 +1995,13 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+    <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1704,7 +2013,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1718,7 +2027,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1736,40 +2045,33 @@
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F61" activeCellId="0" sqref="F61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.91237113402062"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.91237113402062"/>
+    <col min="1" max="1" width="7.875"/>
+    <col min="2" max="2" width="19.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="54.875"/>
+    <col min="7" max="10" width="13.375"/>
+    <col min="11" max="1025" width="7.875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1777,7 +2079,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1787,7 +2089,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1795,7 +2097,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1815,7 +2117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -1833,7 +2135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -1849,7 +2151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>44</v>
@@ -1865,7 +2167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -1881,7 +2183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -1897,7 +2199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -1913,7 +2215,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1931,7 +2233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1949,7 +2251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1967,7 +2269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1987,7 +2289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -2005,7 +2307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -2023,7 +2325,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2041,7 +2343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -2059,7 +2361,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -2077,7 +2379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>81</v>
@@ -2093,7 +2395,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>84</v>
@@ -2109,7 +2411,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>87</v>
@@ -2125,7 +2427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
         <v>90</v>
@@ -2141,7 +2443,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
         <v>93</v>
@@ -2157,7 +2459,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -2175,7 +2477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -2193,7 +2495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
         <v>102</v>
@@ -2209,7 +2511,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
         <v>105</v>
@@ -2225,7 +2527,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -2245,7 +2547,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
         <v>111</v>
@@ -2261,7 +2563,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -2279,7 +2581,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -2297,7 +2599,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>120</v>
       </c>
@@ -2315,7 +2617,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -2333,7 +2635,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -2353,7 +2655,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>130</v>
@@ -2369,7 +2671,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>133</v>
@@ -2385,7 +2687,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>136</v>
@@ -2401,7 +2703,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -2421,7 +2723,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>142</v>
@@ -2437,7 +2739,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
@@ -2455,7 +2757,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -2473,7 +2775,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
@@ -2493,7 +2795,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>154</v>
@@ -2509,7 +2811,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>157</v>
@@ -2525,7 +2827,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>160</v>
@@ -2541,7 +2843,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>163</v>
@@ -2557,7 +2859,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>166</v>
@@ -2573,7 +2875,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>169</v>
@@ -2589,7 +2891,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
@@ -2609,7 +2911,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>175</v>
@@ -2625,7 +2927,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>178</v>
@@ -2641,7 +2943,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>181</v>
@@ -2657,7 +2959,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>184</v>
@@ -2673,7 +2975,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>36</v>
       </c>
@@ -2691,7 +2993,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -2709,7 +3011,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -2727,7 +3029,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
@@ -2745,7 +3047,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
@@ -2763,7 +3065,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
         <v>202</v>
@@ -2779,7 +3081,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>36</v>
       </c>
@@ -2797,7 +3099,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>36</v>
       </c>
@@ -2815,7 +3117,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
         <v>211</v>
@@ -2831,7 +3133,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -2849,7 +3151,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>36</v>
       </c>
@@ -2868,40 +3170,31 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.91237113402062"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0515463917526"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4123711340206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5103092783505"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9123711340206"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.91237113402062"/>
+    <col min="1" max="1" width="7.875"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="26"/>
+    <col min="4" max="4" width="15.375"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="55.5"/>
+    <col min="7" max="7" width="13.875"/>
+    <col min="8" max="1025" width="7.875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2909,7 +3202,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>220</v>
       </c>
@@ -2919,7 +3212,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2927,7 +3220,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2947,7 +3240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -2965,7 +3258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -2981,7 +3274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>44</v>
@@ -2997,7 +3290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -3013,7 +3306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -3029,7 +3322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -3045,7 +3338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -3063,7 +3356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -3081,7 +3374,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3099,7 +3392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -3119,7 +3412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -3137,7 +3430,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>81</v>
@@ -3153,7 +3446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>84</v>
@@ -3169,7 +3462,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
         <v>87</v>
@@ -3185,7 +3478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -3203,7 +3496,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>225</v>
@@ -3219,7 +3512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>227</v>
@@ -3235,7 +3528,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>230</v>
@@ -3251,7 +3544,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -3269,7 +3562,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
         <v>235</v>
@@ -3285,7 +3578,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
         <v>238</v>
@@ -3301,7 +3594,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
         <v>241</v>
@@ -3317,7 +3610,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>244</v>
@@ -3333,7 +3626,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -3351,7 +3644,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>250</v>
@@ -3367,7 +3660,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>253</v>
@@ -3383,7 +3676,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>256</v>
@@ -3399,7 +3692,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>259</v>
@@ -3415,7 +3708,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -3435,7 +3728,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -3455,7 +3748,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="s">
         <v>267</v>
@@ -3471,7 +3764,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
         <v>270</v>
@@ -3487,7 +3780,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +3800,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -3527,7 +3820,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
         <v>275</v>
@@ -3543,7 +3836,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
         <v>278</v>
@@ -3559,7 +3852,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
@@ -3577,7 +3870,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -3597,7 +3890,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>36</v>
       </c>
@@ -3617,7 +3910,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
@@ -3635,7 +3928,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
@@ -3653,7 +3946,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>36</v>
       </c>
@@ -3671,7 +3964,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
@@ -3689,7 +3982,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -3697,7 +3990,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -3705,7 +3998,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -3713,7 +4006,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -3721,7 +4014,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -3729,7 +4022,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -3737,7 +4030,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -3746,39 +4039,30 @@
       <c r="F54" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.04639175257732"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.31958762886598"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1907216494845"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.31958762886598"/>
+    <col min="1" max="1" width="5"/>
+    <col min="2" max="2" width="21.25"/>
+    <col min="3" max="3" width="23.5"/>
+    <col min="4" max="4" width="8.375"/>
+    <col min="5" max="5" width="7.375"/>
+    <col min="6" max="6" width="50.25"/>
+    <col min="7" max="1025" width="8.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3786,7 +4070,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3794,7 +4078,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3802,7 +4086,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -3822,7 +4106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -3840,7 +4124,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -3856,7 +4140,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>299</v>
@@ -3872,7 +4156,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>301</v>
@@ -3888,7 +4172,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>304</v>
@@ -3904,7 +4188,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>307</v>
@@ -3920,7 +4204,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>310</v>
@@ -3936,7 +4220,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
         <v>313</v>
@@ -3952,7 +4236,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>316</v>
@@ -3968,7 +4252,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
         <v>319</v>
@@ -3984,7 +4268,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
         <v>322</v>
@@ -4000,7 +4284,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>44</v>
@@ -4016,7 +4300,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>326</v>
@@ -4032,7 +4316,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
         <v>238</v>
@@ -4048,7 +4332,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
         <v>329</v>
@@ -4064,7 +4348,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>332</v>
@@ -4080,7 +4364,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
@@ -4100,7 +4384,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
@@ -4120,7 +4404,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -4140,7 +4424,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
@@ -4160,7 +4444,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -4180,7 +4464,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4188,7 +4472,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4196,7 +4480,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4204,7 +4488,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4212,7 +4496,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4220,7 +4504,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4228,7 +4512,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4236,7 +4520,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4244,7 +4528,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4252,7 +4536,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4260,7 +4544,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4268,7 +4552,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4276,7 +4560,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4284,7 +4568,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4292,7 +4576,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4300,7 +4584,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4308,7 +4592,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4316,7 +4600,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4324,7 +4608,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4332,7 +4616,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4340,7 +4624,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4348,7 +4632,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4356,7 +4640,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4364,7 +4648,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4372,7 +4656,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4380,7 +4664,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4389,10 +4673,10 @@
       <c r="F51" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -4400,28 +4684,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A4:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.91237113402062"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.91237113402062"/>
+    <col min="1" max="1" width="7.875"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="16.125"/>
+    <col min="6" max="6" width="16.25"/>
+    <col min="7" max="1025" width="7.875"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>31</v>
@@ -4439,15 +4720,15 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>351</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
@@ -4455,15 +4736,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>353</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="13" t="s">
         <v>355</v>
       </c>
@@ -4471,9 +4752,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4482,12 +4763,12 @@
       <c r="D7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -4496,12 +4777,16 @@
       <c r="D8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4510,12 +4795,16 @@
       <c r="D9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4524,12 +4813,16 @@
       <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -4538,12 +4831,12 @@
       <c r="D11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4552,12 +4845,12 @@
       <c r="D12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4566,44 +4859,48 @@
       <c r="D13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
+      <c r="D15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>16</v>
@@ -4611,13 +4908,13 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
-      <c r="B17" s="16" t="s">
-        <v>87</v>
+      <c r="B17" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>16</v>
@@ -4625,27 +4922,27 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
-      <c r="B18" s="16" t="s">
-        <v>362</v>
+      <c r="B18" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>363</v>
+        <v>89</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
-      <c r="B19" s="16" t="s">
-        <v>78</v>
+      <c r="B19" s="13" t="s">
+        <v>362</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>15</v>
@@ -4653,13 +4950,13 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
-        <v>223</v>
+      <c r="B20" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>15</v>
@@ -4667,13 +4964,13 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
-        <v>262</v>
+      <c r="B21" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>15</v>
@@ -4681,13 +4978,13 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
-        <v>127</v>
+      <c r="B22" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>15</v>
@@ -4695,13 +4992,13 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
-        <v>145</v>
+      <c r="B23" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>15</v>
@@ -4709,13 +5006,13 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
-        <v>108</v>
+      <c r="B24" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>15</v>
@@ -4723,13 +5020,13 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
-        <v>290</v>
+      <c r="B25" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>15</v>
@@ -4737,14 +5034,23 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="1048576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="399">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -49,13 +49,7 @@
     <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">win2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esxi001</t>
+    <t xml:space="preserve">localhost</t>
   </si>
   <si>
     <t xml:space="preserve">ip</t>
@@ -64,135 +58,126 @@
     <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.10.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">platform</t>
   </si>
   <si>
     <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">Linux</t>
   </si>
   <si>
+    <t xml:space="preserve">os_account_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote_account_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote_alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumCpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU割り当て数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemoryGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メモリ割り当て</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESXiHost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESXiホスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDDType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージ構成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">項目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デバイス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">採取情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare リソース</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─CPU割り当て数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─電源状態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電源On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─メモリ割り当て</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
     <t xml:space="preserve">VMHost</t>
   </si>
   <si>
-    <t xml:space="preserve">os_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012.ostrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.10.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumCpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デバイス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採取情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源On/Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
-  </si>
-  <si>
     <t xml:space="preserve">├─ESXiホスト</t>
   </si>
   <si>
@@ -236,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">vm_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成</t>
   </si>
   <si>
     <t xml:space="preserve">ストレージ構成情報検索</t>
@@ -803,6 +785,9 @@
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
+    <t xml:space="preserve">Windows</t>
+  </si>
+  <si>
     <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
   </si>
   <si>
@@ -1224,12 +1209,6 @@
   </si>
   <si>
     <t xml:space="preserve">結果を比較するソース。actual:実行結果から、local:nodeディレクトリから、db:データベースから </t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local</t>
   </si>
   <si>
     <t xml:space="preserve">VMWare リソース割り当て</t>
@@ -1515,17 +1494,17 @@
   <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9123711340206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7731958762887"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,7 +1591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1622,12 +1601,8 @@
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1636,19 +1611,17 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1658,22 +1631,18 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1682,19 +1651,17 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1704,22 +1671,16 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1728,22 +1689,16 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1754,10 +1709,10 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1773,7 +1728,7 @@
     <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1786,19 +1741,15 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1810,17 +1761,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1832,17 +1779,13 @@
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1852,9 +1795,13 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1915,20 +1862,20 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
     <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,7 +1888,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1959,1244 +1906,1244 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
       <c r="B23" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10"/>
       <c r="B38" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10"/>
       <c r="B39" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3217,20 +3164,20 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.639175257732"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5051546391753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4123711340206"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.3711340206186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,7 +3190,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3261,820 +3208,820 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13"/>
       <c r="B35" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="15" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13"/>
       <c r="B36" s="14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="15" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13"/>
       <c r="B40" s="14" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13"/>
       <c r="B41" s="14" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4141,13 +4088,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.63917525773196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0463917525773"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.91237113402062"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9123711340206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.77319587628866"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.7783505154639"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.91237113402062"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.6443298969072"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.77319587628866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,380 +4123,380 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,83 +4723,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:F25"/>
+  <dimension ref="A4:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D5" s="21"/>
-      <c r="E5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>397</v>
-      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18"/>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -4860,67 +4799,67 @@
     <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18"/>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18"/>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18"/>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18"/>
       <c r="B11" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -4928,13 +4867,13 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18"/>
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -4942,45 +4881,45 @@
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18"/>
       <c r="B13" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
-      <c r="B14" s="6" t="s">
-        <v>71</v>
+      <c r="B14" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
       <c r="B15" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -4988,27 +4927,27 @@
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
       <c r="B16" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18"/>
       <c r="B17" s="6" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -5016,13 +4955,13 @@
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
       <c r="B18" s="6" t="s">
-        <v>404</v>
+        <v>85</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>405</v>
+        <v>87</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -5030,13 +4969,13 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
       <c r="B19" s="6" t="s">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -5044,13 +4983,13 @@
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
       <c r="B20" s="6" t="s">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -5058,13 +4997,13 @@
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="6" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -5072,13 +5011,13 @@
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="6" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -5086,13 +5025,13 @@
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
       <c r="B23" s="6" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -5100,13 +5039,13 @@
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18"/>
       <c r="B24" s="6" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -5114,16 +5053,30 @@
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18"/>
       <c r="B25" s="6" t="s">
-        <v>331</v>
+        <v>106</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>165</v>
+        <v>313</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="18"/>
+      <c r="B26" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="408">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -49,7 +49,10 @@
     <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">localhost</t>
+    <t xml:space="preserve">w2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ostrich</t>
   </si>
   <si>
     <t xml:space="preserve">ip</t>
@@ -58,12 +61,21 @@
     <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
   </si>
   <si>
+    <t xml:space="preserve">192.168.0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.10.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">platform</t>
   </si>
   <si>
     <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
   </si>
   <si>
+    <t xml:space="preserve">Windows</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linux</t>
   </si>
   <si>
@@ -88,12 +100,27 @@
     <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
   </si>
   <si>
+    <t xml:space="preserve">w2016.ostrich</t>
+  </si>
+  <si>
     <t xml:space="preserve">verify_id</t>
   </si>
   <si>
     <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
   </si>
   <si>
+    <t xml:space="preserve">RuleAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare_server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
+  </si>
+  <si>
     <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
   </si>
   <si>
@@ -115,10 +142,19 @@
     <t xml:space="preserve">ESXiホスト</t>
   </si>
   <si>
+    <t xml:space="preserve">192.168.10.100</t>
+  </si>
+  <si>
     <t xml:space="preserve">HDDType</t>
   </si>
   <si>
     <t xml:space="preserve">ストレージ構成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Thick:40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Thin:30]</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
@@ -785,9 +821,6 @@
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
   </si>
   <si>
@@ -1193,22 +1226,16 @@
     <t xml:space="preserve">データストア数を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
-    <t xml:space="preserve">RuleAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">結果を比較する対象サーバ</t>
+    <t xml:space="preserve">結果を比較する対象サーバ。シート「チェック対象」のcompare_serverの既定値</t>
   </si>
   <si>
     <t xml:space="preserve">compare_source</t>
   </si>
   <si>
     <t xml:space="preserve">結果を比較するソース。actual:実行結果から、local:nodeディレクトリから、db:データベースから </t>
+  </si>
+  <si>
+    <t xml:space="preserve">local</t>
   </si>
   <si>
     <t xml:space="preserve">VMWare リソース割り当て</t>
@@ -1242,7 +1269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1281,6 +1308,20 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1379,12 +1420,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1409,43 +1450,55 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1461,15 +1514,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1491,16 +1544,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:M18"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7731958762887"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
@@ -1598,10 +1651,12 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1613,15 +1668,17 @@
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1633,15 +1690,17 @@
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1653,15 +1712,17 @@
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1673,13 +1734,17 @@
     </row>
     <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1691,13 +1756,17 @@
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1707,15 +1776,19 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1725,12 +1798,16 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3"/>
+    <row r="12" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1741,12 +1818,10 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>23</v>
+    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1759,15 +1834,19 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1777,15 +1856,19 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1795,15 +1878,19 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1813,12 +1900,20 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1840,6 +1935,20 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1863,7 +1972,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1879,1271 +1988,1271 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>64</v>
+      <c r="E14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9" t="s">
-        <v>67</v>
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9" t="s">
-        <v>70</v>
+      <c r="A16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9" t="s">
-        <v>72</v>
+      <c r="A17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9" t="s">
-        <v>75</v>
+      <c r="A18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9" t="s">
-        <v>78</v>
+      <c r="A19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9" t="s">
-        <v>81</v>
+      <c r="A20" s="13"/>
+      <c r="B20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9" t="s">
-        <v>84</v>
+      <c r="A21" s="13"/>
+      <c r="B21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9" t="s">
-        <v>87</v>
+      <c r="A22" s="13"/>
+      <c r="B22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9" t="s">
-        <v>90</v>
+      <c r="A23" s="13"/>
+      <c r="B23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9" t="s">
-        <v>93</v>
+      <c r="A24" s="13"/>
+      <c r="B24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9" t="s">
-        <v>96</v>
+      <c r="A25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9" t="s">
-        <v>99</v>
+      <c r="A26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9" t="s">
-        <v>102</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9" t="s">
-        <v>105</v>
+      <c r="A28" s="13"/>
+      <c r="B28" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>108</v>
+      <c r="A29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="9" t="s">
-        <v>111</v>
+      <c r="A30" s="13"/>
+      <c r="B30" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="9" t="s">
-        <v>114</v>
+      <c r="A31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="9" t="s">
-        <v>117</v>
+      <c r="A32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>120</v>
+      <c r="A33" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="9" t="s">
-        <v>123</v>
+      <c r="A34" s="13"/>
+      <c r="B34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="9" t="s">
-        <v>127</v>
+      <c r="A35" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="9" t="s">
-        <v>130</v>
+      <c r="A36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>133</v>
+      <c r="A37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="9" t="s">
-        <v>136</v>
+      <c r="A38" s="13"/>
+      <c r="B38" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="9" t="s">
-        <v>139</v>
+      <c r="A39" s="13"/>
+      <c r="B39" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="9" t="s">
-        <v>142</v>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="9" t="s">
-        <v>145</v>
+      <c r="A41" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>148</v>
+      <c r="A42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9" t="s">
-        <v>151</v>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="9" t="s">
-        <v>157</v>
+      <c r="A45" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="9" t="s">
-        <v>160</v>
+      <c r="A46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>163</v>
+      <c r="A47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="9" t="s">
-        <v>166</v>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="12" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="9" t="s">
-        <v>169</v>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="9" t="s">
-        <v>172</v>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="9" t="s">
-        <v>175</v>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="9" t="s">
-        <v>178</v>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="9" t="s">
-        <v>181</v>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="9" t="s">
-        <v>184</v>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>187</v>
+      <c r="A55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="9" t="s">
-        <v>190</v>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="9" t="s">
-        <v>193</v>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="12" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="9" t="s">
-        <v>196</v>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="9" t="s">
-        <v>199</v>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="9" t="s">
-        <v>202</v>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="9" t="s">
-        <v>205</v>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="9" t="s">
-        <v>208</v>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="9" t="s">
-        <v>211</v>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="9" t="s">
-        <v>214</v>
+      <c r="A64" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="12" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="9" t="s">
-        <v>217</v>
+      <c r="A65" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="9" t="s">
-        <v>220</v>
+      <c r="A66" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="12" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="9" t="s">
-        <v>223</v>
+      <c r="A67" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="9" t="s">
-        <v>226</v>
+      <c r="A68" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="9" t="s">
-        <v>229</v>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="12" t="s">
-        <v>232</v>
+      <c r="A70" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="15" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="9" t="s">
-        <v>235</v>
+      <c r="A71" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="9" t="s">
-        <v>238</v>
+      <c r="A72" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="9" t="s">
-        <v>241</v>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="9" t="s">
-        <v>244</v>
+      <c r="A74" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="12" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="9" t="s">
-        <v>247</v>
+      <c r="A75" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="12" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3274,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3181,888 +3290,888 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="9" t="s">
-        <v>250</v>
+      <c r="F15" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="9" t="s">
-        <v>81</v>
+      <c r="F16" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="9" t="s">
-        <v>84</v>
+      <c r="F17" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="9" t="s">
-        <v>87</v>
+      <c r="F18" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>36</v>
+      <c r="A19" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="9" t="s">
-        <v>253</v>
+      <c r="F19" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="9" t="s">
-        <v>102</v>
+      <c r="F20" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="9" t="s">
-        <v>258</v>
+      <c r="F21" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="9" t="s">
-        <v>105</v>
+      <c r="F22" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>36</v>
+      <c r="A23" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="9" t="s">
-        <v>263</v>
+      <c r="F23" s="12" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="9" t="s">
-        <v>278</v>
+      <c r="F28" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>36</v>
+      <c r="A33" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>293</v>
+        <v>48</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>36</v>
+      <c r="A34" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>295</v>
+        <v>48</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15" t="s">
-        <v>298</v>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15" t="s">
-        <v>301</v>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>36</v>
+      <c r="A37" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>302</v>
+        <v>48</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>36</v>
+      <c r="A39" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>304</v>
+        <v>48</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15" t="s">
-        <v>307</v>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15" t="s">
-        <v>310</v>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>36</v>
+      <c r="A42" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="9" t="s">
-        <v>312</v>
+      <c r="F42" s="12" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>36</v>
+      <c r="A43" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>314</v>
+        <v>48</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>36</v>
+      <c r="A44" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>317</v>
+        <v>48</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>36</v>
+      <c r="A45" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="9" t="s">
-        <v>320</v>
+      <c r="F45" s="12" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>36</v>
+      <c r="A46" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>323</v>
+        <v>48</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>36</v>
+      <c r="A47" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="9" t="s">
-        <v>229</v>
+      <c r="F47" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>36</v>
+      <c r="A48" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="9" t="s">
-        <v>327</v>
+      <c r="F48" s="12" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>36</v>
+      <c r="A49" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="9" t="s">
-        <v>330</v>
+      <c r="F49" s="12" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>36</v>
+      <c r="A50" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="9" t="s">
-        <v>231</v>
+      <c r="F50" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="9"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="9"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="9"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="9"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="9"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4088,415 +4197,415 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.3659793814433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9123711340206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.639175257732"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.5"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.6443298969072"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,8 +4813,8 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4725,8 +4834,8 @@
   </sheetPr>
   <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4741,342 +4850,348 @@
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21"/>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21"/>
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21"/>
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18"/>
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21"/>
+      <c r="B10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21"/>
+      <c r="B11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21"/>
+      <c r="B12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21"/>
+      <c r="B13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21"/>
+      <c r="B14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18"/>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18"/>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
-      <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18"/>
-      <c r="B11" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
-      <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
-      <c r="B14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>396</v>
+      <c r="E14" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
-      <c r="B15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18"/>
-      <c r="B17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
-      <c r="B18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
-      <c r="B21" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18"/>
-      <c r="B22" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18"/>
-      <c r="B24" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
-      <c r="B25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="チェック対象" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="検査ルール" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
+    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" r:id="rId2"/>
+    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" r:id="rId3"/>
+    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" r:id="rId4"/>
+    <sheet name="検査ルール" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="408">
   <si>
-    <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
+    <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
   <si>
     <t xml:space="preserve">* はじめに 1行目の「platform」,2行目の「virtualization」のセルを選択してください 
@@ -35,1196 +34,1196 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">項目ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtualization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'VM’か’オンプレサーバ’かを選択</t>
-  </si>
-  <si>
-    <t xml:space="preserve">server_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumCpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDDType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成</t>
+    <t>項目ID</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
+    <t>virtualization</t>
+  </si>
+  <si>
+    <t>'VM’か’オンプレサーバ’かを選択</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
+    <t>os_account_id</t>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>verify_id</t>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t>compare_server</t>
+  </si>
+  <si>
+    <t>比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
+  </si>
+  <si>
+    <t>以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
+  </si>
+  <si>
+    <t>NumCpu</t>
+  </si>
+  <si>
+    <t>CPU割り当て数</t>
+  </si>
+  <si>
+    <t>MemoryGB</t>
+  </si>
+  <si>
+    <t>メモリ割り当て</t>
+  </si>
+  <si>
+    <t>ESXiHost</t>
+  </si>
+  <si>
+    <t>ESXiホスト</t>
+  </si>
+  <si>
+    <t>HDDType</t>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デバイス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採取情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源On/Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vmwaretool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_timesync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期の有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_iops_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージIOPS制限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname_fqdn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSカーネル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSバージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux OSディストリビューション情報 を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/proc/cpuinfo を検索してプロセッサ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUプロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック数[MHz]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数。VMの場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machineid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サーバの識別子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下のファイルを検索してマシンの識別子を検索
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>採取情報</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>vm</t>
+  </si>
+  <si>
+    <t>VMWare リソース</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t>├─CPU割り当て数</t>
+  </si>
+  <si>
+    <t>仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
+    <t>PowerState</t>
+  </si>
+  <si>
+    <t>├─電源状態</t>
+  </si>
+  <si>
+    <t>電源On/Off</t>
+  </si>
+  <si>
+    <t>├─メモリ割り当て</t>
+  </si>
+  <si>
+    <t>メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
+    <t>VMHost</t>
+  </si>
+  <si>
+    <t>├─ESXiホスト</t>
+  </si>
+  <si>
+    <t>ESXiホスト名</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>└─クラスター</t>
+  </si>
+  <si>
+    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
+  </si>
+  <si>
+    <t>vmwaretool</t>
+  </si>
+  <si>
+    <t>VMWare ツール</t>
+  </si>
+  <si>
+    <t>VMWare ツールの有無、アップグレードの検索</t>
+  </si>
+  <si>
+    <t>vm_timesync</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期の有無</t>
+  </si>
+  <si>
+    <t>vm_iops_limit</t>
+  </si>
+  <si>
+    <t>ストレージIOPS制限</t>
+  </si>
+  <si>
+    <t>ストレージリソースのIOPS制限値を検索</t>
+  </si>
+  <si>
+    <t>vm_storage</t>
+  </si>
+  <si>
+    <t>ストレージ構成情報検索</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>ホスト名</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>ホスト名の検索</t>
+  </si>
+  <si>
+    <t>hostname_fqdn</t>
+  </si>
+  <si>
+    <t>FQDN名</t>
+  </si>
+  <si>
+    <t>FQDN名の検索</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>OSカーネル</t>
+  </si>
+  <si>
+    <t>lsb</t>
+  </si>
+  <si>
+    <t>OSバージョン</t>
+  </si>
+  <si>
+    <t>Linux OSディストリビューション情報 を検索</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>CPU情報</t>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索してプロセッサ構成を検索</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>├─プロセッサーモデル</t>
+  </si>
+  <si>
+    <t>CPUプロセッサーモデル</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>├─CPUクロック</t>
+  </si>
+  <si>
+    <t>CPUクロック数[MHz]</t>
+  </si>
+  <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
+    <t>├─CPUスレッド数</t>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+  </si>
+  <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>├─CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUコア数。VMの場合は未記入</t>
+  </si>
+  <si>
+    <t>cpu_real</t>
+  </si>
+  <si>
+    <t>└─CPUソケット数</t>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+  </si>
+  <si>
+    <t>machineid</t>
+  </si>
+  <si>
+    <t>サーバの識別子</t>
+  </si>
+  <si>
+    <t>以下のファイルを検索してマシンの識別子を検索
     /etc/machine-id
     /var/lib/dbus/machine-id</t>
   </si>
   <si>
-    <t xml:space="preserve">meminfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─搭載メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理搭載メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─メモリ空容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ空き容量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hw_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_onboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークブート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デフォルトゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_bond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICの冗長化(bonding設定)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts/*-bond*ファイルを検索してNIC冗長設定情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_bond_opts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─bonding設定オプション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">動作モード(mode),MII監視間隔(miimon),リンクアップ遅延(updelay)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block_device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージデバイス</t>
+    <t>meminfo</t>
+  </si>
+  <si>
+    <t>メモリ情報</t>
+  </si>
+  <si>
+    <t>"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
+  </si>
+  <si>
+    <t>mem_total</t>
+  </si>
+  <si>
+    <t>├─搭載メモリ量</t>
+  </si>
+  <si>
+    <t>物理搭載メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>mem_free</t>
+  </si>
+  <si>
+    <t>└─メモリ空容量</t>
+  </si>
+  <si>
+    <t>メモリ空き容量[KB]</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>ネットワーク情報</t>
+  </si>
+  <si>
+    <t>/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>hw_address</t>
+  </si>
+  <si>
+    <t>└─MACアドレス</t>
+  </si>
+  <si>
+    <t>MACアドレス</t>
+  </si>
+  <si>
+    <t>net_onboot</t>
+  </si>
+  <si>
+    <t>ネットワークブート</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
+  </si>
+  <si>
+    <t>net_route</t>
+  </si>
+  <si>
+    <t>デフォルトゲートウェイ</t>
+  </si>
+  <si>
+    <t>/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
+  </si>
+  <si>
+    <t>net_bond</t>
+  </si>
+  <si>
+    <t>NICの冗長化(bonding設定)</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts/*-bond*ファイルを検索してNIC冗長設定情報検索</t>
+  </si>
+  <si>
+    <t>net_bond_opts</t>
+  </si>
+  <si>
+    <t>└─bonding設定オプション</t>
+  </si>
+  <si>
+    <t>動作モード(mode),MII監視間隔(miimon),リンクアップ遅延(updelay)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>block_device</t>
+  </si>
+  <si>
+    <t>ストレージデバイス</t>
   </si>
   <si>
     <t xml:space="preserve">/sys/block/下を検索し、各デバイスのベンダー情報、タイムアウト値、キューサイズを検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">mdadb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクRAID</t>
+    <t>mdadb</t>
+  </si>
+  <si>
+    <t>ディスクRAID</t>
   </si>
   <si>
     <t xml:space="preserve">"/proc/mdstat" ファイルを探して、md([0-9]+)デバイスを取得。"mdadm --detail /dev/#{device}" を実行して、結果を取得。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">filesystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルシステム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ルート(/)マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.[SWAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─/boot マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/boot マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fstab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自動マウントの設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/fstab から設定値が/dev/から始まるパスで、defaultになっている自動マウントされたデバイスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">論理ボリューム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mountコマンドで、/dev/mapper/{ボリュームグループ名}-{論理ボリューム名}を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.zabbix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─zabbix ユーザ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zabbix ユーザの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logon_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ログオンテスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データの暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下ファイルを読んで、データ暗号化の有無を確認
+    <t>filesystem</t>
+  </si>
+  <si>
+    <t>ファイルシステム</t>
+  </si>
+  <si>
+    <t>"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem./</t>
+  </si>
+  <si>
+    <t>├─ルート(/)マウントポイント</t>
+  </si>
+  <si>
+    <t>ルート(/)マウントポイント容量</t>
+  </si>
+  <si>
+    <t>filesystem.[SWAP]</t>
+  </si>
+  <si>
+    <t>├─スワップ</t>
+  </si>
+  <si>
+    <t>スワップ容量</t>
+  </si>
+  <si>
+    <t>filesystem./boot</t>
+  </si>
+  <si>
+    <t>└─/boot マウントポイント</t>
+  </si>
+  <si>
+    <t>/boot マウントポイント容量</t>
+  </si>
+  <si>
+    <t>fstab</t>
+  </si>
+  <si>
+    <t>自動マウントの設定</t>
+  </si>
+  <si>
+    <t>/etc/fstab から設定値が/dev/から始まるパスで、defaultになっている自動マウントされたデバイスを検索</t>
+  </si>
+  <si>
+    <t>lvm</t>
+  </si>
+  <si>
+    <t>論理ボリューム情報</t>
+  </si>
+  <si>
+    <t>mountコマンドで、/dev/mapper/{ボリュームグループ名}-{論理ボリューム名}を検索</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+  </si>
+  <si>
+    <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>user.zabbix</t>
+  </si>
+  <si>
+    <t>└─zabbix ユーザ</t>
+  </si>
+  <si>
+    <t>zabbix ユーザの有無</t>
+  </si>
+  <si>
+    <t>logon_test</t>
+  </si>
+  <si>
+    <t>ログオンテスト</t>
+  </si>
+  <si>
+    <t>config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>データの暗号化</t>
+  </si>
+  <si>
+    <t>以下ファイルを読んで、データ暗号化の有無を確認
 /proc/sys/crypto/fips_enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">virturization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想化プラットフォーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービス構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.kdump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Kdumpクラッシュリカバリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdump クラッシュリカバリーサービスの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.iptables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.ip6tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─IPv6ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip6tables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.restorecond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─SELinux運用サポート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinux の運用サポートデーモンの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.NetworkManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ネットワークマネージャー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク管理の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wdaemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─wdaemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wacom タブレットのホットプラグ機能の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.vncserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─VNCサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNCサーバの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpm -qa でパッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.gcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─gcc コンパイラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gcc パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.httpd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Apache HTTPサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">httpd パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─MySQLデータベース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysql パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.net-snmp-utils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─NetSNMPユーティリティ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMPマネージャコマンドラインプログラム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.lm_sensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─lm_sensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温度・電圧・ファンを監視するためのツール(Linux monitoring sensors)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.mt-st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─mt-st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnetic tape control tools for Linux SCSI tapes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.e4fsprogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─e4fsprogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext4 ファイルシステムユーティリティ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requiement_for_oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Oracle必須パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOマウントの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proxy_global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yumコマンドプロキシ設定有無</t>
+    <t>virturization</t>
+  </si>
+  <si>
+    <t>仮想化プラットフォーム</t>
+  </si>
+  <si>
+    <t>XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>サービス構成</t>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>service.kdump</t>
+  </si>
+  <si>
+    <t>├─Kdumpクラッシュリカバリ</t>
+  </si>
+  <si>
+    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.iptables</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>iptables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.ip6tables</t>
+  </si>
+  <si>
+    <t>├─IPv6ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>ip6tables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.restorecond</t>
+  </si>
+  <si>
+    <t>├─SELinux運用サポート</t>
+  </si>
+  <si>
+    <t>SELinux の運用サポートデーモンの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.NetworkManager</t>
+  </si>
+  <si>
+    <t>├─ネットワークマネージャー</t>
+  </si>
+  <si>
+    <t>ネットワーク管理の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.wdaemon</t>
+  </si>
+  <si>
+    <t>├─wdaemon</t>
+  </si>
+  <si>
+    <t>Wacom タブレットのホットプラグ機能の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.vncserver</t>
+  </si>
+  <si>
+    <t>└─VNCサービス</t>
+  </si>
+  <si>
+    <t>VNCサーバの自動起動設定</t>
+  </si>
+  <si>
+    <t>packages</t>
+  </si>
+  <si>
+    <t>パッケージ構成</t>
+  </si>
+  <si>
+    <t>rpm -qa でパッケージ情報取得</t>
+  </si>
+  <si>
+    <t>packages.gcc</t>
+  </si>
+  <si>
+    <t>├─gcc コンパイラ</t>
+  </si>
+  <si>
+    <t>gcc パッケージ</t>
+  </si>
+  <si>
+    <t>packages.httpd</t>
+  </si>
+  <si>
+    <t>├─Apache HTTPサービス</t>
+  </si>
+  <si>
+    <t>httpd パッケージ</t>
+  </si>
+  <si>
+    <t>packages.mysql</t>
+  </si>
+  <si>
+    <t>├─MySQLデータベース</t>
+  </si>
+  <si>
+    <t>mysql パッケージ</t>
+  </si>
+  <si>
+    <t>packages.net-snmp-utils</t>
+  </si>
+  <si>
+    <t>├─NetSNMPユーティリティ</t>
+  </si>
+  <si>
+    <t>SNMPマネージャコマンドラインプログラム</t>
+  </si>
+  <si>
+    <t>packages.lm_sensors</t>
+  </si>
+  <si>
+    <t>├─lm_sensors</t>
+  </si>
+  <si>
+    <t>温度・電圧・ファンを監視するためのツール(Linux monitoring sensors)</t>
+  </si>
+  <si>
+    <t>packages.mt-st</t>
+  </si>
+  <si>
+    <t>├─mt-st</t>
+  </si>
+  <si>
+    <t>Magnetic tape control tools for Linux SCSI tapes</t>
+  </si>
+  <si>
+    <t>packages.e4fsprogs</t>
+  </si>
+  <si>
+    <t>├─e4fsprogs</t>
+  </si>
+  <si>
+    <t>ext4 ファイルシステムユーティリティ</t>
+  </si>
+  <si>
+    <t>requiement_for_oracle</t>
+  </si>
+  <si>
+    <t>└─Oracle必須パッケージ</t>
+  </si>
+  <si>
+    <t>Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
+  </si>
+  <si>
+    <t>mount_iso</t>
+  </si>
+  <si>
+    <t>ISOマウントの有無</t>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント情報取得</t>
+  </si>
+  <si>
+    <t>proxy_global</t>
+  </si>
+  <si>
+    <t>yumコマンドプロキシ設定有無</t>
   </si>
   <si>
     <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
   </si>
   <si>
-    <t xml:space="preserve">crash_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラッシュダンプサイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sys/kernel/kexec_crash_size を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runlevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランレベル</t>
+    <t>crash_size</t>
+  </si>
+  <si>
+    <t>クラッシュダンプサイズ</t>
+  </si>
+  <si>
+    <t>/sys/kernel/kexec_crash_size を検索</t>
+  </si>
+  <si>
+    <t>runlevel</t>
+  </si>
+  <si>
+    <t>ランレベル</t>
   </si>
   <si>
     <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">resolve_conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS設定</t>
+    <t>resolve_conf</t>
+  </si>
+  <si>
+    <t>DNS設定</t>
   </si>
   <si>
     <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">nameservers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─DNSサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp_slew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTP slewモードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snmp_trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMPトラップ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─SELinux モード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxモードの検索。SELinuxが無効の場合は空白</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle_module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleインストーラの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleモジュールの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+    <t>nameservers</t>
+  </si>
+  <si>
+    <t>└─DNSサーバ名</t>
+  </si>
+  <si>
+    <t>DNSサーバの検索</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>NTPサーバ名</t>
+  </si>
+  <si>
+    <t>NTPサーバの検索</t>
+  </si>
+  <si>
+    <t>ntp_slew</t>
+  </si>
+  <si>
+    <t>NTP slewモードの検索</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
+  </si>
+  <si>
+    <t>snmp_trap</t>
+  </si>
+  <si>
+    <t>SNMPトラップ情報</t>
+  </si>
+  <si>
+    <t>'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
+  </si>
+  <si>
+    <t>sestatus</t>
+  </si>
+  <si>
+    <t>SELinuxステータス</t>
+  </si>
+  <si>
+    <t>sestatus コマンドからステータス検索</t>
+  </si>
+  <si>
+    <t>se_mode</t>
+  </si>
+  <si>
+    <t>└─SELinux モード</t>
+  </si>
+  <si>
+    <t>SELinuxモードの検索。SELinuxが無効の場合は空白</t>
+  </si>
+  <si>
+    <t>oracle_module</t>
+  </si>
+  <si>
+    <t>Oracleインストーラの有無</t>
+  </si>
+  <si>
+    <t>/root/packageの下にOracleインストールファイルがあるか</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleモジュールの有無</t>
+  </si>
+  <si>
+    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─スレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、メモリ情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─物理メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_virtual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─仮想メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free_physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─空きメモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから、システム情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、OS情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─OS名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_csd_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─サービスパック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービスパック名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─アーキテクチャ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーキテクチャ(32bit/64bit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─製品タイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドライバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.C:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Cドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.D:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Dドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_UserAccount から、アカウント情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get-Service から、サービスのステータスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMware Tools サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化ポリシー。Enabled の値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nic_teaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICチーミング(NetLBFO)設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICチーミング(NetLBFO)名を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートデスクトップ接続許可設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virturalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから仮想化プラットフォームを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_timeout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト[秒]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter情報のホスト情報を検索します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CpuTotalMhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryTotalGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LicenseKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcessorType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirewallDefaultPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HyperthreadingActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMSwapfilePolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StorageInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkAdapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiskPartition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datastore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleDB</t>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Win32_Processor オブジェクトからCPU情報を検索</t>
+  </si>
+  <si>
+    <t>└─スレッド数</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、メモリ情報を検索</t>
+  </si>
+  <si>
+    <t>total_visible</t>
+  </si>
+  <si>
+    <t>├─物理メモリ量</t>
+  </si>
+  <si>
+    <t>total_virtual</t>
+  </si>
+  <si>
+    <t>├─仮想メモリ量</t>
+  </si>
+  <si>
+    <t>仮想メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>free_physical</t>
+  </si>
+  <si>
+    <t>└─空きメモリ量</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>システム情報</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから、システム情報を検索</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>├─ドメイン名</t>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>├─メーカー</t>
+  </si>
+  <si>
+    <t>メーカー</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>├─モデル</t>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>└─コンピューター名</t>
+  </si>
+  <si>
+    <t>コンピューター名</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>OS情報</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、OS情報を検索</t>
+  </si>
+  <si>
+    <t>os_caption</t>
+  </si>
+  <si>
+    <t>├─OS名</t>
+  </si>
+  <si>
+    <t>OS名称</t>
+  </si>
+  <si>
+    <t>os_csd_version</t>
+  </si>
+  <si>
+    <t>├─サービスパック</t>
+  </si>
+  <si>
+    <t>サービスパック名</t>
+  </si>
+  <si>
+    <t>os_architecture</t>
+  </si>
+  <si>
+    <t>├─アーキテクチャ</t>
+  </si>
+  <si>
+    <t>アーキテクチャ(32bit/64bit)</t>
+  </si>
+  <si>
+    <t>os_product_type</t>
+  </si>
+  <si>
+    <t>└─製品タイプ</t>
+  </si>
+  <si>
+    <t>1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>ドライバー</t>
+  </si>
+  <si>
+    <t>Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>ディスク容量</t>
+  </si>
+  <si>
+    <t>Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem.C:</t>
+  </si>
+  <si>
+    <t>├─Cドライブ</t>
+  </si>
+  <si>
+    <t>Cドライブ容量</t>
+  </si>
+  <si>
+    <t>filesystem.D:</t>
+  </si>
+  <si>
+    <t>└─Dドライブ</t>
+  </si>
+  <si>
+    <t>Dドライブ容量</t>
+  </si>
+  <si>
+    <t>Win32_UserAccount から、アカウント情報を検索</t>
+  </si>
+  <si>
+    <t>config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
+  </si>
+  <si>
+    <t>Get-Service から、サービスのステータスを検索</t>
+  </si>
+  <si>
+    <t>service.VMTools</t>
+  </si>
+  <si>
+    <t>├─VMTools</t>
+  </si>
+  <si>
+    <t>VMware Tools サービス</t>
+  </si>
+  <si>
+    <t>service.wuauserv</t>
+  </si>
+  <si>
+    <t>└─wuauserv</t>
+  </si>
+  <si>
+    <t>Windows Update サービス</t>
+  </si>
+  <si>
+    <t>パッケージ情報取得</t>
+  </si>
+  <si>
+    <t>システム暗号化</t>
+  </si>
+  <si>
+    <t>システム暗号化ポリシー。Enabled の値を検索</t>
+  </si>
+  <si>
+    <t>ネットワーク構成</t>
+  </si>
+  <si>
+    <t>Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>nic_teaming</t>
+  </si>
+  <si>
+    <t>NICチーミング(NetLBFO)設定</t>
+  </si>
+  <si>
+    <t>NICチーミング(NetLBFO)名を検索</t>
+  </si>
+  <si>
+    <t>remote_desktop</t>
+  </si>
+  <si>
+    <t>リモートデスクトップ接続許可設定</t>
+  </si>
+  <si>
+    <t>リモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>DNSサーバ</t>
+  </si>
+  <si>
+    <t>virturalization</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから仮想化プラットフォームを検索</t>
+  </si>
+  <si>
+    <t>storage_timeout</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト値</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト[秒]</t>
+  </si>
+  <si>
+    <t>NTPサーバ情報</t>
+  </si>
+  <si>
+    <t>ホスト情報</t>
+  </si>
+  <si>
+    <t>vCenter情報のホスト情報を検索します</t>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CpuTotalMhz</t>
+  </si>
+  <si>
+    <t>CPUクロック</t>
+  </si>
+  <si>
+    <t>MemoryTotalGB</t>
+  </si>
+  <si>
+    <t>├─メモリ容量</t>
+  </si>
+  <si>
+    <t>メモリ容量</t>
+  </si>
+  <si>
+    <t>LicenseKey</t>
+  </si>
+  <si>
+    <t>├─ライセンス</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ProcessorType</t>
+  </si>
+  <si>
+    <t>├─プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>├─バージョン</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>├─ビルド</t>
+  </si>
+  <si>
+    <t>ビルド</t>
+  </si>
+  <si>
+    <t>FirewallDefaultPolicy</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>HyperthreadingActive</t>
+  </si>
+  <si>
+    <t>├─ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>├─タイムゾーン</t>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+  </si>
+  <si>
+    <t>電源状態</t>
+  </si>
+  <si>
+    <t>VMSwapfilePolicy</t>
+  </si>
+  <si>
+    <t>├─スワップポリシー</t>
+  </si>
+  <si>
+    <t>スワップポリシー</t>
+  </si>
+  <si>
+    <t>StorageInfo</t>
+  </si>
+  <si>
+    <t>├─ストレージ</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>NetworkInfo</t>
+  </si>
+  <si>
+    <t>└─ネットワーク</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>アカウント情報</t>
+  </si>
+  <si>
+    <t>アカウント数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>NetworkAdapter</t>
+  </si>
+  <si>
+    <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>ディスク構成</t>
+  </si>
+  <si>
+    <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>DiskPartition</t>
+  </si>
+  <si>
+    <t>ディスクパーティション</t>
+  </si>
+  <si>
+    <t>ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Datastore</t>
+  </si>
+  <si>
+    <t>データストア</t>
+  </si>
+  <si>
+    <t>データストア数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>RuleAP</t>
+  </si>
+  <si>
+    <t>RuleDB</t>
   </si>
   <si>
     <r>
@@ -1235,7 +1234,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">結果を比較する対象サーバ。シート「チェック対象」の</t>
+      <t>結果を比較する対象サーバ。シート「チェック対象」の</t>
     </r>
     <r>
       <rPr>
@@ -1245,7 +1244,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">compare_server</t>
+      <t>compare_server</t>
     </r>
     <r>
       <rPr>
@@ -1255,11 +1254,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">の既定値</t>
+      <t>の既定値</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">compare_source</t>
+    <t>compare_source</t>
   </si>
   <si>
     <r>
@@ -1270,7 +1269,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">結果を比較するソース。</t>
+      <t>結果を比較するソース。</t>
     </r>
     <r>
       <rPr>
@@ -1280,7 +1279,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">actual:</t>
+      <t>actual:</t>
     </r>
     <r>
       <rPr>
@@ -1290,7 +1289,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">実行結果から、</t>
+      <t>実行結果から、</t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1299,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">local:node</t>
+      <t>local:node</t>
     </r>
     <r>
       <rPr>
@@ -1310,7 +1309,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ディレクトリから、</t>
+      <t>ディレクトリから、</t>
     </r>
     <r>
       <rPr>
@@ -1320,7 +1319,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">db:</t>
+      <t>db:</t>
     </r>
     <r>
       <rPr>
@@ -1334,61 +1333,40 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">VMWare リソース割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x == NumberUtils.toDouble(server_info['NumCpu'])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x == NumberUtils.toDouble(server_info['MemoryGB'])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x.indexOf(server_info['ESXiHost']) != -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x.minus(" ") == server_info['HDDType'].minus(" ")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレッド数</t>
+    <t>VMWare リソース割り当て</t>
+  </si>
+  <si>
+    <t>x == NumberUtils.toDouble(server_info['NumCpu'])</t>
+  </si>
+  <si>
+    <t>x == NumberUtils.toDouble(server_info['MemoryGB'])</t>
+  </si>
+  <si>
+    <t>x.indexOf(server_info['ESXiHost']) != -1</t>
+  </si>
+  <si>
+    <t>クラスター</t>
+  </si>
+  <si>
+    <t>x.minus(" ") == server_info['HDDType'].minus(" ")</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>スレッド数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1409,8 +1387,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1440,6 +1417,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1456,287 +1439,552 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal style="hair"/>
+    <border diagonalUp="1">
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="hair">
+        <color auto="1"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="36.875"/>
+    <col min="4" max="8" width="13.375"/>
+    <col min="9" max="9" width="12.25"/>
+    <col min="10" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +2002,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +2020,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1780,47 +2028,47 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" ref="D7:M7" si="0">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
         <v/>
       </c>
       <c r="E7" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F7" s="4" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G7" s="4" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="4" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I7" s="4" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J7" s="4" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K7" s="4" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L7" s="4" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M7" s="4" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1828,47 +2076,47 @@
         <v>11</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" ref="D8:M8" si="1">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
         <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F8" s="4" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H8" s="4" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I8" s="4" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J8" s="4" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K8" s="4" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L8" s="4" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M8" s="4" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1876,47 +2124,47 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" ref="D9:M9" si="2">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
         <v/>
       </c>
       <c r="E9" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F9" s="4" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" s="4" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H9" s="4" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I9" s="4" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" s="4" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K9" s="4" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L9" s="4" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M9" s="4" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1924,47 +2172,47 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f aca="false">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" ref="D10:M10" si="3">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <f aca="false">IF(OR(E$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F10" s="4" t="str">
-        <f aca="false">IF(OR(F$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <f aca="false">IF(OR(G$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H10" s="4" t="str">
-        <f aca="false">IF(OR(H$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I10" s="4" t="str">
-        <f aca="false">IF(OR(I$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J10" s="4" t="str">
-        <f aca="false">IF(OR(J$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10" s="4" t="str">
-        <f aca="false">IF(OR(K$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L10" s="4" t="str">
-        <f aca="false">IF(OR(L$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M10" s="4" t="str">
-        <f aca="false">IF(OR(M$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1972,47 +2220,47 @@
         <v>17</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f aca="false">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" ref="D11:M11" si="4">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
       <c r="E11" s="4" t="str">
-        <f aca="false">IF(OR(E$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F11" s="4" t="str">
-        <f aca="false">IF(OR(F$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G11" s="4" t="str">
-        <f aca="false">IF(OR(G$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H11" s="4" t="str">
-        <f aca="false">IF(OR(H$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I11" s="4" t="str">
-        <f aca="false">IF(OR(I$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J11" s="4" t="str">
-        <f aca="false">IF(OR(J$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K11" s="4" t="str">
-        <f aca="false">IF(OR(K$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L11" s="4" t="str">
-        <f aca="false">IF(OR(L$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M11" s="4" t="str">
-        <f aca="false">IF(OR(M$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
@@ -2030,7 +2278,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:13" ht="36" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -2048,7 +2296,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
         <v>22</v>
@@ -2064,7 +2312,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -2082,7 +2330,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -2100,7 +2348,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2118,7 +2366,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -2136,7 +2384,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
@@ -2150,7 +2398,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -2168,50 +2416,43 @@
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:M5" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D5:M5">
       <formula1>"選択してください,Linux,Windows,VMHost"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:M6" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D6:M6">
       <formula1>"選択してください,オンプレ,VM"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="19.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="54.875"/>
+    <col min="7" max="10" width="13.375"/>
+    <col min="11" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2219,7 +2460,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -2229,7 +2470,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2237,7 +2478,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -2257,7 +2498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
@@ -2275,7 +2516,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="9" t="s">
         <v>23</v>
@@ -2291,7 +2532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
         <v>45</v>
@@ -2307,7 +2548,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
         <v>25</v>
@@ -2323,7 +2564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>50</v>
@@ -2339,7 +2580,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>53</v>
@@ -2355,7 +2596,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2373,7 +2614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -2391,7 +2632,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
@@ -2409,7 +2650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>38</v>
       </c>
@@ -2429,7 +2670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
@@ -2447,7 +2688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
@@ -2465,7 +2706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -2483,7 +2724,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
@@ -2501,7 +2742,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
@@ -2519,7 +2760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
         <v>82</v>
@@ -2535,7 +2776,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
         <v>85</v>
@@ -2551,7 +2792,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
         <v>88</v>
@@ -2567,7 +2808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
         <v>91</v>
@@ -2583,7 +2824,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
         <v>94</v>
@@ -2599,7 +2840,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
@@ -2617,7 +2858,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
@@ -2635,7 +2876,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="9" t="s">
         <v>103</v>
@@ -2651,7 +2892,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
         <v>106</v>
@@ -2667,7 +2908,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
@@ -2687,7 +2928,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="9" t="s">
         <v>112</v>
@@ -2703,7 +2944,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
@@ -2721,7 +2962,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>38</v>
       </c>
@@ -2739,7 +2980,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>38</v>
       </c>
@@ -2759,7 +3000,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="9" t="s">
         <v>124</v>
@@ -2775,7 +3016,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>127</v>
       </c>
@@ -2793,7 +3034,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
@@ -2811,7 +3052,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>38</v>
       </c>
@@ -2831,7 +3072,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
       <c r="B38" s="9" t="s">
         <v>137</v>
@@ -2847,7 +3088,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="9" t="s">
         <v>140</v>
@@ -2863,7 +3104,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
         <v>143</v>
@@ -2879,7 +3120,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>38</v>
       </c>
@@ -2897,7 +3138,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>38</v>
       </c>
@@ -2917,7 +3158,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>38</v>
       </c>
@@ -2937,7 +3178,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
         <v>155</v>
@@ -2953,7 +3194,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
@@ -2971,7 +3212,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>38</v>
       </c>
@@ -2989,7 +3230,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>38</v>
       </c>
@@ -3007,7 +3248,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>38</v>
       </c>
@@ -3027,7 +3268,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
         <v>170</v>
@@ -3043,7 +3284,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
         <v>173</v>
@@ -3059,7 +3300,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>176</v>
@@ -3075,7 +3316,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>179</v>
@@ -3091,7 +3332,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
         <v>182</v>
@@ -3107,7 +3348,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>185</v>
@@ -3123,7 +3364,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
         <v>188</v>
@@ -3139,7 +3380,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>38</v>
       </c>
@@ -3159,7 +3400,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>194</v>
@@ -3175,7 +3416,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>197</v>
@@ -3191,7 +3432,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
         <v>200</v>
@@ -3207,7 +3448,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
         <v>203</v>
@@ -3223,7 +3464,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
         <v>206</v>
@@ -3239,7 +3480,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
         <v>209</v>
@@ -3255,7 +3496,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
       <c r="B63" s="13" t="s">
         <v>212</v>
@@ -3271,7 +3512,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
       <c r="B64" s="13" t="s">
         <v>215</v>
@@ -3287,7 +3528,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
         <v>38</v>
       </c>
@@ -3305,7 +3546,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
         <v>38</v>
       </c>
@@ -3323,7 +3564,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
         <v>38</v>
       </c>
@@ -3341,7 +3582,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
         <v>38</v>
       </c>
@@ -3359,7 +3600,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
         <v>38</v>
       </c>
@@ -3377,7 +3618,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>233</v>
@@ -3393,7 +3634,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>38</v>
       </c>
@@ -3411,7 +3652,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
         <v>38</v>
       </c>
@@ -3429,7 +3670,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>38</v>
       </c>
@@ -3447,7 +3688,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>38</v>
       </c>
@@ -3465,7 +3706,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
         <v>248</v>
@@ -3481,7 +3722,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>38</v>
       </c>
@@ -3499,7 +3740,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>38</v>
       </c>
@@ -3518,40 +3759,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5051546391753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4123711340206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.3711340206186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="25.5"/>
+    <col min="4" max="4" width="15.375"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="55.375"/>
+    <col min="7" max="7" width="13.375"/>
+    <col min="8" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3559,7 +3793,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>257</v>
       </c>
@@ -3569,7 +3803,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3577,7 +3811,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -3597,7 +3831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
@@ -3615,7 +3849,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -3631,7 +3865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>45</v>
@@ -3647,7 +3881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>25</v>
@@ -3663,7 +3897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>50</v>
@@ -3679,7 +3913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>53</v>
@@ -3695,7 +3929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -3713,7 +3947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -3731,7 +3965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
@@ -3749,7 +3983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>38</v>
       </c>
@@ -3769,7 +4003,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
@@ -3787,7 +4021,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>82</v>
@@ -3803,7 +4037,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
         <v>85</v>
@@ -3819,7 +4053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
         <v>88</v>
@@ -3835,7 +4069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
@@ -3853,7 +4087,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
         <v>263</v>
@@ -3869,7 +4103,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
         <v>265</v>
@@ -3885,7 +4119,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>268</v>
@@ -3901,7 +4135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
@@ -3919,7 +4153,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
         <v>273</v>
@@ -3935,7 +4169,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
         <v>276</v>
@@ -3951,7 +4185,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
         <v>279</v>
@@ -3967,7 +4201,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>282</v>
@@ -3983,7 +4217,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -4001,7 +4235,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>288</v>
@@ -4017,7 +4251,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>291</v>
@@ -4033,7 +4267,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>294</v>
@@ -4049,7 +4283,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>297</v>
@@ -4065,7 +4299,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>38</v>
       </c>
@@ -4085,7 +4319,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>38</v>
       </c>
@@ -4105,7 +4339,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="17" t="s">
         <v>305</v>
@@ -4121,7 +4355,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
       <c r="B36" s="17" t="s">
         <v>308</v>
@@ -4137,7 +4371,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>38</v>
       </c>
@@ -4157,7 +4391,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -4175,7 +4409,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
@@ -4195,7 +4429,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="17" t="s">
         <v>314</v>
@@ -4211,7 +4445,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
         <v>317</v>
@@ -4227,7 +4461,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>38</v>
       </c>
@@ -4247,7 +4481,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>38</v>
       </c>
@@ -4265,7 +4499,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
         <v>38</v>
       </c>
@@ -4285,7 +4519,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
         <v>38</v>
       </c>
@@ -4305,7 +4539,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>38</v>
       </c>
@@ -4323,7 +4557,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>38</v>
       </c>
@@ -4343,7 +4577,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>38</v>
       </c>
@@ -4361,7 +4595,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
         <v>38</v>
       </c>
@@ -4379,7 +4613,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="13" t="s">
         <v>38</v>
       </c>
@@ -4397,7 +4631,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="13" t="s">
         <v>38</v>
       </c>
@@ -4415,7 +4649,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -4423,7 +4657,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -4431,7 +4665,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -4439,7 +4673,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -4447,7 +4681,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -4455,40 +4689,30 @@
       <c r="E56" s="9"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5051546391753"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.6443298969072"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="4.375"/>
+    <col min="2" max="2" width="21.25"/>
+    <col min="3" max="3" width="22.5"/>
+    <col min="4" max="5" width="7.375"/>
+    <col min="6" max="6" width="49.625"/>
+    <col min="7" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -4496,7 +4720,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4504,7 +4728,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4512,7 +4736,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -4532,7 +4756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -4550,7 +4774,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -4566,7 +4790,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>345</v>
@@ -4582,7 +4806,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>347</v>
@@ -4598,7 +4822,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>350</v>
@@ -4614,7 +4838,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>353</v>
@@ -4630,7 +4854,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>356</v>
@@ -4646,7 +4870,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
         <v>359</v>
@@ -4662,7 +4886,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>362</v>
@@ -4678,7 +4902,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
         <v>365</v>
@@ -4694,7 +4918,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
         <v>368</v>
@@ -4710,7 +4934,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>45</v>
@@ -4726,7 +4950,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>372</v>
@@ -4742,7 +4966,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
         <v>276</v>
@@ -4758,7 +4982,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
         <v>375</v>
@@ -4774,7 +4998,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>378</v>
@@ -4790,7 +5014,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -4810,7 +5034,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -4830,7 +5054,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -4850,7 +5074,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -4870,7 +5094,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -4890,7 +5114,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4898,7 +5122,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4906,7 +5130,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4914,7 +5138,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4922,7 +5146,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4930,7 +5154,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4938,7 +5162,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4946,7 +5170,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4954,7 +5178,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4962,7 +5186,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4970,7 +5194,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4978,7 +5202,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4986,7 +5210,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4994,7 +5218,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5002,7 +5226,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5010,7 +5234,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -5018,7 +5242,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -5026,7 +5250,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -5034,7 +5258,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -5042,7 +5266,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -5050,7 +5274,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -5058,7 +5282,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -5066,7 +5290,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -5074,7 +5298,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5082,7 +5306,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -5090,7 +5314,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5099,10 +5323,10 @@
       <c r="F51" s="20"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -5110,28 +5334,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="16.125"/>
+    <col min="6" max="6" width="16.25"/>
+    <col min="7" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="8" t="s">
         <v>33</v>
@@ -5149,7 +5370,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
         <v>20</v>
@@ -5161,7 +5382,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
         <v>398</v>
@@ -5173,7 +5394,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="8" t="s">
         <v>39</v>
@@ -5187,7 +5408,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="8" t="s">
         <v>23</v>
@@ -5205,7 +5426,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="8" t="s">
         <v>25</v>
@@ -5223,7 +5444,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="8" t="s">
         <v>50</v>
@@ -5241,7 +5462,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
         <v>53</v>
@@ -5255,7 +5476,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="8" t="s">
         <v>56</v>
@@ -5269,7 +5490,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
         <v>59</v>
@@ -5283,7 +5504,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="9" t="s">
         <v>65</v>
@@ -5301,7 +5522,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
         <v>67</v>
@@ -5315,7 +5536,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="8" t="s">
         <v>74</v>
@@ -5329,7 +5550,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="8" t="s">
         <v>76</v>
@@ -5343,7 +5564,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="8" t="s">
         <v>88</v>
@@ -5357,7 +5578,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="8" t="s">
         <v>406</v>
@@ -5371,7 +5592,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="8" t="s">
         <v>79</v>
@@ -5385,7 +5606,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="8" t="s">
         <v>261</v>
@@ -5399,7 +5620,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="8" t="s">
         <v>300</v>
@@ -5413,7 +5634,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
       <c r="B23" s="8" t="s">
         <v>134</v>
@@ -5427,7 +5648,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="8" t="s">
         <v>161</v>
@@ -5441,7 +5662,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="8" t="s">
         <v>109</v>
@@ -5455,7 +5676,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="8" t="s">
         <v>336</v>
@@ -5470,12 +5691,8 @@
       <c r="F26" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7830" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="435">
   <si>
     <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -1355,6 +1355,147 @@
   </si>
   <si>
     <t>スレッド数</t>
+  </si>
+  <si>
+    <t>whoami</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>whoami_user</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>whoami_sid</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>whoamiコマンド情報</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>whoamiユーザ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>whoami SID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task_scheduler</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスクスケジューラ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>スケジュール化されたタスクスケジュール一覧を検索</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>etc_hosts</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ホストファイル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ホストリストの読み込み</t>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>net_accounts</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティポリシー</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Windowsセキュリティポリシーの読込</t>
+    <rPh sb="18" eb="20">
+      <t>ヨミコミ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>patch_lists</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>適用パッチ</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>cron</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Cron定義一覧</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>resource_limits</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>リソースリミット値</t>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>yum</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Yumリポジトリ</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1513,9 +1654,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1581,6 +1719,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1887,7 +2028,7 @@
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1901,516 +2042,516 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>6</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>7</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>8</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>9</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="57" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="3" t="str">
         <f t="shared" ref="D7:M7" si="0">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
         <v/>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F7" s="4" t="str">
+      <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I7" s="4" t="str">
+      <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="K7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L7" s="4" t="str">
+      <c r="L7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M7" s="4" t="str">
+      <c r="M7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="3" t="str">
         <f t="shared" ref="D8:M8" si="1">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
         <v/>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F8" s="4" t="str">
+      <c r="F8" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I8" s="4" t="str">
+      <c r="I8" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="K8" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L8" s="4" t="str">
+      <c r="L8" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="4" t="str">
+      <c r="M8" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:13" ht="57" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="3" t="str">
         <f t="shared" ref="D9:M9" si="2">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
         <v/>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="F9" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="4" t="str">
+      <c r="I9" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="J9" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="K9" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="4" t="str">
+      <c r="L9" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="4" t="str">
+      <c r="M9" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="3" t="str">
         <f t="shared" ref="D10:M10" si="3">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
         <v/>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F10" s="4" t="str">
+      <c r="F10" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H10" s="4" t="str">
+      <c r="H10" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I10" s="4" t="str">
+      <c r="I10" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="J10" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K10" s="4" t="str">
+      <c r="K10" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L10" s="4" t="str">
+      <c r="L10" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M10" s="4" t="str">
+      <c r="M10" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="3" t="str">
         <f t="shared" ref="D11:M11" si="4">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F11" s="4" t="str">
+      <c r="F11" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="G11" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H11" s="4" t="str">
+      <c r="H11" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I11" s="4" t="str">
+      <c r="I11" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J11" s="4" t="str">
+      <c r="J11" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K11" s="4" t="str">
+      <c r="K11" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L11" s="4" t="str">
+      <c r="L11" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M11" s="4" t="str">
+      <c r="M11" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="36" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2428,16 +2569,16 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2453,1308 +2594,1368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="12" t="s">
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="12" t="s">
+      <c r="D16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="12" t="s">
+      <c r="D17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="12" t="s">
+      <c r="D18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="12" t="s">
+      <c r="D19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="12" t="s">
+      <c r="D20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="12" t="s">
+      <c r="D21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="12" t="s">
+      <c r="D22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12" t="s">
+      <c r="D23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="12" t="s">
+      <c r="D24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12" t="s">
+      <c r="D25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="12" t="s">
+      <c r="D26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="12" t="s">
+      <c r="D27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="12" t="s">
+      <c r="D28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="D29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="12" t="s">
+      <c r="D30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="12" t="s">
+      <c r="D31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="12" t="s">
+      <c r="D32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="D33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="12" t="s">
+      <c r="D34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="12" t="s">
+      <c r="D35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="12" t="s">
+      <c r="D36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="D37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="12" t="s">
+      <c r="D38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="12" t="s">
+      <c r="D39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="12" t="s">
+      <c r="D40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="12" t="s">
+      <c r="D41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="12" t="s">
+      <c r="D42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="12" t="s">
+      <c r="D43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="12" t="s">
+      <c r="D44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4" t="s">
+      <c r="D45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="12" t="s">
+      <c r="D46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="12" t="s">
+      <c r="D47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="12" t="s">
+      <c r="D48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="12" t="s">
+      <c r="D49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="12" t="s">
+      <c r="D50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="12" t="s">
+      <c r="D51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="12" t="s">
+      <c r="D52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="12" t="s">
+      <c r="D53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="12" t="s">
+      <c r="D54" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="12" t="s">
+      <c r="D55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="11" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="12" t="s">
+      <c r="D56" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="12" t="s">
+      <c r="D57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="11" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="12" t="s">
+      <c r="D58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="12" t="s">
+      <c r="D59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="12" t="s">
+      <c r="D60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="12" t="s">
+      <c r="D61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="11" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="12" t="s">
+      <c r="D62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13" t="s">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="12" t="s">
+      <c r="D63" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13" t="s">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="12" t="s">
+      <c r="D64" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="13" t="s">
+      <c r="A65" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="12" t="s">
+      <c r="D65" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A66" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="12" t="s">
+      <c r="D66" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="12" t="s">
+      <c r="D67" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="13" t="s">
+      <c r="A68" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="12" t="s">
+      <c r="D68" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="13" t="s">
+      <c r="A69" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="12" t="s">
+      <c r="D69" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13" t="s">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="12" t="s">
+      <c r="D70" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="13" t="s">
+      <c r="A71" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="15" t="s">
+      <c r="D71" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="12" t="s">
+      <c r="D72" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="11" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="12" t="s">
+      <c r="D73" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="11" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="9" t="s">
+      <c r="A74" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="12" t="s">
+      <c r="D77" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9" t="s">
+    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="12" t="s">
+      <c r="D78" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="9" t="s">
+    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="12" t="s">
+      <c r="D79" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="9" t="s">
+    <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="12" t="s">
+      <c r="D80" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="11" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3767,10 +3968,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3786,908 +3987,1014 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="11" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="11" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="11" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="11" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="12" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="11" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="3" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="E33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="12" t="s">
+      <c r="E34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="17" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18" t="s">
+      <c r="E36" s="16"/>
+      <c r="F36" s="17" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18" t="s">
+      <c r="E40" s="16"/>
+      <c r="F40" s="17" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18" t="s">
+      <c r="E41" s="16"/>
+      <c r="F41" s="17" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="12" t="s">
+      <c r="E42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="12" t="s">
+      <c r="E44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="12" t="s">
+      <c r="E45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="12" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="12" t="s">
+      <c r="E47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="12" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="12" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="12" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="11" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="12" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="12"/>
-    </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -4713,614 +5020,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="4"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="4"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="4"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="4"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -5353,342 +5660,342 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="D16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>

--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7830" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="432">
   <si>
     <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -1226,36 +1226,13 @@
     <t>RuleDB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>結果を比較する対象サーバ。シート「チェック対象」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>compare_server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の既定値</t>
-    </r>
+    <t>結果を比較する対象サーバ</t>
+  </si>
+  <si>
+    <t>win2012</t>
+  </si>
+  <si>
+    <t>ostrich</t>
   </si>
   <si>
     <t>compare_source</t>
@@ -1333,6 +1310,12 @@
     </r>
   </si>
   <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>VMWare リソース割り当て</t>
   </si>
   <si>
@@ -1357,34 +1340,44 @@
     <t>スレッド数</t>
   </si>
   <si>
-    <t>whoami</t>
+    <t>Y</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>whoami_user</t>
+    <t>cron</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>whoami_sid</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>whoamiコマンド情報</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
+    <t>Cron定義一覧</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>whoamiユーザ</t>
+    <t>Linux</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>whoami SID</t>
+    <t>resource_limits</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Y</t>
+    <t>リソースリミット値</t>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>yum</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Yumリポジトリ</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -1413,6 +1406,17 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>patch_lists</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>適用パッチ</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>etc_hosts</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -1431,10 +1435,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>net_accounts</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -1447,54 +1447,6 @@
     <rPh sb="18" eb="20">
       <t>ヨミコミ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>patch_lists</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>適用パッチ</t>
-    <rPh sb="0" eb="2">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>cron</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Cron定義一覧</t>
-    <rPh sb="4" eb="6">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Linux</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>resource_limits</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>リソースリミット値</t>
-    <rPh sb="8" eb="9">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>yum</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Yumリポジトリ</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1650,7 +1602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1718,6 +1670,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2025,16 +1980,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M20"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" activeCellId="1" sqref="A42:F42 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375"/>
-    <col min="2" max="2" width="16.375"/>
+    <col min="2" max="2" width="16.75"/>
     <col min="3" max="3" width="36.875"/>
     <col min="4" max="8" width="13.375"/>
     <col min="9" max="9" width="12.25"/>
@@ -2058,20 +2013,20 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
@@ -2528,30 +2483,16 @@
     <row r="19" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2569,7 +2510,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2577,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3831,62 +3772,62 @@
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>429</v>
-      </c>
       <c r="D74" s="8" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="E74" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3970,8 +3911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4798,42 +4739,42 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4874,42 +4815,42 @@
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4931,54 +4872,28 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
-        <v>411</v>
-      </c>
+      <c r="A56" s="12"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>412</v>
-      </c>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>413</v>
-      </c>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
@@ -5007,16 +4922,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="A42:F42 A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375"/>
+    <col min="1" max="1" width="4.5"/>
     <col min="2" max="2" width="21.25"/>
-    <col min="3" max="3" width="22.5"/>
-    <col min="4" max="5" width="7.375"/>
+    <col min="3" max="3" width="22.875"/>
+    <col min="4" max="4" width="7.75"/>
+    <col min="5" max="5" width="7.375"/>
     <col min="6" max="6" width="49.625"/>
-    <col min="7" max="1025" width="7.375"/>
+    <col min="7" max="1025" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5644,8 +5562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5677,7 +5595,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
         <v>20</v>
@@ -5686,20 +5604,28 @@
         <v>397</v>
       </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
@@ -5707,13 +5633,13 @@
         <v>39</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
@@ -5727,10 +5653,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.15">
@@ -5745,10 +5671,10 @@
         <v>41</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
@@ -5763,10 +5689,10 @@
         <v>41</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5775,7 +5701,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>41</v>
@@ -5823,10 +5749,10 @@
         <v>41</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5868,8 +5794,8 @@
       <c r="D17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
@@ -5888,10 +5814,10 @@
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>258</v>

--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="ゲストOSチェックシート(VMHost)" sheetId="4" r:id="rId4"/>
     <sheet name="検査ルール" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="459">
   <si>
     <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -55,33 +55,18 @@
     <t>'VM’か’オンプレサーバ’かを選択</t>
   </si>
   <si>
-    <t>オンプレ</t>
-  </si>
-  <si>
     <t>server_name</t>
   </si>
   <si>
     <t>検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
   </si>
   <si>
-    <t>win2012</t>
-  </si>
-  <si>
-    <t>win2016</t>
-  </si>
-  <si>
     <t>ip</t>
   </si>
   <si>
     <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
   </si>
   <si>
-    <t>192.168.0.19</t>
-  </si>
-  <si>
-    <t>192.168.0.25</t>
-  </si>
-  <si>
     <t>os_account_id</t>
   </si>
   <si>
@@ -89,9 +74,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>Test2</t>
   </si>
   <si>
     <t>remote_account_id</t>
@@ -1409,66 +1391,95 @@
     <t>スレッド数</t>
   </si>
   <si>
+    <t>datastore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データストア </t>
+  </si>
+  <si>
+    <t>データストアパスの取得</t>
+  </si>
+  <si>
+    <t>ネットワーク・アダプタ</t>
+  </si>
+  <si>
+    <t>ネットワーク・アダプタの取得</t>
+  </si>
+  <si>
+    <t>packages.sos</t>
+  </si>
+  <si>
+    <t>├─sos</t>
+  </si>
+  <si>
+    <t>Linux システムから設定と診断情報を取得するツール</t>
+  </si>
+  <si>
+    <t>packages.sysstat</t>
+  </si>
+  <si>
+    <t>├─sysstat</t>
+  </si>
+  <si>
+    <t>sarコマンドが入っているパッケージ</t>
+  </si>
+  <si>
+    <t>packages.dmidecode</t>
+  </si>
+  <si>
+    <t>├─dmidecode</t>
+  </si>
+  <si>
+    <t>ハードウェア構成情報のレポートツール</t>
+  </si>
+  <si>
+    <t>packages.net-snmp</t>
+  </si>
+  <si>
+    <t>├─NetSNMP</t>
+  </si>
+  <si>
+    <t>SNMPマネージャライブラリ</t>
+  </si>
+  <si>
+    <t>packages.hpsmh</t>
+  </si>
+  <si>
+    <t>├─HPE SMHユーティリティ</t>
+  </si>
+  <si>
+    <t>HP Systems Insight Manager（SIM）にプラグインとして統合されているサーバー構成の統合管理ツール</t>
+  </si>
+  <si>
     <t>├─Oracle必須パッケージ</t>
-    <rPh sb="8" eb="10">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>requiement_for_base</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>requiement_for_sophos</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>├─sophosパッケージ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>requiement_for_msm</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>└─msnパッケージ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>SOPHOS関連パッケージがインストールされているか。 'glibc', 'nss-softokn-freebl', 'libXau', 'libxcb', 'libX11', 'libXpm'</t>
-    <rPh sb="6" eb="8">
-      <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>MSN(MegaRAID Storage Manager)関連パッケージがインストールされているか。 'MegaRAID_Storage_Manager', 'Lib_Utils2', 'Lib_Utils', 'sas_snmp', 'sas_ir_snmp'</t>
-    <rPh sb="29" eb="31">
-      <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─システム管理用パッケージ</t>
   </si>
   <si>
     <t>システム管理用パッケージがインストールされているか。'sysstat', 'dmidecode', 'strace', 'net-snmp-libs', 'net-snmp-utils', 'busybox-anaconda'
 'alchemist','xinetd','tftp-server','system-config-netboot-cmd','system-config-netboot',</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>├─システム管理用パッケージ</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>requiement_for_sophos</t>
+  </si>
+  <si>
+    <t>├─sophosパッケージ</t>
+  </si>
+  <si>
+    <t>SOPHOS関連パッケージがインストールされているか。 'glibc', 'nss-softokn-freebl', 'libXau', 'libxcb', 'libX11', 'libXpm'</t>
+  </si>
+  <si>
+    <t>requiement_for_msm</t>
+  </si>
+  <si>
+    <t>└─msnパッケージ</t>
+  </si>
+  <si>
+    <t>MSN(MegaRAID Storage Manager)関連パッケージがインストールされているか。 'MegaRAID_Storage_Manager', 'Lib_Utils2', 'Lib_Utils', 'sas_snmp', 'sas_ir_snmp'</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1698,6 +1709,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2003,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2108,12 +2122,8 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2130,12 +2140,8 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2147,19 +2153,21 @@
     </row>
     <row r="7" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
+      <c r="D7" s="3" t="str">
+        <f t="shared" ref="D7:M7" si="0">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" ref="F7:M7" si="0">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G7" s="3" t="str">
@@ -2193,19 +2201,21 @@
     </row>
     <row r="8" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" ref="D8:M8" si="1">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" ref="F8:M8" si="1">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" s="3" t="str">
@@ -2239,19 +2249,21 @@
     </row>
     <row r="9" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" ref="D9:M9" si="2">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" ref="F9:M9" si="2">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" s="3" t="str">
@@ -2285,10 +2297,10 @@
     </row>
     <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ref="D10:M10" si="3">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
@@ -2333,10 +2345,10 @@
     </row>
     <row r="11" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" ref="D11:M11" si="4">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
@@ -2381,10 +2393,10 @@
     </row>
     <row r="12" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2399,10 +2411,10 @@
     </row>
     <row r="13" spans="2:13" ht="36" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2418,7 +2430,7 @@
     <row r="14" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2433,10 +2445,10 @@
     </row>
     <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2451,10 +2463,10 @@
     </row>
     <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2469,10 +2481,10 @@
     </row>
     <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2487,10 +2499,10 @@
     </row>
     <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -2533,16 +2545,16 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2567,7 +2579,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2585,1404 +2597,1524 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="11" t="s">
-        <v>65</v>
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="11" t="s">
-        <v>68</v>
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="11" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B20" s="8" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B21" s="8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
       <c r="B25" s="8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A26" s="12"/>
       <c r="B26" s="8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B27" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B28" s="8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A29" s="12"/>
       <c r="B29" s="8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E29" s="8"/>
       <c r="F29" s="11" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F31" s="11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A32" s="12"/>
       <c r="B32" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
+      <c r="A34" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B34" s="8" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F35" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
       <c r="B36" s="8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A38" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B38" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="11" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
+      <c r="A39" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B39" s="8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F39" s="11" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="12"/>
       <c r="B41" s="8" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="8" t="s">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="D46" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="11" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E48" s="8"/>
       <c r="F48" s="11" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
+      <c r="A49" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="B49" s="8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="11" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
+      <c r="A50" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="B50" s="8" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F50" s="11" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="11" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="11" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="11" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E56" s="8"/>
       <c r="F56" s="11" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="11" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="B58" s="8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F58" s="11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="11" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="11" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="11" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>217</v>
+        <v>435</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="11" t="s">
-        <v>218</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="12"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="8"/>
       <c r="F63" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12" t="s">
-        <v>222</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="12"/>
+        <v>441</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="8"/>
       <c r="F64" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12" t="s">
-        <v>436</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="12"/>
+      <c r="D65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="8"/>
       <c r="F65" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="12"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="8"/>
       <c r="F66" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="12"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="8"/>
       <c r="F67" s="11" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="12"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="8"/>
       <c r="F68" s="11" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" s="12"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="8"/>
       <c r="F69" s="11" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A70" s="12"/>
       <c r="B70" s="12" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="12"/>
       <c r="B71" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>234</v>
+        <v>216</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="57" x14ac:dyDescent="0.15">
+      <c r="A72" s="12"/>
       <c r="B72" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>237</v>
+        <v>450</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A73" s="12"/>
       <c r="B73" s="12" t="s">
-        <v>239</v>
+        <v>453</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>240</v>
+        <v>454</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A74" s="12"/>
       <c r="B74" s="12" t="s">
-        <v>242</v>
+        <v>456</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>243</v>
+        <v>457</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E74" s="12"/>
-      <c r="F74" s="12" t="s">
-        <v>243</v>
+      <c r="F74" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="12" t="s">
-        <v>245</v>
+      <c r="F75" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E76" s="12"/>
-      <c r="F76" s="12" t="s">
-        <v>247</v>
+      <c r="F76" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B77" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A78" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C86" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14" t="s">
+      <c r="D86" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" s="8" t="s">
+    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A87" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="11" t="s">
+      <c r="D87" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" s="8" t="s">
+    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="11" t="s">
+      <c r="D88" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="8" t="s">
+    <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="11" t="s">
+      <c r="D89" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
+    <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="11" t="s">
+      <c r="D90" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="8" t="s">
+    <row r="91" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F82" s="11" t="s">
+      <c r="D91" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="11" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="11" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3994,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4022,7 +4154,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4040,947 +4172,987 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>45</v>
+      <c r="A11" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>429</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>430</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="11" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>45</v>
+      <c r="A12" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>432</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="11" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="11" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="11" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="11" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="11" t="s">
-        <v>94</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="11" t="s">
-        <v>276</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="11" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>280</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="11" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="11" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
-        <v>289</v>
+      <c r="F24" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
-        <v>292</v>
+      <c r="F25" s="11" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="11" t="s">
-        <v>301</v>
+      <c r="F28" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="3" t="s">
-        <v>307</v>
+      <c r="F30" s="11" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>316</v>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="11" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17" t="s">
-        <v>330</v>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="D41" s="16" t="s">
+      <c r="A41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17" t="s">
-        <v>333</v>
+      <c r="E41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>199</v>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>334</v>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>45</v>
+      <c r="E44" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>341</v>
-      </c>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>342</v>
+      <c r="A46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>345</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F47" s="11" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>351</v>
+      <c r="A49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F49" s="11" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>172</v>
+        <v>340</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="11" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F51" s="11" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>248</v>
+        <v>345</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="11" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>360</v>
+        <v>39</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="8" t="s">
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="11" t="s">
+      <c r="E59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -5031,380 +5203,380 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5630,9 +5802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5648,28 +5818,28 @@
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -5678,10 +5848,10 @@
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -5690,13 +5860,13 @@
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -5704,67 +5874,67 @@
     <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -5772,13 +5942,13 @@
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -5786,13 +5956,13 @@
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -5800,31 +5970,31 @@
     <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
       <c r="B14" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -5832,13 +6002,13 @@
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5846,13 +6016,13 @@
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -5860,13 +6030,13 @@
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -5874,10 +6044,10 @@
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>6</v>
@@ -5888,10 +6058,10 @@
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>6</v>
@@ -5902,10 +6072,10 @@
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>6</v>
@@ -5916,10 +6086,10 @@
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>6</v>
@@ -5930,10 +6100,10 @@
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>6</v>
@@ -5944,10 +6114,10 @@
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
       <c r="B24" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>6</v>
@@ -5958,10 +6128,10 @@
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
       <c r="B25" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>6</v>
@@ -5972,10 +6142,10 @@
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
       <c r="B26" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>6</v>

--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
     <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" r:id="rId2"/>
     <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" r:id="rId3"/>
-    <sheet name="ゲストOSチェックシート(VMHost)" sheetId="4" r:id="rId4"/>
+    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" r:id="rId4"/>
     <sheet name="検査ルール" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="462">
   <si>
     <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -403,15 +403,6 @@
   </si>
   <si>
     <t>/etc/sysconfig/network-scripts/*-bond*ファイルを検索してNIC冗長設定情報検索</t>
-  </si>
-  <si>
-    <t>net_bond_opts</t>
-  </si>
-  <si>
-    <t>└─bonding設定オプション</t>
-  </si>
-  <si>
-    <t>動作モード(mode),MII監視間隔(miimon),リンクアップ遅延(updelay)</t>
   </si>
   <si>
     <t>y</t>
@@ -1480,6 +1471,30 @@
   </si>
   <si>
     <t>MSN(MegaRAID Storage Manager)関連パッケージがインストールされているか。 'MegaRAID_Storage_Manager', 'Lib_Utils2', 'Lib_Utils', 'sas_snmp', 'sas_ir_snmp'</t>
+  </si>
+  <si>
+    <t>network.gw</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─ゲートウェイ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワークゲートウェイ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>network.subnet</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─サブネット</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワークサブネット</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1707,11 +1722,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2017,7 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2048,20 +2063,20 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
@@ -2551,10 +2566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F91"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2718,10 +2733,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>427</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>42</v>
@@ -2730,7 +2745,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -2741,7 +2756,7 @@
         <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>42</v>
@@ -2750,7 +2765,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3157,25 +3172,27 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="B36" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>129</v>
@@ -3191,7 +3208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
         <v>39</v>
       </c>
@@ -3204,15 +3221,15 @@
       <c r="D38" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F38" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A39" s="12"/>
       <c r="B39" s="8" t="s">
         <v>135</v>
       </c>
@@ -3222,9 +3239,7 @@
       <c r="D39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="11" t="s">
         <v>137</v>
       </c>
@@ -3246,7 +3261,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>141</v>
       </c>
@@ -3261,8 +3276,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="B42" s="8" t="s">
         <v>144</v>
       </c>
@@ -3290,12 +3307,14 @@
       <c r="D43" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F43" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>39</v>
       </c>
@@ -3316,9 +3335,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
         <v>153</v>
       </c>
@@ -3328,48 +3345,48 @@
       <c r="D45" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="E45" s="8"/>
       <c r="F45" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="11" t="s">
+      <c r="D46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3" t="s">
+      <c r="D47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>39</v>
       </c>
@@ -3400,15 +3417,15 @@
       <c r="D49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F49" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
         <v>168</v>
       </c>
@@ -3418,9 +3435,7 @@
       <c r="D50" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="E50" s="8"/>
       <c r="F50" s="11" t="s">
         <v>170</v>
       </c>
@@ -3522,7 +3537,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
+      <c r="A57" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="B57" s="8" t="s">
         <v>189</v>
       </c>
@@ -3532,15 +3549,15 @@
       <c r="D57" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F57" s="11" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>192</v>
       </c>
@@ -3550,9 +3567,7 @@
       <c r="D58" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="E58" s="8"/>
       <c r="F58" s="11" t="s">
         <v>194</v>
       </c>
@@ -3592,17 +3607,17 @@
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>201</v>
+        <v>431</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>202</v>
+        <v>432</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="11" t="s">
-        <v>203</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3656,49 +3671,49 @@
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>443</v>
+        <v>201</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>444</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>204</v>
+        <v>443</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>446</v>
+        <v>204</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>447</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="11" t="s">
-        <v>448</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3718,59 +3733,59 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E69" s="8"/>
+      <c r="D69" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="12"/>
       <c r="F69" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A70" s="12"/>
       <c r="B70" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>214</v>
+      <c r="C70" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
       <c r="B71" s="12" t="s">
-        <v>216</v>
+        <v>447</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="57" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="12"/>
       <c r="B72" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="12" t="s">
         <v>451</v>
       </c>
       <c r="D72" s="12" t="s">
@@ -3781,7 +3796,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A73" s="12"/>
       <c r="B73" s="12" t="s">
         <v>453</v>
@@ -3797,20 +3812,22 @@
         <v>455</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="12"/>
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B74" s="12" t="s">
-        <v>456</v>
+        <v>215</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>457</v>
+        <v>216</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="11" t="s">
-        <v>458</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3849,7 +3866,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
         <v>39</v>
       </c>
@@ -3867,7 +3884,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A78" s="12" t="s">
         <v>39</v>
       </c>
@@ -3885,10 +3902,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="12" t="s">
-        <v>39</v>
-      </c>
+    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="12"/>
       <c r="B79" s="12" t="s">
         <v>230</v>
       </c>
@@ -3904,7 +3919,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="12"/>
+      <c r="A80" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B80" s="12" t="s">
         <v>233</v>
       </c>
@@ -3915,8 +3932,8 @@
         <v>70</v>
       </c>
       <c r="E80" s="12"/>
-      <c r="F80" s="11" t="s">
-        <v>235</v>
+      <c r="F80" s="12" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3924,17 +3941,17 @@
         <v>39</v>
       </c>
       <c r="B81" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3942,17 +3959,17 @@
         <v>39</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3960,34 +3977,34 @@
         <v>39</v>
       </c>
       <c r="B83" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="D83" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="12" t="s">
+    </row>
+    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="14" t="s">
+      <c r="D84" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="11" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4009,7 +4026,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
         <v>39</v>
       </c>
@@ -4028,9 +4045,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
         <v>251</v>
       </c>
@@ -4046,7 +4061,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A88" s="8"/>
+      <c r="A88" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="B88" s="8" t="s">
         <v>254</v>
       </c>
@@ -4056,7 +4073,9 @@
       <c r="D88" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E88" s="8"/>
+      <c r="E88" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F88" s="11" t="s">
         <v>256</v>
       </c>
@@ -4074,14 +4093,12 @@
       <c r="D89" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="E89" s="8"/>
       <c r="F89" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>39</v>
       </c>
@@ -4097,24 +4114,6 @@
       <c r="E90" s="8"/>
       <c r="F90" s="11" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="11" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4126,10 +4125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F59"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4154,7 +4153,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4293,10 +4292,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>427</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>42</v>
@@ -4305,7 +4304,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4316,7 +4315,7 @@
         <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>42</v>
@@ -4325,7 +4324,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4417,7 +4416,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4458,7 +4457,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -4473,7 +4472,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>102</v>
@@ -4483,16 +4482,16 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -4505,26 +4504,26 @@
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -4539,81 +4538,81 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4621,81 +4620,81 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -4703,10 +4702,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -4715,7 +4714,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4723,10 +4722,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -4735,39 +4734,39 @@
         <v>39</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4775,10 +4774,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -4787,7 +4786,7 @@
         <v>39</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4795,17 +4794,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4813,10 +4812,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -4825,39 +4824,39 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4865,10 +4864,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>6</v>
@@ -4877,7 +4876,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4893,17 +4892,17 @@
         <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -4914,7 +4913,7 @@
         <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -4923,47 +4922,39 @@
         <v>39</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A48" s="12"/>
       <c r="B48" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>334</v>
+        <v>456</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="11" t="s">
-        <v>335</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>337</v>
+      <c r="A49" s="12"/>
+      <c r="B49" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="11" t="s">
-        <v>338</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4971,28 +4962,30 @@
         <v>39</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F50" s="11" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>342</v>
+      <c r="A51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -5001,7 +4994,7 @@
         <v>39</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5009,17 +5002,17 @@
         <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="11" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5027,17 +5020,19 @@
         <v>39</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>166</v>
+        <v>340</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F53" s="11" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5045,17 +5040,17 @@
         <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="11" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5063,75 +5058,71 @@
         <v>39</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>242</v>
+        <v>344</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="11" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>354</v>
+      <c r="B56" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>354</v>
+      <c r="E56" s="2"/>
+      <c r="F56" s="11" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="A57" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="11" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D58" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5139,10 +5130,10 @@
         <v>39</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>6</v>
@@ -5150,8 +5141,48 @@
       <c r="E59" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="8" t="s">
-        <v>363</v>
+      <c r="F59" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5165,7 +5196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5229,14 +5262,14 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5252,13 +5285,13 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>87</v>
@@ -5268,135 +5301,135 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5412,71 +5445,71 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5484,10 +5517,10 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>51</v>
@@ -5496,7 +5529,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5504,10 +5537,10 @@
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>51</v>
@@ -5516,7 +5549,7 @@
         <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5524,10 +5557,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>51</v>
@@ -5536,7 +5569,7 @@
         <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5544,10 +5577,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>51</v>
@@ -5556,7 +5589,7 @@
         <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5564,10 +5597,10 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
@@ -5576,7 +5609,7 @@
         <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5802,7 +5835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5827,10 +5860,10 @@
         <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -5839,7 +5872,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -5848,10 +5881,10 @@
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -5863,7 +5896,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>42</v>
@@ -5883,10 +5916,10 @@
         <v>42</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.15">
@@ -5901,10 +5934,10 @@
         <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
@@ -5919,10 +5952,10 @@
         <v>42</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5931,7 +5964,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>42</v>
@@ -5979,10 +6012,10 @@
         <v>42</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -6044,10 +6077,10 @@
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>6</v>
@@ -6072,7 +6105,7 @@
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>102</v>
@@ -6086,10 +6119,10 @@
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>6</v>
@@ -6100,10 +6133,10 @@
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>6</v>
@@ -6114,10 +6147,10 @@
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
       <c r="B24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>6</v>
@@ -6131,7 +6164,7 @@
         <v>110</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>6</v>
@@ -6142,10 +6175,10 @@
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
       <c r="B26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>6</v>

--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
@@ -709,10 +709,6 @@
   </si>
   <si>
     <t>ランレベル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
-</t>
   </si>
   <si>
     <t>resolve_conf</t>
@@ -1494,6 +1490,13 @@
   </si>
   <si>
     <t>ネットワークサブネット</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索。RHEL7の場合は、graphical.target (グラフィカルインターフェイス使用)、 multi-user.target （マルチユーザ）、 basic.target（必須のシステムサービスのみ）</t>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2568,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2733,10 +2736,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>426</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>427</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>42</v>
@@ -2745,7 +2748,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -2756,7 +2759,7 @@
         <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>42</v>
@@ -2765,7 +2768,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3607,65 +3610,65 @@
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>432</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>438</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3687,17 +3690,17 @@
     <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3754,7 +3757,7 @@
         <v>213</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>70</v>
@@ -3767,49 +3770,49 @@
     <row r="71" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
       <c r="B71" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>448</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="12"/>
       <c r="B72" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A73" s="12"/>
       <c r="B73" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>453</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>454</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3866,7 +3869,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
         <v>39</v>
       </c>
@@ -3881,7 +3884,7 @@
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="11" t="s">
-        <v>226</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -3889,33 +3892,33 @@
         <v>39</v>
       </c>
       <c r="B78" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="12"/>
       <c r="B79" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3923,17 +3926,17 @@
         <v>39</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3941,17 +3944,17 @@
         <v>39</v>
       </c>
       <c r="B81" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3959,17 +3962,17 @@
         <v>39</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3977,17 +3980,17 @@
         <v>39</v>
       </c>
       <c r="B83" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>240</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -3995,17 +3998,17 @@
         <v>39</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -4013,17 +4016,17 @@
         <v>39</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4031,33 +4034,33 @@
         <v>39</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4065,19 +4068,19 @@
         <v>39</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="D88" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4085,17 +4088,17 @@
         <v>39</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -4103,17 +4106,17 @@
         <v>39</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4292,10 +4295,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>426</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>427</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>42</v>
@@ -4304,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4315,7 +4318,7 @@
         <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>42</v>
@@ -4324,7 +4327,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4416,7 +4419,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4457,7 +4460,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -4472,7 +4475,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>102</v>
@@ -4482,16 +4485,16 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -4504,26 +4507,26 @@
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -4538,81 +4541,81 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4620,81 +4623,81 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -4702,10 +4705,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -4714,7 +4717,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4725,7 +4728,7 @@
         <v>132</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -4734,39 +4737,39 @@
         <v>39</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>311</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>314</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4786,7 +4789,7 @@
         <v>39</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4804,7 +4807,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4824,39 +4827,39 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>319</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>320</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>322</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>323</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4876,7 +4879,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4895,14 +4898,14 @@
         <v>159</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -4913,7 +4916,7 @@
         <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -4922,39 +4925,39 @@
         <v>39</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
       <c r="B48" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>456</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>457</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
       <c r="B49" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>459</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>460</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4962,10 +4965,10 @@
         <v>39</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -4974,7 +4977,7 @@
         <v>39</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4982,10 +4985,10 @@
         <v>39</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -4994,7 +4997,7 @@
         <v>39</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5002,17 +5005,17 @@
         <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5020,10 +5023,10 @@
         <v>39</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -5032,7 +5035,7 @@
         <v>39</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5040,17 +5043,17 @@
         <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5058,7 +5061,7 @@
         <v>39</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>163</v>
@@ -5068,7 +5071,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5076,17 +5079,17 @@
         <v>39</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5094,17 +5097,17 @@
         <v>39</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5112,17 +5115,17 @@
         <v>39</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5130,10 +5133,10 @@
         <v>39</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>6</v>
@@ -5142,7 +5145,7 @@
         <v>39</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5150,10 +5153,10 @@
         <v>39</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>6</v>
@@ -5162,7 +5165,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5170,10 +5173,10 @@
         <v>39</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>6</v>
@@ -5182,7 +5185,7 @@
         <v>39</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5262,14 +5265,14 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5285,13 +5288,13 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>87</v>
@@ -5301,135 +5304,135 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5445,71 +5448,71 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5517,10 +5520,10 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>51</v>
@@ -5529,7 +5532,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5537,10 +5540,10 @@
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>51</v>
@@ -5549,7 +5552,7 @@
         <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5557,10 +5560,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>51</v>
@@ -5569,7 +5572,7 @@
         <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5577,10 +5580,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>51</v>
@@ -5589,7 +5592,7 @@
         <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5597,10 +5600,10 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
@@ -5609,7 +5612,7 @@
         <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5835,7 +5838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5860,10 +5863,10 @@
         <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -5872,7 +5875,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -5881,10 +5884,10 @@
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -5896,7 +5899,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>42</v>
@@ -5916,10 +5919,10 @@
         <v>42</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.15">
@@ -5934,10 +5937,10 @@
         <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
@@ -5952,10 +5955,10 @@
         <v>42</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5964,7 +5967,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>42</v>
@@ -6012,10 +6015,10 @@
         <v>42</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -6077,10 +6080,10 @@
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>425</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>6</v>
@@ -6105,7 +6108,7 @@
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>102</v>
@@ -6119,10 +6122,10 @@
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>6</v>
@@ -6136,7 +6139,7 @@
         <v>132</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>6</v>
@@ -6150,7 +6153,7 @@
         <v>159</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>6</v>
@@ -6164,7 +6167,7 @@
         <v>110</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>6</v>
@@ -6175,7 +6178,7 @@
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
       <c r="B26" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>163</v>

--- a/src/main/resources/root/jp/サーバーチェックシート.xlsx
+++ b/src/main/resources/root/jp/サーバーチェックシート.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="チェック対象" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="検査ルール" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
+    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" r:id="rId2"/>
+    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" r:id="rId3"/>
+    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" r:id="rId4"/>
+    <sheet name="検査ルール" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="447">
   <si>
-    <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
+    <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
   <si>
     <t xml:space="preserve">* はじめに 1行目の「platform」,2行目の「virtualization」のセルを選択してください 
@@ -35,1319 +34,1301 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">項目ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtualization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'VM’か’オンプレサーバ’かを選択</t>
-  </si>
-  <si>
-    <t xml:space="preserve">server_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumCpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDDType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成</t>
+    <t>項目ID</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
+    <t>virtualization</t>
+  </si>
+  <si>
+    <t>'VM’か’オンプレサーバ’かを選択</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
+    <t>os_account_id</t>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>verify_id</t>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t>compare_server</t>
+  </si>
+  <si>
+    <t>比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
+  </si>
+  <si>
+    <t>以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
+  </si>
+  <si>
+    <t>NumCpu</t>
+  </si>
+  <si>
+    <t>CPU割り当て数</t>
+  </si>
+  <si>
+    <t>MemoryGB</t>
+  </si>
+  <si>
+    <t>メモリ割り当て</t>
+  </si>
+  <si>
+    <t>ESXiHost</t>
+  </si>
+  <si>
+    <t>ESXiホスト</t>
+  </si>
+  <si>
+    <t>HDDType</t>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デバイス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採取情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源On/Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datastore</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>採取情報</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>vm</t>
+  </si>
+  <si>
+    <t>VMWare リソース</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t>├─CPU割り当て数</t>
+  </si>
+  <si>
+    <t>仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
+    <t>PowerState</t>
+  </si>
+  <si>
+    <t>├─電源状態</t>
+  </si>
+  <si>
+    <t>電源On/Off</t>
+  </si>
+  <si>
+    <t>├─メモリ割り当て</t>
+  </si>
+  <si>
+    <t>メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
+    <t>VMHost</t>
+  </si>
+  <si>
+    <t>├─ESXiホスト</t>
+  </si>
+  <si>
+    <t>ESXiホスト名</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>└─クラスター</t>
+  </si>
+  <si>
+    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
+  </si>
+  <si>
+    <t>datastore</t>
   </si>
   <si>
     <t xml:space="preserve">データストア </t>
   </si>
   <si>
-    <t xml:space="preserve">データストアパスの取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク・アダプタ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク・アダプタの取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vmwaretool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_timesync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期の有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_iops_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージIOPS制限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname_fqdn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSカーネル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSバージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux OSディストリビューション情報 を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/proc/cpuinfo を検索してプロセッサ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUプロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック数[MHz]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数。VMの場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machineid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サーバの識別子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下のファイルを検索してマシンの識別子を検索
+    <t>データストアパスの取得</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>ネットワーク・アダプタ</t>
+  </si>
+  <si>
+    <t>ネットワーク・アダプタの取得</t>
+  </si>
+  <si>
+    <t>vmwaretool</t>
+  </si>
+  <si>
+    <t>VMWare ツール</t>
+  </si>
+  <si>
+    <t>VMWare ツールの有無、アップグレードの検索</t>
+  </si>
+  <si>
+    <t>vm_timesync</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期の有無</t>
+  </si>
+  <si>
+    <t>vm_iops_limit</t>
+  </si>
+  <si>
+    <t>ストレージIOPS制限</t>
+  </si>
+  <si>
+    <t>ストレージリソースのIOPS制限値を検索</t>
+  </si>
+  <si>
+    <t>vm_storage</t>
+  </si>
+  <si>
+    <t>ストレージ構成情報検索</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>ホスト名</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>ホスト名の検索</t>
+  </si>
+  <si>
+    <t>hostname_fqdn</t>
+  </si>
+  <si>
+    <t>FQDN名</t>
+  </si>
+  <si>
+    <t>FQDN名の検索</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>OSカーネル</t>
+  </si>
+  <si>
+    <t>lsb</t>
+  </si>
+  <si>
+    <t>OSバージョン</t>
+  </si>
+  <si>
+    <t>Linux OSディストリビューション情報 を検索</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>CPU情報</t>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索してプロセッサ構成を検索</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>├─プロセッサーモデル</t>
+  </si>
+  <si>
+    <t>CPUプロセッサーモデル</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>├─CPUクロック</t>
+  </si>
+  <si>
+    <t>CPUクロック数[MHz]</t>
+  </si>
+  <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
+    <t>├─CPUスレッド数</t>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+  </si>
+  <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>├─CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUコア数。VMの場合は未記入</t>
+  </si>
+  <si>
+    <t>cpu_real</t>
+  </si>
+  <si>
+    <t>└─CPUソケット数</t>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+  </si>
+  <si>
+    <t>machineid</t>
+  </si>
+  <si>
+    <t>サーバの識別子</t>
+  </si>
+  <si>
+    <t>以下のファイルを検索してマシンの識別子を検索
     /etc/machine-id
     /var/lib/dbus/machine-id</t>
   </si>
   <si>
-    <t xml:space="preserve">meminfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─搭載メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理搭載メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─メモリ空容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ空き容量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hw_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_onboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークブート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デフォルトゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_bond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICの冗長化(bonding設定)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts/*-bond*ファイルを検索してNIC冗長設定情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block_device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージデバイス</t>
+    <t>meminfo</t>
+  </si>
+  <si>
+    <t>メモリ情報</t>
+  </si>
+  <si>
+    <t>"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
+  </si>
+  <si>
+    <t>mem_total</t>
+  </si>
+  <si>
+    <t>├─搭載メモリ量</t>
+  </si>
+  <si>
+    <t>物理搭載メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>mem_free</t>
+  </si>
+  <si>
+    <t>└─メモリ空容量</t>
+  </si>
+  <si>
+    <t>メモリ空き容量[KB]</t>
+  </si>
+  <si>
+    <t>ネットワーク情報</t>
+  </si>
+  <si>
+    <t>/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>hw_address</t>
+  </si>
+  <si>
+    <t>└─MACアドレス</t>
+  </si>
+  <si>
+    <t>MACアドレス</t>
+  </si>
+  <si>
+    <t>net_onboot</t>
+  </si>
+  <si>
+    <t>ネットワークブート</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
+  </si>
+  <si>
+    <t>net_route</t>
+  </si>
+  <si>
+    <t>デフォルトゲートウェイ</t>
+  </si>
+  <si>
+    <t>/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
+  </si>
+  <si>
+    <t>net_bond</t>
+  </si>
+  <si>
+    <t>NICの冗長化(bonding設定)</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts/*-bond*ファイルを検索してNIC冗長設定情報検索</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>block_device</t>
+  </si>
+  <si>
+    <t>ストレージデバイス</t>
   </si>
   <si>
     <t xml:space="preserve">/sys/block/下を検索し、各デバイスのベンダー情報、タイムアウト値、キューサイズを検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">mdadb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクRAID</t>
+    <t>mdadb</t>
+  </si>
+  <si>
+    <t>ディスクRAID</t>
   </si>
   <si>
     <t xml:space="preserve">"/proc/mdstat" ファイルを探して、md([0-9]+)デバイスを取得。"mdadm --detail /dev/#{device}" を実行して、結果を取得。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">filesystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルシステム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ルート(/)マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.[SWAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─/boot マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/boot マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fstab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自動マウントの設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/fstab から設定値が/dev/から始まるパスで、defaultになっている自動マウントされたデバイスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">論理ボリューム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mountコマンドで、/dev/mapper/{ボリュームグループ名}-{論理ボリューム名}を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.zabbix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─zabbix ユーザ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zabbix ユーザの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logon_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ログオンテスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データの暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下ファイルを読んで、データ暗号化の有無を確認
+    <t>filesystem</t>
+  </si>
+  <si>
+    <t>ファイルシステム</t>
+  </si>
+  <si>
+    <t>"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem./</t>
+  </si>
+  <si>
+    <t>├─ルート(/)マウントポイント</t>
+  </si>
+  <si>
+    <t>ルート(/)マウントポイント容量</t>
+  </si>
+  <si>
+    <t>filesystem.[SWAP]</t>
+  </si>
+  <si>
+    <t>├─スワップ</t>
+  </si>
+  <si>
+    <t>スワップ容量</t>
+  </si>
+  <si>
+    <t>filesystem./boot</t>
+  </si>
+  <si>
+    <t>└─/boot マウントポイント</t>
+  </si>
+  <si>
+    <t>/boot マウントポイント容量</t>
+  </si>
+  <si>
+    <t>fstab</t>
+  </si>
+  <si>
+    <t>自動マウントの設定</t>
+  </si>
+  <si>
+    <t>/etc/fstab から設定値が/dev/から始まるパスで、defaultになっている自動マウントされたデバイスを検索</t>
+  </si>
+  <si>
+    <t>lvm</t>
+  </si>
+  <si>
+    <t>論理ボリューム情報</t>
+  </si>
+  <si>
+    <t>mountコマンドで、/dev/mapper/{ボリュームグループ名}-{論理ボリューム名}を検索</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+  </si>
+  <si>
+    <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>user.zabbix</t>
+  </si>
+  <si>
+    <t>└─zabbix ユーザ</t>
+  </si>
+  <si>
+    <t>zabbix ユーザの有無</t>
+  </si>
+  <si>
+    <t>logon_test</t>
+  </si>
+  <si>
+    <t>ログオンテスト</t>
+  </si>
+  <si>
+    <t>config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>データの暗号化</t>
+  </si>
+  <si>
+    <t>以下ファイルを読んで、データ暗号化の有無を確認
 /proc/sys/crypto/fips_enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">virturization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想化プラットフォーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービス構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.kdump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Kdumpクラッシュリカバリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdump クラッシュリカバリーサービスの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.firewalld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォール(RHEL7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firewalld ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.iptables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォール(RHEL6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.ip6tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─IPv6ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip6tables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.restorecond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─SELinux運用サポート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinux の運用サポートデーモンの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.NetworkManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ネットワークマネージャー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク管理の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wdaemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─wdaemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wacom タブレットのホットプラグ機能の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.vncserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─VNCサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNCサーバの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpm -qa でパッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.gcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─gcc コンパイラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gcc パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.sysstat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─sysstat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarコマンドが入っているパッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.dmidecode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─dmidecode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハードウェア構成情報のレポートツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.net-snmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─NetSNMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMPマネージャライブラリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.net-snmp-utils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─NetSNMPユーティリティ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMPマネージャコマンドラインプログラム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.hpsmh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─HPE SMHユーティリティ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Systems Insight Manager（SIM）にプラグインとして統合されているサーバー構成の統合管理ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requiement_for_oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Oracle必須パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requiement_for_base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─システム管理用パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム管理用パッケージがインストールされているか。'sysstat', 'dmidecode', 'strace', 'net-snmp-libs', 'net-snmp-utils', 'busybox-anaconda'
+    <t>virturization</t>
+  </si>
+  <si>
+    <t>仮想化プラットフォーム</t>
+  </si>
+  <si>
+    <t>XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>サービス構成</t>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>service.kdump</t>
+  </si>
+  <si>
+    <t>├─Kdumpクラッシュリカバリ</t>
+  </si>
+  <si>
+    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.firewalld</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォール(RHEL7)</t>
+  </si>
+  <si>
+    <t>firewalld ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.iptables</t>
+  </si>
+  <si>
+    <t>iptables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.ip6tables</t>
+  </si>
+  <si>
+    <t>ip6tables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.restorecond</t>
+  </si>
+  <si>
+    <t>├─SELinux運用サポート</t>
+  </si>
+  <si>
+    <t>SELinux の運用サポートデーモンの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.NetworkManager</t>
+  </si>
+  <si>
+    <t>├─ネットワークマネージャー</t>
+  </si>
+  <si>
+    <t>ネットワーク管理の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.wdaemon</t>
+  </si>
+  <si>
+    <t>├─wdaemon</t>
+  </si>
+  <si>
+    <t>Wacom タブレットのホットプラグ機能の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.vncserver</t>
+  </si>
+  <si>
+    <t>└─VNCサービス</t>
+  </si>
+  <si>
+    <t>VNCサーバの自動起動設定</t>
+  </si>
+  <si>
+    <t>packages</t>
+  </si>
+  <si>
+    <t>パッケージ構成</t>
+  </si>
+  <si>
+    <t>rpm -qa でパッケージ情報取得</t>
+  </si>
+  <si>
+    <t>packages.gcc</t>
+  </si>
+  <si>
+    <t>├─gcc コンパイラ</t>
+  </si>
+  <si>
+    <t>gcc パッケージ</t>
+  </si>
+  <si>
+    <t>packages.sysstat</t>
+  </si>
+  <si>
+    <t>├─sysstat</t>
+  </si>
+  <si>
+    <t>sarコマンドが入っているパッケージ</t>
+  </si>
+  <si>
+    <t>packages.dmidecode</t>
+  </si>
+  <si>
+    <t>├─dmidecode</t>
+  </si>
+  <si>
+    <t>ハードウェア構成情報のレポートツール</t>
+  </si>
+  <si>
+    <t>packages.net-snmp</t>
+  </si>
+  <si>
+    <t>├─NetSNMP</t>
+  </si>
+  <si>
+    <t>SNMPマネージャライブラリ</t>
+  </si>
+  <si>
+    <t>packages.net-snmp-utils</t>
+  </si>
+  <si>
+    <t>├─NetSNMPユーティリティ</t>
+  </si>
+  <si>
+    <t>SNMPマネージャコマンドラインプログラム</t>
+  </si>
+  <si>
+    <t>packages.hpsmh</t>
+  </si>
+  <si>
+    <t>├─HPE SMHユーティリティ</t>
+  </si>
+  <si>
+    <t>HP Systems Insight Manager（SIM）にプラグインとして統合されているサーバー構成の統合管理ツール</t>
+  </si>
+  <si>
+    <t>├─Oracle必須パッケージ</t>
+  </si>
+  <si>
+    <t>Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
+  </si>
+  <si>
+    <t>├─システム管理用パッケージ</t>
+  </si>
+  <si>
+    <t>システム管理用パッケージがインストールされているか。'sysstat', 'dmidecode', 'strace', 'net-snmp-libs', 'net-snmp-utils', 'busybox-anaconda'
 'alchemist','xinetd','tftp-server','system-config-netboot-cmd','system-config-netboot',</t>
   </si>
   <si>
-    <t xml:space="preserve">requiement_for_sophos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─sophosパッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOPHOS関連パッケージがインストールされているか。 'glibc', 'nss-softokn-freebl', 'libXau', 'libxcb', 'libX11', 'libXpm'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requiement_for_msm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─msmパッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSM(MegaRAID Storage Manager)関連パッケージがインストールされているか。 'MegaRAID_Storage_Manager', 'Lib_Utils2', 'Lib_Utils', 'sas_snmp', 'sas_ir_snmp'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOマウントの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proxy_global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yumコマンドプロキシ設定有無</t>
+    <t>├─sophosパッケージ</t>
+  </si>
+  <si>
+    <t>SOPHOS関連パッケージがインストールされているか。 'glibc', 'nss-softokn-freebl', 'libXau', 'libxcb', 'libX11', 'libXpm'</t>
+  </si>
+  <si>
+    <t>└─msmパッケージ</t>
+  </si>
+  <si>
+    <t>MSM(MegaRAID Storage Manager)関連パッケージがインストールされているか。 'MegaRAID_Storage_Manager', 'Lib_Utils2', 'Lib_Utils', 'sas_snmp', 'sas_ir_snmp'</t>
+  </si>
+  <si>
+    <t>mount_iso</t>
+  </si>
+  <si>
+    <t>ISOマウントの有無</t>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント情報取得</t>
+  </si>
+  <si>
+    <t>proxy_global</t>
+  </si>
+  <si>
+    <t>yumコマンドプロキシ設定有無</t>
   </si>
   <si>
     <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
   </si>
   <si>
-    <t xml:space="preserve">crash_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラッシュダンプサイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sys/kernel/kexec_crash_size を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runlevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランレベル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索。RHEL7の場合は、graphical.target (グラフィカルインターフェイス使用)、 multi-user.target （マルチユーザ）、 basic.target（必須のシステムサービスのみ）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resolve_conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS設定</t>
+    <t>crash_size</t>
+  </si>
+  <si>
+    <t>クラッシュダンプサイズ</t>
+  </si>
+  <si>
+    <t>/sys/kernel/kexec_crash_size を検索</t>
+  </si>
+  <si>
+    <t>runlevel</t>
+  </si>
+  <si>
+    <t>ランレベル</t>
+  </si>
+  <si>
+    <t>OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索。RHEL7の場合は、graphical.target (グラフィカルインターフェイス使用)、 multi-user.target （マルチユーザ）、 basic.target（必須のシステムサービスのみ）</t>
+  </si>
+  <si>
+    <t>resolve_conf</t>
+  </si>
+  <si>
+    <t>DNS設定</t>
   </si>
   <si>
     <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">nameservers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─DNSサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キーボード配列</t>
-  </si>
-  <si>
-    <t xml:space="preserve">language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS言語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timezone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp_slew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTP slewモードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snmp_trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMPトラップ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─SELinux モード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxモードの検索。SELinuxが無効の場合は空白</t>
-  </si>
-  <si>
-    <t xml:space="preserve">error_messages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syslogエラー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syslogメッセージでerror,warning,failedを含む行を抽出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle_module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleインストーラの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleモジュールの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+    <t>nameservers</t>
+  </si>
+  <si>
+    <t>└─DNSサーバ名</t>
+  </si>
+  <si>
+    <t>DNSサーバの検索</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>キーボード配列</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>OS言語</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>NTPサーバ名</t>
+  </si>
+  <si>
+    <t>NTPサーバの検索</t>
+  </si>
+  <si>
+    <t>ntp_slew</t>
+  </si>
+  <si>
+    <t>NTP slewモードの検索</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
+  </si>
+  <si>
+    <t>snmp_trap</t>
+  </si>
+  <si>
+    <t>SNMPトラップ情報</t>
+  </si>
+  <si>
+    <t>'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
+  </si>
+  <si>
+    <t>sestatus</t>
+  </si>
+  <si>
+    <t>SELinuxステータス</t>
+  </si>
+  <si>
+    <t>sestatus コマンドからステータス検索</t>
+  </si>
+  <si>
+    <t>se_mode</t>
+  </si>
+  <si>
+    <t>└─SELinux モード</t>
+  </si>
+  <si>
+    <t>SELinuxモードの検索。SELinuxが無効の場合は空白</t>
+  </si>
+  <si>
+    <t>error_messages</t>
+  </si>
+  <si>
+    <t>Syslogエラー</t>
+  </si>
+  <si>
+    <t>Syslogメッセージでerror,warning,failedを含む行を抽出</t>
+  </si>
+  <si>
+    <t>oracle_module</t>
+  </si>
+  <si>
+    <t>Oracleインストーラの有無</t>
+  </si>
+  <si>
+    <t>/root/packageの下にOracleインストールファイルがあるか</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleモジュールの有無</t>
+  </si>
+  <si>
+    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─スレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、メモリ情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─物理メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_virtual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─仮想メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free_physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─空きメモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから、システム情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、OS情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─OS名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_csd_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─サービスパック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービスパック名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─アーキテクチャ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーキテクチャ(32bit/64bit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─製品タイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドライバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.C:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Cドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.D:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Dドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_UserAccount から、アカウント情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get-Service から、サービスのステータスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMware Tools サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化ポリシー。Enabled の値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network.gw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network.subnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─サブネット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークサブネット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nic_teaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICチーミング(NetLBFO)設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICチーミング(NetLBFO)名を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network_profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークプロファイル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークプロファイル。0:パブリック,1:プライベート,2:ドメイン認証</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートデスクトップ接続許可設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virturalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから仮想化プラットフォームを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_timeout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト[秒]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ie_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InternetExplorerバージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">インストールされたWindows機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windowsシステムイベントログ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windowsシステムイベントログから、エラーを抽出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apps_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windowsアプリイベントログ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windowsアプリイベントログから、エラーを抽出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter情報のホスト情報を検索します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CpuTotalMhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryTotalGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LicenseKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcessorType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirewallDefaultPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HyperthreadingActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMSwapfilePolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StorageInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkAdapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiskPartition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datastore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">結果を比較する対象サーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_source</t>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Win32_Processor オブジェクトからCPU情報を検索</t>
+  </si>
+  <si>
+    <t>└─スレッド数</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、メモリ情報を検索</t>
+  </si>
+  <si>
+    <t>total_visible</t>
+  </si>
+  <si>
+    <t>├─物理メモリ量</t>
+  </si>
+  <si>
+    <t>total_virtual</t>
+  </si>
+  <si>
+    <t>├─仮想メモリ量</t>
+  </si>
+  <si>
+    <t>仮想メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>free_physical</t>
+  </si>
+  <si>
+    <t>└─空きメモリ量</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>システム情報</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから、システム情報を検索</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>├─ドメイン名</t>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>├─メーカー</t>
+  </si>
+  <si>
+    <t>メーカー</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>├─モデル</t>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>└─コンピューター名</t>
+  </si>
+  <si>
+    <t>コンピューター名</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>OS情報</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、OS情報を検索</t>
+  </si>
+  <si>
+    <t>os_caption</t>
+  </si>
+  <si>
+    <t>├─OS名</t>
+  </si>
+  <si>
+    <t>OS名称</t>
+  </si>
+  <si>
+    <t>os_csd_version</t>
+  </si>
+  <si>
+    <t>├─サービスパック</t>
+  </si>
+  <si>
+    <t>サービスパック名</t>
+  </si>
+  <si>
+    <t>os_architecture</t>
+  </si>
+  <si>
+    <t>├─アーキテクチャ</t>
+  </si>
+  <si>
+    <t>アーキテクチャ(32bit/64bit)</t>
+  </si>
+  <si>
+    <t>os_product_type</t>
+  </si>
+  <si>
+    <t>└─製品タイプ</t>
+  </si>
+  <si>
+    <t>1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>ドライバー</t>
+  </si>
+  <si>
+    <t>Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>ディスク容量</t>
+  </si>
+  <si>
+    <t>Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem.C:</t>
+  </si>
+  <si>
+    <t>├─Cドライブ</t>
+  </si>
+  <si>
+    <t>Cドライブ容量</t>
+  </si>
+  <si>
+    <t>filesystem.D:</t>
+  </si>
+  <si>
+    <t>└─Dドライブ</t>
+  </si>
+  <si>
+    <t>Dドライブ容量</t>
+  </si>
+  <si>
+    <t>Win32_UserAccount から、アカウント情報を検索</t>
+  </si>
+  <si>
+    <t>config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
+  </si>
+  <si>
+    <t>Get-Service から、サービスのステータスを検索</t>
+  </si>
+  <si>
+    <t>service.VMTools</t>
+  </si>
+  <si>
+    <t>├─VMTools</t>
+  </si>
+  <si>
+    <t>VMware Tools サービス</t>
+  </si>
+  <si>
+    <t>service.wuauserv</t>
+  </si>
+  <si>
+    <t>└─wuauserv</t>
+  </si>
+  <si>
+    <t>Windows Update サービス</t>
+  </si>
+  <si>
+    <t>パッケージ情報取得</t>
+  </si>
+  <si>
+    <t>システム暗号化</t>
+  </si>
+  <si>
+    <t>システム暗号化ポリシー。Enabled の値を検索</t>
+  </si>
+  <si>
+    <t>ネットワーク構成</t>
+  </si>
+  <si>
+    <t>Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>network.gw</t>
+  </si>
+  <si>
+    <t>├─ゲートウェイ</t>
+  </si>
+  <si>
+    <t>ネットワークゲートウェイ</t>
+  </si>
+  <si>
+    <t>network.subnet</t>
+  </si>
+  <si>
+    <t>└─サブネット</t>
+  </si>
+  <si>
+    <t>ネットワークサブネット</t>
+  </si>
+  <si>
+    <t>nic_teaming</t>
+  </si>
+  <si>
+    <t>NICチーミング(NetLBFO)設定</t>
+  </si>
+  <si>
+    <t>NICチーミング(NetLBFO)名を検索</t>
+  </si>
+  <si>
+    <t>network_profile</t>
+  </si>
+  <si>
+    <t>ネットワークプロファイル</t>
+  </si>
+  <si>
+    <t>ネットワークプロファイル。0:パブリック,1:プライベート,2:ドメイン認証</t>
+  </si>
+  <si>
+    <t>remote_desktop</t>
+  </si>
+  <si>
+    <t>リモートデスクトップ接続許可設定</t>
+  </si>
+  <si>
+    <t>リモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>DNSサーバ</t>
+  </si>
+  <si>
+    <t>virturalization</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから仮想化プラットフォームを検索</t>
+  </si>
+  <si>
+    <t>storage_timeout</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト値</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト[秒]</t>
+  </si>
+  <si>
+    <t>NTPサーバ情報</t>
+  </si>
+  <si>
+    <t>ie_version</t>
+  </si>
+  <si>
+    <t>InternetExplorerバージョン</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>Windows機能</t>
+  </si>
+  <si>
+    <t>インストールされたWindows機能</t>
+  </si>
+  <si>
+    <t>system_log</t>
+  </si>
+  <si>
+    <t>Windowsシステムイベントログ</t>
+  </si>
+  <si>
+    <t>Windowsシステムイベントログから、エラーを抽出</t>
+  </si>
+  <si>
+    <t>apps_log</t>
+  </si>
+  <si>
+    <t>Windowsアプリイベントログ</t>
+  </si>
+  <si>
+    <t>Windowsアプリイベントログから、エラーを抽出</t>
+  </si>
+  <si>
+    <t>ホスト情報</t>
+  </si>
+  <si>
+    <t>vCenter情報のホスト情報を検索します</t>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CpuTotalMhz</t>
+  </si>
+  <si>
+    <t>CPUクロック</t>
+  </si>
+  <si>
+    <t>MemoryTotalGB</t>
+  </si>
+  <si>
+    <t>├─メモリ容量</t>
+  </si>
+  <si>
+    <t>メモリ容量</t>
+  </si>
+  <si>
+    <t>LicenseKey</t>
+  </si>
+  <si>
+    <t>├─ライセンス</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ProcessorType</t>
+  </si>
+  <si>
+    <t>├─プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>├─バージョン</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>├─ビルド</t>
+  </si>
+  <si>
+    <t>ビルド</t>
+  </si>
+  <si>
+    <t>FirewallDefaultPolicy</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>HyperthreadingActive</t>
+  </si>
+  <si>
+    <t>├─ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>├─タイムゾーン</t>
+  </si>
+  <si>
+    <t>電源状態</t>
+  </si>
+  <si>
+    <t>VMSwapfilePolicy</t>
+  </si>
+  <si>
+    <t>├─スワップポリシー</t>
+  </si>
+  <si>
+    <t>スワップポリシー</t>
+  </si>
+  <si>
+    <t>StorageInfo</t>
+  </si>
+  <si>
+    <t>├─ストレージ</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>NetworkInfo</t>
+  </si>
+  <si>
+    <t>└─ネットワーク</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>アカウント情報</t>
+  </si>
+  <si>
+    <t>アカウント数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>NetworkAdapter</t>
+  </si>
+  <si>
+    <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>ディスク構成</t>
+  </si>
+  <si>
+    <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>DiskPartition</t>
+  </si>
+  <si>
+    <t>ディスクパーティション</t>
+  </si>
+  <si>
+    <t>ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Datastore</t>
+  </si>
+  <si>
+    <t>データストア</t>
+  </si>
+  <si>
+    <t>データストア数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>RuleAP</t>
+  </si>
+  <si>
+    <t>RuleDB</t>
+  </si>
+  <si>
+    <t>結果を比較する対象サーバ</t>
+  </si>
+  <si>
+    <t>compare_source</t>
   </si>
   <si>
     <r>
@@ -1358,7 +1339,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">結果を比較するソース。</t>
+      <t>結果を比較するソース。</t>
     </r>
     <r>
       <rPr>
@@ -1368,7 +1349,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">actual:</t>
+      <t>actual:</t>
     </r>
     <r>
       <rPr>
@@ -1378,7 +1359,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">実行結果から、</t>
+      <t>実行結果から、</t>
     </r>
     <r>
       <rPr>
@@ -1388,7 +1369,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">local:node</t>
+      <t>local:node</t>
     </r>
     <r>
       <rPr>
@@ -1398,7 +1379,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ディレクトリから、</t>
+      <t>ディレクトリから、</t>
     </r>
     <r>
       <rPr>
@@ -1408,7 +1389,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">db:</t>
+      <t>db:</t>
     </r>
     <r>
       <rPr>
@@ -1422,61 +1403,60 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">VMWare リソース割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x == NumberUtils.toDouble(server_info['NumCpu'])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x == NumberUtils.toDouble(server_info['MemoryGB'])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x.indexOf(server_info['ESXiHost']) != -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x.minus(" ") == server_info['HDDType'].minus(" ")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレッド数</t>
+    <t>VMWare リソース割り当て</t>
+  </si>
+  <si>
+    <t>x == NumberUtils.toDouble(server_info['NumCpu'])</t>
+  </si>
+  <si>
+    <t>x == NumberUtils.toDouble(server_info['MemoryGB'])</t>
+  </si>
+  <si>
+    <t>x.indexOf(server_info['ESXiHost']) != -1</t>
+  </si>
+  <si>
+    <t>クラスター</t>
+  </si>
+  <si>
+    <t>x.minus(" ") == server_info['HDDType'].minus(" ")</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>スレッド数</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォール(RHEL6)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─IPv6ファイヤーウォール(RHEL6)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>packages_set.oracle</t>
+  </si>
+  <si>
+    <t>packages_set.base</t>
+  </si>
+  <si>
+    <t>packages_set.sophos</t>
+  </si>
+  <si>
+    <t>packages_set.msm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1528,6 +1508,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1544,295 +1530,558 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal style="hair"/>
+    <border diagonalUp="1">
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="hair">
+        <color auto="1"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="B65:B68 A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" activeCellId="1" sqref="B65:B68 A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="36.875"/>
+    <col min="4" max="8" width="13.375"/>
+    <col min="9" max="9" width="12.25"/>
+    <col min="10" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +2099,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1868,7 +2117,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1876,47 +2125,47 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" ref="D7:M7" si="0">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
         <v/>
       </c>
       <c r="E7" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F7" s="4" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G7" s="4" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="4" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I7" s="4" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J7" s="4" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K7" s="4" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L7" s="4" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M7" s="4" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1924,47 +2173,47 @@
         <v>11</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" ref="D8:M8" si="1">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
         <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F8" s="4" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H8" s="4" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I8" s="4" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J8" s="4" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K8" s="4" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L8" s="4" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M8" s="4" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1972,47 +2221,47 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" ref="D9:M9" si="2">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
         <v/>
       </c>
       <c r="E9" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F9" s="4" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" s="4" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H9" s="4" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I9" s="4" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" s="4" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K9" s="4" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L9" s="4" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M9" s="4" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2020,47 +2269,47 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f aca="false">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" ref="D10:M10" si="3">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <f aca="false">IF(OR(E$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F10" s="4" t="str">
-        <f aca="false">IF(OR(F$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <f aca="false">IF(OR(G$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H10" s="4" t="str">
-        <f aca="false">IF(OR(H$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I10" s="4" t="str">
-        <f aca="false">IF(OR(I$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J10" s="4" t="str">
-        <f aca="false">IF(OR(J$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10" s="4" t="str">
-        <f aca="false">IF(OR(K$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L10" s="4" t="str">
-        <f aca="false">IF(OR(L$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M10" s="4" t="str">
-        <f aca="false">IF(OR(M$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2068,47 +2317,47 @@
         <v>17</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f aca="false">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" ref="D11:M11" si="4">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
       <c r="E11" s="4" t="str">
-        <f aca="false">IF(OR(E$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F11" s="4" t="str">
-        <f aca="false">IF(OR(F$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G11" s="4" t="str">
-        <f aca="false">IF(OR(G$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H11" s="4" t="str">
-        <f aca="false">IF(OR(H$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I11" s="4" t="str">
-        <f aca="false">IF(OR(I$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J11" s="4" t="str">
-        <f aca="false">IF(OR(J$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K11" s="4" t="str">
-        <f aca="false">IF(OR(K$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L11" s="4" t="str">
-        <f aca="false">IF(OR(L$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M11" s="4" t="str">
-        <f aca="false">IF(OR(M$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
@@ -2126,7 +2375,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:13" ht="36" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2393,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
         <v>22</v>
@@ -2160,7 +2409,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -2178,7 +2427,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -2196,7 +2445,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2214,7 +2463,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -2232,7 +2481,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2250,50 +2499,43 @@
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:M5" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D5:M5">
       <formula1>"選択してください,Linux,Windows,VMHost"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:M6" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D6:M6">
       <formula1>"選択してください,オンプレ,VM"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B65:B68"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="19.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="54.875"/>
+    <col min="7" max="10" width="13.375"/>
+    <col min="11" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2301,7 +2543,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -2311,7 +2553,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2319,7 +2561,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -2339,7 +2581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
@@ -2357,7 +2599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="9" t="s">
         <v>23</v>
@@ -2373,7 +2615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
         <v>45</v>
@@ -2389,7 +2631,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
         <v>25</v>
@@ -2405,7 +2647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>50</v>
@@ -2421,7 +2663,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>53</v>
@@ -2437,7 +2679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -2457,7 +2699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -2477,7 +2719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
@@ -2495,7 +2737,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>38</v>
       </c>
@@ -2513,7 +2755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
@@ -2531,7 +2773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
@@ -2551,7 +2793,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -2569,7 +2811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
@@ -2587,7 +2829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
@@ -2605,7 +2847,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
         <v>38</v>
       </c>
@@ -2623,7 +2865,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -2641,7 +2883,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
         <v>88</v>
@@ -2657,7 +2899,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
         <v>91</v>
@@ -2673,7 +2915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
         <v>94</v>
@@ -2689,7 +2931,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
         <v>97</v>
@@ -2705,7 +2947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="9" t="s">
         <v>100</v>
@@ -2721,7 +2963,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
@@ -2739,7 +2981,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
@@ -2757,7 +2999,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="9" t="s">
         <v>109</v>
@@ -2773,7 +3015,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="9" t="s">
         <v>112</v>
@@ -2789,7 +3031,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
@@ -2809,7 +3051,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
       <c r="B32" s="9" t="s">
         <v>117</v>
@@ -2825,7 +3067,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>38</v>
       </c>
@@ -2843,7 +3085,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>38</v>
       </c>
@@ -2861,7 +3103,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>38</v>
       </c>
@@ -2881,7 +3123,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>129</v>
       </c>
@@ -2899,7 +3141,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>38</v>
       </c>
@@ -2917,7 +3159,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
         <v>38</v>
       </c>
@@ -2937,7 +3179,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="9" t="s">
         <v>139</v>
@@ -2953,7 +3195,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="9" t="s">
         <v>142</v>
@@ -2969,7 +3211,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
         <v>145</v>
@@ -2985,7 +3227,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>38</v>
       </c>
@@ -3003,7 +3245,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>38</v>
       </c>
@@ -3023,7 +3265,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
@@ -3043,7 +3285,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="s">
         <v>157</v>
@@ -3059,7 +3301,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>38</v>
       </c>
@@ -3077,7 +3319,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>38</v>
       </c>
@@ -3095,7 +3337,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>38</v>
       </c>
@@ -3113,7 +3355,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>38</v>
       </c>
@@ -3133,7 +3375,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
         <v>172</v>
@@ -3149,7 +3391,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>175</v>
@@ -3165,539 +3407,539 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>179</v>
+        <v>441</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>182</v>
+        <v>442</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="D58" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
       <c r="B65" s="13" t="s">
-        <v>217</v>
+        <v>443</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
       <c r="B66" s="13" t="s">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
       <c r="B67" s="13" t="s">
-        <v>223</v>
+        <v>445</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
       <c r="B68" s="13" t="s">
-        <v>226</v>
+        <v>446</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A72" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E78" s="15"/>
       <c r="F78" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>75</v>
@@ -3706,86 +3948,73 @@
         <v>38</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="1" sqref="B65:B68 C56"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" activeCellId="1" sqref="B65:B68 C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3659793814433"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4123711340206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.3711340206186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="25.375"/>
+    <col min="4" max="4" width="15.375"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="55.375"/>
+    <col min="7" max="7" width="13.375"/>
+    <col min="8" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3793,9 +4022,9 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3803,7 +4032,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3811,7 +4040,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -3831,7 +4060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
@@ -3849,7 +4078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -3865,7 +4094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>45</v>
@@ -3881,7 +4110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>25</v>
@@ -3897,7 +4126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>50</v>
@@ -3913,7 +4142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>53</v>
@@ -3929,7 +4158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -3949,7 +4178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -3969,7 +4198,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
@@ -3987,7 +4216,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>38</v>
       </c>
@@ -4005,7 +4234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
@@ -4023,7 +4252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
@@ -4043,7 +4272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -4054,14 +4283,14 @@
         <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
         <v>88</v>
@@ -4070,14 +4299,14 @@
         <v>89</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
         <v>91</v>
@@ -4086,280 +4315,280 @@
         <v>92</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
@@ -4367,51 +4596,51 @@
         <v>136</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="18" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
@@ -4422,16 +4651,16 @@
         <v>155</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4442,14 +4671,14 @@
         <v>161</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>38</v>
       </c>
@@ -4460,68 +4689,68 @@
         <v>170</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -4529,7 +4758,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>38</v>
       </c>
@@ -4537,17 +4766,17 @@
         <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>38</v>
       </c>
@@ -4555,311 +4784,304 @@
         <v>59</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
       <c r="B48" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
       <c r="B49" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="9" t="s">
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="12" t="s">
+      <c r="D61" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B65:B68 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="B65:B68 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3659793814433"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.5051546391753"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="4.375"/>
+    <col min="2" max="2" width="21.25"/>
+    <col min="3" max="3" width="22.375"/>
+    <col min="4" max="5" width="7.375"/>
+    <col min="6" max="6" width="49.5"/>
+    <col min="7" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -4867,7 +5089,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4875,7 +5097,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4883,7 +5105,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -4903,7 +5125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -4911,17 +5133,17 @@
         <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -4934,13 +5156,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>92</v>
@@ -4950,138 +5172,138 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>45</v>
@@ -5094,82 +5316,82 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>50</v>
@@ -5178,18 +5400,18 @@
         <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>50</v>
@@ -5198,18 +5420,18 @@
         <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>50</v>
@@ -5218,18 +5440,18 @@
         <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>50</v>
@@ -5238,18 +5460,18 @@
         <v>38</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>50</v>
@@ -5258,10 +5480,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5269,7 +5491,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5277,7 +5499,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5285,7 +5507,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5293,7 +5515,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5301,7 +5523,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5309,7 +5531,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5317,7 +5539,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5325,7 +5547,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5333,7 +5555,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5341,7 +5563,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5349,7 +5571,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5357,7 +5579,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5365,7 +5587,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5373,7 +5595,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5381,7 +5603,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -5389,7 +5611,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -5397,7 +5619,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -5405,7 +5627,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -5413,7 +5635,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -5421,7 +5643,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -5429,7 +5651,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -5437,7 +5659,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -5445,7 +5667,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5453,7 +5675,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -5461,7 +5683,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5470,10 +5692,10 @@
       <c r="F51" s="21"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -5481,28 +5703,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B65:B68 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="B65:B68 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="16.125"/>
+    <col min="6" max="6" width="16.25"/>
+    <col min="7" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
         <v>33</v>
@@ -5514,43 +5733,43 @@
         <v>35</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>41</v>
@@ -5558,7 +5777,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="8" t="s">
         <v>23</v>
@@ -5570,13 +5789,13 @@
         <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>25</v>
@@ -5588,13 +5807,13 @@
         <v>41</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="8" t="s">
         <v>50</v>
@@ -5606,19 +5825,19 @@
         <v>41</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>41</v>
@@ -5626,7 +5845,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="8" t="s">
         <v>62</v>
@@ -5640,7 +5859,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>65</v>
@@ -5654,7 +5873,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="9" t="s">
         <v>71</v>
@@ -5666,13 +5885,13 @@
         <v>41</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDesc